--- a/TUEDweb/ALL_TUED_UNIONS.xlsx
+++ b/TUEDweb/ALL_TUED_UNIONS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\André\TUED\webmap\andreldeod.github.io\TUEDweb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7604DEB4-4B7C-405E-9126-6DF85E617092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE09E5FD-9536-4B20-A8F7-965C6F203C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31890" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3506,11 +3506,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y980"/>
+  <dimension ref="A1:Y979"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9588,9 +9588,7 @@
       </c>
     </row>
     <row r="130" spans="1:15" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A130" s="9">
-        <v>134</v>
-      </c>
+      <c r="A130" s="9"/>
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
       <c r="D130" s="10"/>
@@ -21489,32 +21487,18 @@
       <c r="M979" s="10"/>
       <c r="N979" s="14"/>
     </row>
-    <row r="980" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A980" s="9"/>
-      <c r="B980" s="9"/>
-      <c r="C980" s="9"/>
-      <c r="D980" s="10"/>
-      <c r="E980" s="10"/>
-      <c r="F980" s="10"/>
-      <c r="G980" s="10"/>
-      <c r="J980" s="10"/>
-      <c r="K980" s="39"/>
-      <c r="L980" s="10"/>
-      <c r="M980" s="10"/>
-      <c r="N980" s="14"/>
-    </row>
   </sheetData>
   <dataValidations count="11">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J2:J110" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Select below,Africa,Asia and the Pacific,Europe,Latin America and the Caribbean,North America,Global"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J111:J130" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J111:J129" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Africa,Asia and the Pacific,Europe,Latin America and the Caribbean,North America,Global"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L111:L116 L119:L122" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Diverse,Education,Energy - Electricity,Energy - Hydrocarbon,Energy - Mining,Energy - Other,Agriculture / Food service,Health,Industry / Manufacturing,National Centre,Professionals,Private Sector,Public Services,Retail,Transport,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D111:D130" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D111:D129" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"Local Union ,National Union,National Centre,Regional Body,Global Union Federation,Participating Ally"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D82 D84:D110" xr:uid="{00000000-0002-0000-0000-000004000000}">
@@ -21526,7 +21510,7 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L2 L4:L6 L8:L13 L15:L16 L18:L19 L21:L23 L25:L26 L29:L35 L37 L39:L44 L47 L50:L67 L69:L70 L72:L78 L80 L82:L84 L86:L90 L95:L102 L104:L107 L110" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"Select below,Diverse,Education,Energy - Electricity,Energy - Hydrocarbon,Energy - Mining,Energy - Other,Food service / Agricultural,Health,Industry / Manufacturing,National Centre,Professionals,Private Sector,Public Services,Retail,Transport,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L45 L49 L68 L71 L81 L85 L91 L103 L108:L109 L117:L118 L123:L130" xr:uid="{00000000-0002-0000-0000-000007000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L45 L49 L68 L71 L81 L85 L91 L103 L108:L109 L117:L118 L123:L129" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>"Diverse,Education,Energy - Electricity,Energy - Hydrocarbon,Energy - Mining,Energy - Other,Agricultural / Food Service,Health,Industry / Manufacturing,National Centre,Professionals,Private Sector,Public Services,Retail,Transport,Other"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L79" xr:uid="{00000000-0002-0000-0000-000008000000}">

--- a/TUEDweb/ALL_TUED_UNIONS.xlsx
+++ b/TUEDweb/ALL_TUED_UNIONS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\André\TUED\webmap\andreldeod.github.io\TUEDweb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE09E5FD-9536-4B20-A8F7-965C6F203C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A23D11-BA25-4109-89C9-011335CE8469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31890" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -223,9 +223,6 @@
     <t>Logo</t>
   </si>
   <si>
-    <t xml:space="preserve">Sector </t>
-  </si>
-  <si>
     <t>Website</t>
   </si>
   <si>
@@ -2928,6 +2925,9 @@
   </si>
   <si>
     <t xml:space="preserve">The National Union of Energy Workers of Niger (Syndicat National des Travailleurs de l'Énergie du Niger, SYNTRAVE) is a trade union in Niger representing workers in the energy sector. </t>
+  </si>
+  <si>
+    <t>Sector</t>
   </si>
 </sst>
 </file>
@@ -3510,7 +3510,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C134" sqref="C134"/>
+      <selection pane="bottomLeft" activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3559,16 +3559,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>14</v>
       </c>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
@@ -3586,22 +3586,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>20</v>
       </c>
       <c r="H2" s="11">
         <v>-34.871498559999999</v>
@@ -3610,22 +3610,22 @@
         <v>-56.124811479999998</v>
       </c>
       <c r="J2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="L2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="M2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="N2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="O2" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.35">
@@ -3633,22 +3633,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>31</v>
       </c>
       <c r="H3" s="11">
         <v>-34.737019340000003</v>
@@ -3657,22 +3657,22 @@
         <v>-58.278738009999998</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="15" t="s">
+      <c r="N3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="O3" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.35">
@@ -3680,22 +3680,22 @@
         <v>5</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="E4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>31</v>
       </c>
       <c r="H4" s="11">
         <v>-34.573736619999998</v>
@@ -3704,22 +3704,22 @@
         <v>-58.478427930000002</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="M4" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="N4" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="14" t="s">
-        <v>42</v>
-      </c>
       <c r="O4" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.35">
@@ -3727,22 +3727,22 @@
         <v>6</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>44</v>
-      </c>
       <c r="D5" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>31</v>
       </c>
       <c r="H5" s="11">
         <v>-34.682590150000003</v>
@@ -3751,22 +3751,22 @@
         <v>-58.418532399999997</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" s="13" t="s">
+      <c r="N5" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="14" t="s">
-        <v>47</v>
-      </c>
       <c r="O5" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.35">
@@ -3774,22 +3774,22 @@
         <v>7</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>49</v>
-      </c>
       <c r="D6" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>31</v>
       </c>
       <c r="H6" s="11">
         <v>-34.610714590000001</v>
@@ -3798,22 +3798,22 @@
         <v>-58.432512690000003</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="M6" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="N6" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="14" t="s">
-        <v>53</v>
-      </c>
       <c r="O6" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.35">
@@ -3821,22 +3821,22 @@
         <v>8</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="F7" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>56</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>57</v>
       </c>
       <c r="H7" s="11">
         <v>-37.804510999999998</v>
@@ -3845,22 +3845,22 @@
         <v>144.96509499999999</v>
       </c>
       <c r="J7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="L7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="L7" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" s="15" t="s">
+      <c r="N7" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="O7" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.35">
@@ -3868,22 +3868,22 @@
         <v>9</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>64</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>65</v>
       </c>
       <c r="H8" s="11">
         <v>-33.920088</v>
@@ -3892,22 +3892,22 @@
         <v>151.202842</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K8" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="M8" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="M8" s="15" t="s">
+      <c r="N8" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="N8" s="14" t="s">
-        <v>69</v>
-      </c>
       <c r="O8" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.35">
@@ -3915,22 +3915,22 @@
         <v>10</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="D9" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="E9" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="F9" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>73</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>74</v>
       </c>
       <c r="H9" s="11">
         <v>-33.90332806</v>
@@ -3939,22 +3939,22 @@
         <v>151.2122999</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K9" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="M9" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="M9" s="15" t="s">
+      <c r="N9" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="N9" s="17" t="s">
-        <v>78</v>
-      </c>
       <c r="O9" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.35">
@@ -3962,22 +3962,22 @@
         <v>11</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="D10" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>80</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>81</v>
       </c>
       <c r="H10" s="11">
         <v>-37.829067999999999</v>
@@ -3986,22 +3986,22 @@
         <v>144.958214</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K10" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="M10" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="M10" s="15" t="s">
+      <c r="N10" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="N10" s="14" t="s">
-        <v>85</v>
-      </c>
       <c r="O10" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.35">
@@ -4009,22 +4009,22 @@
         <v>12</v>
       </c>
       <c r="B11" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="E11" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="F11" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>88</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>89</v>
       </c>
       <c r="H11" s="11">
         <v>-35.251411210000001</v>
@@ -4033,22 +4033,22 @@
         <v>149.13847609999999</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K11" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="L11" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="18" t="s">
+      <c r="N11" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="N11" s="14" t="s">
-        <v>92</v>
-      </c>
       <c r="O11" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.35">
@@ -4056,22 +4056,22 @@
         <v>13</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="D12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>94</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>95</v>
       </c>
       <c r="H12" s="11">
         <v>-37.820259</v>
@@ -4080,22 +4080,22 @@
         <v>144.943153</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K12" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="L12" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M12" s="15" t="s">
+      <c r="N12" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="N12" s="14" t="s">
-        <v>98</v>
-      </c>
       <c r="O12" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.35">
@@ -4103,22 +4103,22 @@
         <v>14</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="D13" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>101</v>
-      </c>
       <c r="F13" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H13" s="11">
         <v>-37.806871999999998</v>
@@ -4127,22 +4127,22 @@
         <v>144.96648400000001</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K13" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="L13" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M13" s="13" t="s">
+      <c r="N13" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="N13" s="14" t="s">
-        <v>104</v>
-      </c>
       <c r="O13" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.35">
@@ -4150,22 +4150,22 @@
         <v>15</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="D14" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="F14" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="G14" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>109</v>
       </c>
       <c r="H14" s="11">
         <v>43.266271000000003</v>
@@ -4174,22 +4174,22 @@
         <v>-2.9347840000000001</v>
       </c>
       <c r="J14" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K14" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="L14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="L14" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M14" s="15" t="s">
+      <c r="N14" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="N14" s="14" t="s">
+      <c r="O14" s="8" t="s">
         <v>113</v>
-      </c>
-      <c r="O14" s="8" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.35">
@@ -4197,22 +4197,22 @@
         <v>16</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="D15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" s="10" t="s">
         <v>116</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>117</v>
       </c>
       <c r="H15" s="11">
         <v>42.856045420000001</v>
@@ -4221,22 +4221,22 @@
         <v>-2.6695284159999999</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K15" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="L15" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" s="15" t="s">
+      <c r="N15" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="N15" s="14" t="s">
-        <v>120</v>
-      </c>
       <c r="O15" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.35">
@@ -4244,22 +4244,22 @@
         <v>17</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="D16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="10" t="s">
+      <c r="F16" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>123</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>124</v>
       </c>
       <c r="H16" s="11">
         <v>50.859474069999997</v>
@@ -4268,22 +4268,22 @@
         <v>4.3581126899999996</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K16" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="L16" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="L16" s="10" t="s">
+      <c r="M16" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="M16" s="15" t="s">
+      <c r="N16" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="N16" s="14" t="s">
+      <c r="O16" s="8" t="s">
         <v>128</v>
-      </c>
-      <c r="O16" s="8" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
@@ -4291,22 +4291,22 @@
         <v>18</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="D17" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="10" t="s">
+      <c r="F17" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="G17" s="10" t="s">
         <v>133</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>134</v>
       </c>
       <c r="H17" s="11">
         <v>6.359389674</v>
@@ -4315,22 +4315,22 @@
         <v>2.4179765799999999</v>
       </c>
       <c r="J17" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="K17" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="K17" s="12" t="s">
+      <c r="L17" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="L17" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M17" s="15" t="s">
+      <c r="N17" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="N17" s="14" t="s">
+      <c r="O17" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="O17" s="8" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
@@ -4338,22 +4338,22 @@
         <v>19</v>
       </c>
       <c r="B18" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="D18" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="10" t="s">
+      <c r="F18" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>142</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>143</v>
       </c>
       <c r="H18" s="11">
         <v>-24.67558292</v>
@@ -4362,22 +4362,22 @@
         <v>25.9150402</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K18" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="L18" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M18" s="15" t="s">
+      <c r="N18" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="N18" s="14" t="s">
+      <c r="O18" s="8" t="s">
         <v>146</v>
-      </c>
-      <c r="O18" s="8" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="93" x14ac:dyDescent="0.35">
@@ -4385,22 +4385,22 @@
         <v>20</v>
       </c>
       <c r="B19" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="D19" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="10" t="s">
+      <c r="F19" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19" s="10" t="s">
         <v>150</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>151</v>
       </c>
       <c r="H19" s="11">
         <v>-23.697198570000001</v>
@@ -4409,22 +4409,22 @@
         <v>-46.563255310000002</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K19" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M19" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="L19" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="M19" s="13" t="s">
+      <c r="N19" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="N19" s="14" t="s">
+      <c r="O19" s="8" t="s">
         <v>154</v>
-      </c>
-      <c r="O19" s="8" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -4432,22 +4432,22 @@
         <v>21</v>
       </c>
       <c r="B20" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="D20" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>157</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>158</v>
       </c>
       <c r="H20" s="11">
         <v>-23.550652190000001</v>
@@ -4456,22 +4456,22 @@
         <v>-46.619675749999999</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K20" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M20" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="L20" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M20" s="15" t="s">
+      <c r="N20" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="N20" s="14" t="s">
-        <v>161</v>
-      </c>
       <c r="O20" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="81.400000000000006" x14ac:dyDescent="0.35">
@@ -4479,22 +4479,22 @@
         <v>22</v>
       </c>
       <c r="B21" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="D21" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="G21" s="10" t="s">
         <v>163</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>164</v>
       </c>
       <c r="H21" s="11">
         <v>-22.904237380000001</v>
@@ -4503,22 +4503,22 @@
         <v>-43.177665480000002</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K21" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="L21" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="L21" s="10" t="s">
+      <c r="M21" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="M21" s="15" t="s">
+      <c r="N21" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="N21" s="14" t="s">
-        <v>168</v>
-      </c>
       <c r="O21" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="71.25" x14ac:dyDescent="0.35">
@@ -4526,22 +4526,22 @@
         <v>23</v>
       </c>
       <c r="B22" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="D22" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="10" t="s">
+      <c r="F22" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="G22" s="19" t="s">
         <v>171</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>172</v>
       </c>
       <c r="H22" s="11">
         <v>3.8359220000000001</v>
@@ -4550,22 +4550,22 @@
         <v>11.536372</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K22" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M22" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="L22" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="M22" s="13" t="s">
+      <c r="N22" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="N22" s="21" t="s">
+      <c r="O22" s="8" t="s">
         <v>175</v>
-      </c>
-      <c r="O22" s="8" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="71.25" x14ac:dyDescent="0.35">
@@ -4573,22 +4573,22 @@
         <v>24</v>
       </c>
       <c r="B23" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>178</v>
-      </c>
       <c r="D23" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E23" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="G23" s="10" t="s">
         <v>171</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>172</v>
       </c>
       <c r="H23" s="11">
         <v>3.8686465000000001</v>
@@ -4597,18 +4597,18 @@
         <v>11.5147049</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K23" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M23" s="10"/>
       <c r="N23" s="14"/>
       <c r="O23" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -4616,22 +4616,22 @@
         <v>25</v>
       </c>
       <c r="B24" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="D24" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="10" t="s">
+      <c r="F24" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="G24" s="10" t="s">
         <v>183</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>184</v>
       </c>
       <c r="H24" s="11">
         <v>49.246527389999997</v>
@@ -4640,22 +4640,22 @@
         <v>-122.9757062</v>
       </c>
       <c r="J24" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="K24" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="K24" s="12" t="s">
+      <c r="L24" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="L24" s="10" t="s">
+      <c r="M24" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="M24" s="15" t="s">
+      <c r="N24" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="N24" s="14" t="s">
+      <c r="O24" s="8" t="s">
         <v>189</v>
-      </c>
-      <c r="O24" s="8" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -4663,22 +4663,22 @@
         <v>26</v>
       </c>
       <c r="B25" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="D25" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="G25" s="22" t="s">
         <v>192</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>193</v>
       </c>
       <c r="H25" s="11">
         <v>49.26582389</v>
@@ -4687,22 +4687,22 @@
         <v>-123.1172131</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K25" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="M25" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="L25" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="M25" s="15" t="s">
+      <c r="N25" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="N25" s="14" t="s">
-        <v>196</v>
-      </c>
       <c r="O25" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -4710,22 +4710,22 @@
         <v>27</v>
       </c>
       <c r="B26" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="D26" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="G26" s="10" t="s">
         <v>198</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>199</v>
       </c>
       <c r="H26" s="11">
         <v>45.371397989999998</v>
@@ -4734,22 +4734,22 @@
         <v>-75.689281719999997</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K26" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M26" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="L26" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M26" s="15" t="s">
+      <c r="N26" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="N26" s="14" t="s">
-        <v>202</v>
-      </c>
       <c r="O26" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -4757,22 +4757,22 @@
         <v>28</v>
       </c>
       <c r="B27" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="D27" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="G27" s="10" t="s">
         <v>204</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>205</v>
       </c>
       <c r="H27" s="11">
         <v>45.418122429999997</v>
@@ -4781,22 +4781,22 @@
         <v>-75.632936240000006</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K27" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="L27" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M27" s="15" t="s">
+      <c r="N27" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="N27" s="14" t="s">
-        <v>208</v>
-      </c>
       <c r="O27" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -4804,22 +4804,22 @@
         <v>29</v>
       </c>
       <c r="B28" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="D28" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="G28" s="10" t="s">
         <v>210</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>211</v>
       </c>
       <c r="H28" s="11">
         <v>45.413802349999997</v>
@@ -4828,22 +4828,22 @@
         <v>-75.694667449999997</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K28" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M28" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="L28" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="M28" s="13" t="s">
+      <c r="N28" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="N28" s="14" t="s">
-        <v>214</v>
-      </c>
       <c r="O28" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -4851,22 +4851,22 @@
         <v>30</v>
       </c>
       <c r="B29" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="D29" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" s="10" t="s">
+      <c r="F29" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="G29" s="10" t="s">
         <v>217</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>218</v>
       </c>
       <c r="H29" s="11">
         <v>45.546885420000002</v>
@@ -4875,22 +4875,22 @@
         <v>-73.63817444</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K29" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M29" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="L29" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M29" s="15" t="s">
+      <c r="N29" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="N29" s="14" t="s">
-        <v>221</v>
-      </c>
       <c r="O29" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="81.400000000000006" x14ac:dyDescent="0.35">
@@ -4898,22 +4898,22 @@
         <v>31</v>
       </c>
       <c r="B30" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="D30" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="G30" s="10" t="s">
         <v>223</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>224</v>
       </c>
       <c r="H30" s="11">
         <v>45.334954439999997</v>
@@ -4922,22 +4922,22 @@
         <v>-75.703985759999995</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K30" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M30" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="L30" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="M30" s="15" t="s">
+      <c r="N30" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="N30" s="14" t="s">
-        <v>227</v>
-      </c>
       <c r="O30" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="81.400000000000006" x14ac:dyDescent="0.35">
@@ -4945,22 +4945,22 @@
         <v>32</v>
       </c>
       <c r="B31" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="D31" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="G31" s="10" t="s">
         <v>229</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>230</v>
       </c>
       <c r="H31" s="11">
         <v>45.416356059999998</v>
@@ -4969,22 +4969,22 @@
         <v>-75.69086145</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K31" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="L31" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M31" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="L31" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="M31" s="15" t="s">
+      <c r="N31" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="N31" s="14" t="s">
-        <v>233</v>
-      </c>
       <c r="O31" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="101.65" x14ac:dyDescent="0.35">
@@ -4992,22 +4992,22 @@
         <v>33</v>
       </c>
       <c r="B32" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="D32" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="G32" s="10" t="s">
         <v>235</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>236</v>
       </c>
       <c r="H32" s="11">
         <v>43.80268547</v>
@@ -5016,22 +5016,22 @@
         <v>-79.344046320000004</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K32" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="L32" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="L32" s="10" t="s">
+      <c r="M32" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="M32" s="13" t="s">
+      <c r="N32" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="N32" s="14" t="s">
-        <v>240</v>
-      </c>
       <c r="O32" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:25" ht="91.5" x14ac:dyDescent="0.35">
@@ -5039,22 +5039,22 @@
         <v>34</v>
       </c>
       <c r="B33" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="D33" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D33" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E33" s="10" t="s">
+      <c r="F33" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="G33" s="10" t="s">
         <v>243</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>244</v>
       </c>
       <c r="H33" s="11">
         <v>49.283540039999998</v>
@@ -5063,22 +5063,22 @@
         <v>-123.0657997</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K33" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="L33" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M33" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="L33" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M33" s="15" t="s">
+      <c r="N33" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="N33" s="14" t="s">
-        <v>247</v>
-      </c>
       <c r="O33" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:25" ht="91.5" x14ac:dyDescent="0.35">
@@ -5086,22 +5086,22 @@
         <v>35</v>
       </c>
       <c r="B34" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C34" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="D34" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="G34" s="10" t="s">
         <v>249</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>250</v>
       </c>
       <c r="H34" s="11">
         <v>49.265870290000002</v>
@@ -5110,22 +5110,22 @@
         <v>-123.1060402</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K34" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="M34" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="L34" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="M34" s="13" t="s">
+      <c r="N34" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="N34" s="14" t="s">
-        <v>253</v>
-      </c>
       <c r="O34" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:25" ht="93" x14ac:dyDescent="0.35">
@@ -5133,22 +5133,22 @@
         <v>36</v>
       </c>
       <c r="B35" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="D35" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="G35" s="10" t="s">
         <v>255</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>256</v>
       </c>
       <c r="H35" s="11">
         <v>49.230513360000003</v>
@@ -5157,22 +5157,22 @@
         <v>-123.0037913</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K35" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M35" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="L35" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M35" s="15" t="s">
+      <c r="N35" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="N35" s="14" t="s">
-        <v>259</v>
-      </c>
       <c r="O35" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:25" ht="71.25" x14ac:dyDescent="0.35">
@@ -5180,22 +5180,22 @@
         <v>37</v>
       </c>
       <c r="B36" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C36" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="D36" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="D36" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E36" s="10" t="s">
+      <c r="F36" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="G36" s="10" t="s">
         <v>262</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>263</v>
       </c>
       <c r="H36" s="11">
         <v>-33.445240990000002</v>
@@ -5204,22 +5204,22 @@
         <v>-70.654701430000003</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K36" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="L36" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M36" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="L36" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M36" s="15" t="s">
+      <c r="N36" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="N36" s="14" t="s">
+      <c r="O36" s="8" t="s">
         <v>266</v>
-      </c>
-      <c r="O36" s="8" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="37" spans="1:25" ht="101.65" x14ac:dyDescent="0.35">
@@ -5227,22 +5227,22 @@
         <v>38</v>
       </c>
       <c r="B37" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="C37" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="C37" s="9" t="s">
-        <v>269</v>
-      </c>
       <c r="D37" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E37" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="G37" s="10" t="s">
         <v>262</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>263</v>
       </c>
       <c r="H37" s="11">
         <v>-33.417164759999999</v>
@@ -5251,22 +5251,22 @@
         <v>-70.599113819999999</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K37" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="L37" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="M37" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="L37" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="M37" s="13" t="s">
+      <c r="N37" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="N37" s="14" t="s">
-        <v>272</v>
-      </c>
       <c r="O37" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:25" ht="91.5" x14ac:dyDescent="0.35">
@@ -5274,22 +5274,22 @@
         <v>39</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C38" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="D38" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E38" s="10" t="s">
+      <c r="F38" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="G38" s="10" t="s">
         <v>274</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>275</v>
       </c>
       <c r="H38" s="11">
         <v>4.6253558789999998</v>
@@ -5298,22 +5298,22 @@
         <v>-74.064914689999995</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K38" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="L38" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M38" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="L38" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M38" s="15" t="s">
+      <c r="N38" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="N38" s="14" t="s">
+      <c r="O38" s="8" t="s">
         <v>278</v>
-      </c>
-      <c r="O38" s="8" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="39" spans="1:25" ht="91.5" x14ac:dyDescent="0.35">
@@ -5321,22 +5321,22 @@
         <v>40</v>
       </c>
       <c r="B39" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="C39" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="C39" s="9" t="s">
-        <v>281</v>
-      </c>
       <c r="D39" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E39" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="G39" s="10" t="s">
         <v>274</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>275</v>
       </c>
       <c r="H39" s="11">
         <v>4.6002685469999998</v>
@@ -5345,22 +5345,22 @@
         <v>-74.073651780000006</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K39" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="L39" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="M39" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="L39" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="M39" s="25" t="s">
+      <c r="N39" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="N39" s="14" t="s">
-        <v>284</v>
-      </c>
       <c r="O39" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="40" spans="1:25" ht="101.65" x14ac:dyDescent="0.35">
@@ -5368,22 +5368,22 @@
         <v>41</v>
       </c>
       <c r="B40" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="C40" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="D40" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="D40" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>287</v>
-      </c>
       <c r="F40" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H40" s="11">
         <v>3.4552851659999999</v>
@@ -5392,22 +5392,22 @@
         <v>-76.526367750000006</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K40" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="L40" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M40" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="L40" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="M40" s="15" t="s">
+      <c r="N40" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="N40" s="14" t="s">
-        <v>290</v>
-      </c>
       <c r="O40" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="41" spans="1:25" ht="101.65" x14ac:dyDescent="0.35">
@@ -5415,22 +5415,22 @@
         <v>42</v>
       </c>
       <c r="B41" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="C41" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="D41" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="G41" s="10" t="s">
         <v>292</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>293</v>
       </c>
       <c r="H41" s="11">
         <v>7.0659280850000004</v>
@@ -5439,22 +5439,22 @@
         <v>-73.850923699999996</v>
       </c>
       <c r="J41" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K41" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="L41" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="M41" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="L41" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="M41" s="15" t="s">
+      <c r="N41" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="N41" s="14" t="s">
-        <v>296</v>
-      </c>
       <c r="O41" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="42" spans="1:25" ht="111.75" x14ac:dyDescent="0.35">
@@ -5462,22 +5462,22 @@
         <v>44</v>
       </c>
       <c r="B42" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="C42" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="D42" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="D42" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E42" s="10" t="s">
+      <c r="F42" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="F42" s="10" t="s">
+      <c r="G42" s="10" t="s">
         <v>300</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>301</v>
       </c>
       <c r="H42" s="11">
         <v>-0.21909969400000001</v>
@@ -5486,22 +5486,22 @@
         <v>-78.508402930000003</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K42" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="L42" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M42" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="L42" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M42" s="15" t="s">
+      <c r="N42" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="N42" s="14" t="s">
+      <c r="O42" s="8" t="s">
         <v>304</v>
-      </c>
-      <c r="O42" s="8" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="43" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
@@ -5509,20 +5509,20 @@
         <v>45</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C43" s="27"/>
       <c r="D43" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E43" s="28" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F43" s="28" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G43" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H43" s="11">
         <v>-26.316650800000001</v>
@@ -5531,16 +5531,16 @@
         <v>31.1333345</v>
       </c>
       <c r="J43" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K43" s="29"/>
       <c r="L43" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M43" s="28"/>
       <c r="N43" s="30"/>
       <c r="O43" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P43" s="31"/>
       <c r="Q43" s="31"/>
@@ -5558,22 +5558,22 @@
         <v>46</v>
       </c>
       <c r="B44" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="C44" s="9" t="s">
-        <v>310</v>
-      </c>
       <c r="D44" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F44" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="G44" s="24" t="s">
         <v>123</v>
-      </c>
-      <c r="G44" s="24" t="s">
-        <v>124</v>
       </c>
       <c r="H44" s="11">
         <v>50.861115269999999</v>
@@ -5582,22 +5582,22 @@
         <v>4.331592605</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K44" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="L44" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M44" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="L44" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="M44" s="15" t="s">
+      <c r="N44" s="33" t="s">
         <v>312</v>
       </c>
-      <c r="N44" s="33" t="s">
-        <v>313</v>
-      </c>
       <c r="O44" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:25" ht="91.5" x14ac:dyDescent="0.35">
@@ -5605,22 +5605,22 @@
         <v>47</v>
       </c>
       <c r="B45" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C45" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="C45" s="9" t="s">
-        <v>315</v>
-      </c>
       <c r="D45" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F45" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="G45" s="24" t="s">
         <v>123</v>
-      </c>
-      <c r="G45" s="24" t="s">
-        <v>124</v>
       </c>
       <c r="H45" s="11">
         <v>50.838795879999999</v>
@@ -5629,22 +5629,22 @@
         <v>4.3732313679999999</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K45" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="L45" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="L45" s="10" t="s">
+      <c r="M45" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="M45" s="15" t="s">
+      <c r="N45" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="N45" s="14" t="s">
-        <v>319</v>
-      </c>
       <c r="O45" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:25" ht="71.25" x14ac:dyDescent="0.35">
@@ -5652,22 +5652,22 @@
         <v>48</v>
       </c>
       <c r="B46" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="C46" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="D46" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="D46" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E46" s="32" t="s">
+      <c r="F46" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="G46" s="24" t="s">
         <v>322</v>
-      </c>
-      <c r="F46" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="G46" s="24" t="s">
-        <v>323</v>
       </c>
       <c r="H46" s="11">
         <v>42.884474769999997</v>
@@ -5676,22 +5676,22 @@
         <v>-8.5133369939999994</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K46" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="L46" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M46" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="L46" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M46" s="15" t="s">
+      <c r="N46" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="N46" s="14" t="s">
-        <v>326</v>
-      </c>
       <c r="O46" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:25" ht="101.65" x14ac:dyDescent="0.35">
@@ -5699,22 +5699,22 @@
         <v>49</v>
       </c>
       <c r="B47" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="D47" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="D47" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E47" s="10" t="s">
+      <c r="F47" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="G47" s="10" t="s">
         <v>329</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>330</v>
       </c>
       <c r="H47" s="11">
         <v>5.5519805</v>
@@ -5723,22 +5723,22 @@
         <v>-0.21866160000000001</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K47" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="L47" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M47" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="L47" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="M47" s="15" t="s">
+      <c r="N47" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="N47" s="14" t="s">
+      <c r="O47" s="8" t="s">
         <v>333</v>
-      </c>
-      <c r="O47" s="8" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="48" spans="1:25" ht="91.5" x14ac:dyDescent="0.35">
@@ -5746,22 +5746,22 @@
         <v>50</v>
       </c>
       <c r="B48" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="C48" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="D48" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="E48" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="E48" s="10" t="s">
-        <v>338</v>
-      </c>
       <c r="F48" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G48" s="24" t="s">
         <v>123</v>
-      </c>
-      <c r="G48" s="24" t="s">
-        <v>124</v>
       </c>
       <c r="H48" s="11">
         <v>50.835262899999996</v>
@@ -5770,22 +5770,22 @@
         <v>4.3313706999999999</v>
       </c>
       <c r="J48" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="K48" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="K48" s="12" t="s">
+      <c r="L48" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="M48" s="15" t="s">
         <v>339</v>
       </c>
-      <c r="L48" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="M48" s="15" t="s">
+      <c r="N48" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="N48" s="14" t="s">
-        <v>341</v>
-      </c>
       <c r="O48" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -5793,22 +5793,22 @@
         <v>51</v>
       </c>
       <c r="B49" s="34" t="s">
+        <v>341</v>
+      </c>
+      <c r="C49" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="D49" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="F49" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="D49" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="F49" s="10" t="s">
+      <c r="G49" s="10" t="s">
         <v>344</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>345</v>
       </c>
       <c r="H49" s="11">
         <v>51.464404199999997</v>
@@ -5817,22 +5817,22 @@
         <v>-8.2082484999999997E-2</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K49" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="L49" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="M49" s="15" t="s">
         <v>346</v>
       </c>
-      <c r="L49" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="M49" s="15" t="s">
+      <c r="N49" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="N49" s="14" t="s">
+      <c r="O49" s="8" t="s">
         <v>348</v>
-      </c>
-      <c r="O49" s="8" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -5840,22 +5840,22 @@
         <v>52</v>
       </c>
       <c r="B50" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="C50" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="D50" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="F50" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="D50" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="F50" s="10" t="s">
+      <c r="G50" s="10" t="s">
         <v>352</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>353</v>
       </c>
       <c r="H50" s="11">
         <v>46.210007500000003</v>
@@ -5864,22 +5864,22 @@
         <v>6.140028</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K50" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="L50" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M50" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="L50" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M50" s="15" t="s">
+      <c r="N50" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="N50" s="14" t="s">
+      <c r="O50" s="8" t="s">
         <v>356</v>
-      </c>
-      <c r="O50" s="8" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -5887,22 +5887,22 @@
         <v>53</v>
       </c>
       <c r="B51" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="C51" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="D51" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="F51" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="D51" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="F51" s="10" t="s">
+      <c r="G51" s="10" t="s">
         <v>360</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>361</v>
       </c>
       <c r="H51" s="11">
         <v>46.26248116</v>
@@ -5911,22 +5911,22 @@
         <v>6.0721476159999996</v>
       </c>
       <c r="J51" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K51" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="L51" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M51" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="L51" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="M51" s="15" t="s">
+      <c r="N51" s="14" t="s">
         <v>363</v>
       </c>
-      <c r="N51" s="14" t="s">
+      <c r="O51" s="8" t="s">
         <v>364</v>
-      </c>
-      <c r="O51" s="8" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -5934,22 +5934,22 @@
         <v>54</v>
       </c>
       <c r="B52" s="35" t="s">
+        <v>365</v>
+      </c>
+      <c r="C52" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="D52" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E52" s="21" t="s">
         <v>367</v>
       </c>
-      <c r="D52" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E52" s="21" t="s">
+      <c r="F52" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="F52" s="10" t="s">
+      <c r="G52" s="10" t="s">
         <v>369</v>
-      </c>
-      <c r="G52" s="10" t="s">
-        <v>370</v>
       </c>
       <c r="H52" s="11">
         <v>40.629915820000001</v>
@@ -5958,22 +5958,22 @@
         <v>22.947171879999999</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K52" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="L52" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M52" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="L52" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="M52" s="15" t="s">
+      <c r="N52" s="14" t="s">
         <v>372</v>
       </c>
-      <c r="N52" s="14" t="s">
+      <c r="O52" s="8" t="s">
         <v>373</v>
-      </c>
-      <c r="O52" s="8" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -5981,22 +5981,22 @@
         <v>55</v>
       </c>
       <c r="B53" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="C53" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="D53" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E53" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="D53" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E53" s="10" t="s">
+      <c r="F53" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="G53" s="10" t="s">
         <v>377</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="G53" s="10" t="s">
-        <v>378</v>
       </c>
       <c r="H53" s="11">
         <v>28.562263489999999</v>
@@ -6005,22 +6005,22 @@
         <v>77.249154250000004</v>
       </c>
       <c r="J53" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K53" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="L53" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M53" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="L53" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M53" s="13" t="s">
+      <c r="N53" s="14" t="s">
         <v>380</v>
       </c>
-      <c r="N53" s="14" t="s">
+      <c r="O53" s="8" t="s">
         <v>381</v>
-      </c>
-      <c r="O53" s="8" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="71.25" x14ac:dyDescent="0.35">
@@ -6028,22 +6028,22 @@
         <v>56</v>
       </c>
       <c r="B54" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E54" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="F54" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="D54" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E54" s="10" t="s">
+      <c r="G54" s="10" t="s">
         <v>384</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="G54" s="10" t="s">
-        <v>385</v>
       </c>
       <c r="H54" s="11">
         <v>53.353532370000003</v>
@@ -6052,22 +6052,22 @@
         <v>-6.2616945890000002</v>
       </c>
       <c r="J54" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K54" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="L54" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M54" s="15" t="s">
         <v>386</v>
       </c>
-      <c r="L54" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M54" s="15" t="s">
+      <c r="N54" s="36" t="s">
         <v>387</v>
       </c>
-      <c r="N54" s="36" t="s">
+      <c r="O54" s="8" t="s">
         <v>388</v>
-      </c>
-      <c r="O54" s="8" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -6075,22 +6075,22 @@
         <v>57</v>
       </c>
       <c r="B55" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="C55" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="D55" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E55" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="D55" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E55" s="10" t="s">
+      <c r="F55" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="G55" s="10" t="s">
         <v>392</v>
-      </c>
-      <c r="F55" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="G55" s="10" t="s">
-        <v>393</v>
       </c>
       <c r="H55" s="11">
         <v>41.911398839999997</v>
@@ -6099,22 +6099,22 @@
         <v>12.49198311</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K55" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="L55" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M55" s="13" t="s">
         <v>394</v>
       </c>
-      <c r="L55" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M55" s="13" t="s">
+      <c r="N55" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="N55" s="14" t="s">
+      <c r="O55" s="8" t="s">
         <v>396</v>
-      </c>
-      <c r="O55" s="8" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="71.25" x14ac:dyDescent="0.35">
@@ -6122,22 +6122,22 @@
         <v>58</v>
       </c>
       <c r="B56" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="C56" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="D56" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E56" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="D56" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E56" s="10" t="s">
+      <c r="F56" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="G56" s="10" t="s">
         <v>400</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="G56" s="10" t="s">
-        <v>401</v>
       </c>
       <c r="H56" s="11">
         <v>-1.2765567799999999</v>
@@ -6146,22 +6146,22 @@
         <v>36.826619469999997</v>
       </c>
       <c r="J56" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K56" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="L56" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="M56" s="15" t="s">
         <v>402</v>
       </c>
-      <c r="L56" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="M56" s="15" t="s">
+      <c r="N56" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="N56" s="14" t="s">
+      <c r="O56" s="8" t="s">
         <v>404</v>
-      </c>
-      <c r="O56" s="8" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="232.5" x14ac:dyDescent="0.35">
@@ -6169,22 +6169,22 @@
         <v>59</v>
       </c>
       <c r="B57" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="C57" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="D57" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E57" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="D57" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E57" s="10" t="s">
+      <c r="F57" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="G57" s="10" t="s">
         <v>408</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>409</v>
       </c>
       <c r="H57" s="11">
         <v>37.547555189999997</v>
@@ -6193,22 +6193,22 @@
         <v>126.8631299</v>
       </c>
       <c r="J57" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K57" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="L57" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M57" s="15" t="s">
         <v>410</v>
       </c>
-      <c r="L57" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M57" s="15" t="s">
+      <c r="N57" s="14" t="s">
         <v>411</v>
       </c>
-      <c r="N57" s="14" t="s">
+      <c r="O57" s="8" t="s">
         <v>412</v>
-      </c>
-      <c r="O57" s="8" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="61.15" x14ac:dyDescent="0.35">
@@ -6216,22 +6216,22 @@
         <v>60</v>
       </c>
       <c r="B58" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="C58" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="C58" s="9" t="s">
-        <v>415</v>
-      </c>
       <c r="D58" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E58" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="G58" s="10" t="s">
         <v>408</v>
-      </c>
-      <c r="F58" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="G58" s="10" t="s">
-        <v>409</v>
       </c>
       <c r="H58" s="11">
         <v>37.568352369999999</v>
@@ -6240,22 +6240,22 @@
         <v>126.9699937</v>
       </c>
       <c r="J58" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K58" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="L58" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M58" s="15" t="s">
         <v>416</v>
       </c>
-      <c r="L58" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M58" s="15" t="s">
+      <c r="N58" s="14" t="s">
         <v>417</v>
       </c>
-      <c r="N58" s="14" t="s">
-        <v>418</v>
-      </c>
       <c r="O58" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="61.15" x14ac:dyDescent="0.35">
@@ -6263,22 +6263,22 @@
         <v>61</v>
       </c>
       <c r="B59" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="C59" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="D59" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E59" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="D59" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E59" s="10" t="s">
+      <c r="F59" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="G59" s="10" t="s">
         <v>421</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="G59" s="10" t="s">
-        <v>422</v>
       </c>
       <c r="H59" s="11">
         <v>18.086427</v>
@@ -6287,22 +6287,22 @@
         <v>-15.9753404</v>
       </c>
       <c r="J59" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K59" s="37" t="s">
+        <v>422</v>
+      </c>
+      <c r="L59" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M59" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="L59" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M59" s="15" t="s">
+      <c r="N59" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="N59" s="14" t="s">
+      <c r="O59" s="8" t="s">
         <v>425</v>
-      </c>
-      <c r="O59" s="8" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -6310,22 +6310,22 @@
         <v>62</v>
       </c>
       <c r="B60" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="C60" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="D60" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E60" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="D60" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E60" s="10" t="s">
+      <c r="F60" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="G60" s="10" t="s">
         <v>429</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>429</v>
-      </c>
-      <c r="G60" s="10" t="s">
-        <v>430</v>
       </c>
       <c r="H60" s="11">
         <v>19.434547540000001</v>
@@ -6334,22 +6334,22 @@
         <v>-99.156873320000003</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K60" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="L60" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="M60" s="15" t="s">
         <v>431</v>
       </c>
-      <c r="L60" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="M60" s="15" t="s">
+      <c r="N60" s="14" t="s">
         <v>432</v>
       </c>
-      <c r="N60" s="14" t="s">
+      <c r="O60" s="8" t="s">
         <v>433</v>
-      </c>
-      <c r="O60" s="8" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -6357,22 +6357,22 @@
         <v>63</v>
       </c>
       <c r="B61" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="C61" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="C61" s="9" t="s">
-        <v>436</v>
-      </c>
       <c r="D61" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E61" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="G61" s="10" t="s">
         <v>429</v>
-      </c>
-      <c r="F61" s="10" t="s">
-        <v>429</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>430</v>
       </c>
       <c r="H61" s="11">
         <v>19.4443883</v>
@@ -6381,22 +6381,22 @@
         <v>-99.1329341</v>
       </c>
       <c r="J61" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K61" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="L61" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="M61" s="15" t="s">
         <v>437</v>
       </c>
-      <c r="L61" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="M61" s="15" t="s">
+      <c r="N61" s="14" t="s">
         <v>438</v>
       </c>
-      <c r="N61" s="14" t="s">
-        <v>439</v>
-      </c>
       <c r="O61" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -6404,22 +6404,22 @@
         <v>64</v>
       </c>
       <c r="B62" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="C62" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="D62" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E62" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="D62" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E62" s="10" t="s">
+      <c r="F62" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="F62" s="10" t="s">
+      <c r="G62" s="10" t="s">
         <v>443</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>444</v>
       </c>
       <c r="H62" s="11">
         <v>-25.953425330000002</v>
@@ -6428,22 +6428,22 @@
         <v>32.59405022</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K62" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="L62" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M62" s="13" t="s">
         <v>445</v>
       </c>
-      <c r="L62" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M62" s="13" t="s">
+      <c r="N62" s="14" t="s">
         <v>446</v>
       </c>
-      <c r="N62" s="14" t="s">
+      <c r="O62" s="8" t="s">
         <v>447</v>
-      </c>
-      <c r="O62" s="8" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -6451,22 +6451,22 @@
         <v>65</v>
       </c>
       <c r="B63" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="C63" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="D63" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E63" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="D63" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E63" s="10" t="s">
+      <c r="F63" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="G63" s="10" t="s">
         <v>451</v>
-      </c>
-      <c r="F63" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="G63" s="10" t="s">
-        <v>452</v>
       </c>
       <c r="H63" s="11">
         <v>-22.570006100000001</v>
@@ -6475,22 +6475,22 @@
         <v>17.0835461</v>
       </c>
       <c r="J63" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K63" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="L63" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M63" s="15" t="s">
         <v>453</v>
       </c>
-      <c r="L63" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M63" s="15" t="s">
+      <c r="N63" s="14" t="s">
         <v>454</v>
       </c>
-      <c r="N63" s="14" t="s">
+      <c r="O63" s="8" t="s">
         <v>455</v>
-      </c>
-      <c r="O63" s="8" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="139.5" x14ac:dyDescent="0.35">
@@ -6498,22 +6498,22 @@
         <v>66</v>
       </c>
       <c r="B64" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="C64" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="D64" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E64" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="D64" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E64" s="10" t="s">
+      <c r="F64" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="G64" s="10" t="s">
         <v>459</v>
-      </c>
-      <c r="F64" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="G64" s="10" t="s">
-        <v>460</v>
       </c>
       <c r="H64" s="11">
         <v>27.702627960000001</v>
@@ -6522,22 +6522,22 @@
         <v>85.321701730000001</v>
       </c>
       <c r="J64" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K64" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="L64" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M64" s="15" t="s">
         <v>461</v>
       </c>
-      <c r="L64" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M64" s="15" t="s">
+      <c r="N64" s="14" t="s">
         <v>462</v>
       </c>
-      <c r="N64" s="14" t="s">
+      <c r="O64" s="8" t="s">
         <v>463</v>
-      </c>
-      <c r="O64" s="8" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="101.65" x14ac:dyDescent="0.35">
@@ -6545,22 +6545,22 @@
         <v>67</v>
       </c>
       <c r="B65" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="C65" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="D65" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="G65" s="10" t="s">
         <v>466</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E65" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="F65" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="G65" s="10" t="s">
-        <v>467</v>
       </c>
       <c r="H65" s="11">
         <v>27.694147869999998</v>
@@ -6569,22 +6569,22 @@
         <v>85.320691269999998</v>
       </c>
       <c r="J65" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K65" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="L65" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="M65" s="15" t="s">
         <v>468</v>
       </c>
-      <c r="L65" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="M65" s="15" t="s">
+      <c r="N65" s="14" t="s">
         <v>469</v>
       </c>
-      <c r="N65" s="14" t="s">
-        <v>470</v>
-      </c>
       <c r="O65" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="101.65" x14ac:dyDescent="0.35">
@@ -6592,22 +6592,22 @@
         <v>68</v>
       </c>
       <c r="B66" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="C66" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="D66" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E66" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="D66" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E66" s="10" t="s">
+      <c r="F66" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="F66" s="10" t="s">
+      <c r="G66" s="10" t="s">
         <v>474</v>
-      </c>
-      <c r="G66" s="10" t="s">
-        <v>475</v>
       </c>
       <c r="H66" s="11">
         <v>-37.78537163</v>
@@ -6616,22 +6616,22 @@
         <v>175.27605919999999</v>
       </c>
       <c r="J66" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K66" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="L66" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M66" s="15" t="s">
         <v>476</v>
       </c>
-      <c r="L66" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M66" s="15" t="s">
+      <c r="N66" s="14" t="s">
         <v>477</v>
       </c>
-      <c r="N66" s="14" t="s">
+      <c r="O66" s="8" t="s">
         <v>478</v>
-      </c>
-      <c r="O66" s="8" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="101.65" x14ac:dyDescent="0.35">
@@ -6639,22 +6639,22 @@
         <v>69</v>
       </c>
       <c r="B67" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="C67" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="D67" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="G67" s="10" t="s">
         <v>481</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E67" s="10" t="s">
-        <v>473</v>
-      </c>
-      <c r="F67" s="10" t="s">
-        <v>474</v>
-      </c>
-      <c r="G67" s="10" t="s">
-        <v>482</v>
       </c>
       <c r="H67" s="11">
         <v>-41.281005100000002</v>
@@ -6663,22 +6663,22 @@
         <v>174.77431960000001</v>
       </c>
       <c r="J67" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K67" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="L67" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M67" s="15" t="s">
         <v>483</v>
       </c>
-      <c r="L67" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="M67" s="15" t="s">
+      <c r="N67" s="14" t="s">
         <v>484</v>
       </c>
-      <c r="N67" s="14" t="s">
-        <v>485</v>
-      </c>
       <c r="O67" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="101.65" x14ac:dyDescent="0.35">
@@ -6686,22 +6686,22 @@
         <v>70</v>
       </c>
       <c r="B68" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="C68" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="D68" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="G68" s="10" t="s">
         <v>487</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E68" s="10" t="s">
-        <v>473</v>
-      </c>
-      <c r="F68" s="10" t="s">
-        <v>474</v>
-      </c>
-      <c r="G68" s="10" t="s">
-        <v>488</v>
       </c>
       <c r="H68" s="11">
         <v>-36.872185610000002</v>
@@ -6710,22 +6710,22 @@
         <v>174.74395440000001</v>
       </c>
       <c r="J68" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K68" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="L68" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="L68" s="10" t="s">
+      <c r="M68" s="13" t="s">
         <v>490</v>
       </c>
-      <c r="M68" s="13" t="s">
+      <c r="N68" s="14" t="s">
         <v>491</v>
       </c>
-      <c r="N68" s="14" t="s">
-        <v>492</v>
-      </c>
       <c r="O68" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -6733,22 +6733,22 @@
         <v>71</v>
       </c>
       <c r="B69" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="C69" s="21" t="s">
         <v>493</v>
       </c>
-      <c r="C69" s="21" t="s">
+      <c r="D69" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E69" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="D69" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E69" s="10" t="s">
+      <c r="F69" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="G69" s="10" t="s">
         <v>495</v>
-      </c>
-      <c r="F69" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="G69" s="10" t="s">
-        <v>496</v>
       </c>
       <c r="H69" s="11">
         <v>13.518651800000001</v>
@@ -6757,22 +6757,22 @@
         <v>2.1147102000000002</v>
       </c>
       <c r="J69" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K69" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="L69" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M69" s="15" t="s">
         <v>497</v>
       </c>
-      <c r="L69" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M69" s="15" t="s">
+      <c r="N69" s="14" t="s">
         <v>498</v>
       </c>
-      <c r="N69" s="14" t="s">
+      <c r="O69" s="8" t="s">
         <v>499</v>
-      </c>
-      <c r="O69" s="8" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="81.400000000000006" x14ac:dyDescent="0.35">
@@ -6780,22 +6780,22 @@
         <v>72</v>
       </c>
       <c r="B70" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="C70" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="D70" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E70" s="10" t="s">
         <v>502</v>
       </c>
-      <c r="D70" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E70" s="10" t="s">
+      <c r="F70" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="G70" s="10" t="s">
         <v>503</v>
-      </c>
-      <c r="F70" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="G70" s="10" t="s">
-        <v>504</v>
       </c>
       <c r="H70" s="11">
         <v>6.5074042820000004</v>
@@ -6804,22 +6804,22 @@
         <v>3.37602213</v>
       </c>
       <c r="J70" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K70" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="L70" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="M70" s="15" t="s">
         <v>505</v>
       </c>
-      <c r="L70" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="M70" s="15" t="s">
+      <c r="N70" s="14" t="s">
         <v>506</v>
       </c>
-      <c r="N70" s="14" t="s">
+      <c r="O70" s="8" t="s">
         <v>507</v>
-      </c>
-      <c r="O70" s="8" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -6827,22 +6827,22 @@
         <v>73</v>
       </c>
       <c r="B71" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="C71" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="D71" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E71" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="D71" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E71" s="10" t="s">
+      <c r="F71" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="F71" s="10" t="s">
+      <c r="G71" s="10" t="s">
         <v>512</v>
-      </c>
-      <c r="G71" s="10" t="s">
-        <v>513</v>
       </c>
       <c r="H71" s="11">
         <v>59.33648616</v>
@@ -6851,22 +6851,22 @@
         <v>18.05712007</v>
       </c>
       <c r="J71" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K71" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="L71" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="M71" s="15" t="s">
         <v>514</v>
       </c>
-      <c r="L71" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="M71" s="15" t="s">
+      <c r="N71" s="14" t="s">
         <v>515</v>
       </c>
-      <c r="N71" s="14" t="s">
+      <c r="O71" s="8" t="s">
         <v>516</v>
-      </c>
-      <c r="O71" s="8" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -6874,22 +6874,22 @@
         <v>75</v>
       </c>
       <c r="B72" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="C72" s="9" t="s">
         <v>518</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="D72" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E72" s="10" t="s">
         <v>519</v>
       </c>
-      <c r="D72" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E72" s="10" t="s">
+      <c r="F72" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="G72" s="10" t="s">
         <v>520</v>
-      </c>
-      <c r="F72" s="10" t="s">
-        <v>520</v>
-      </c>
-      <c r="G72" s="10" t="s">
-        <v>521</v>
       </c>
       <c r="H72" s="11">
         <v>59.915615289999998</v>
@@ -6898,22 +6898,22 @@
         <v>10.737540559999999</v>
       </c>
       <c r="J72" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K72" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="L72" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M72" s="15" t="s">
         <v>522</v>
       </c>
-      <c r="L72" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M72" s="15" t="s">
+      <c r="N72" s="38" t="s">
         <v>523</v>
       </c>
-      <c r="N72" s="38" t="s">
+      <c r="O72" s="8" t="s">
         <v>524</v>
-      </c>
-      <c r="O72" s="8" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="101.65" x14ac:dyDescent="0.35">
@@ -6921,22 +6921,22 @@
         <v>76</v>
       </c>
       <c r="B73" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="C73" s="9" t="s">
         <v>526</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="D73" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E73" s="10" t="s">
         <v>527</v>
       </c>
-      <c r="D73" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E73" s="10" t="s">
+      <c r="F73" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="G73" s="10" t="s">
         <v>528</v>
-      </c>
-      <c r="F73" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="G73" s="10" t="s">
-        <v>529</v>
       </c>
       <c r="H73" s="11">
         <v>-12.05344232</v>
@@ -6945,22 +6945,22 @@
         <v>-77.099769660000007</v>
       </c>
       <c r="J73" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K73" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="L73" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M73" s="13" t="s">
         <v>530</v>
       </c>
-      <c r="L73" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="M73" s="13" t="s">
+      <c r="N73" s="14" t="s">
         <v>531</v>
       </c>
-      <c r="N73" s="14" t="s">
+      <c r="O73" s="8" t="s">
         <v>532</v>
-      </c>
-      <c r="O73" s="8" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -6968,22 +6968,22 @@
         <v>77</v>
       </c>
       <c r="B74" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="C74" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="D74" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E74" s="10" t="s">
         <v>535</v>
       </c>
-      <c r="D74" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E74" s="10" t="s">
+      <c r="F74" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="G74" s="10" t="s">
         <v>536</v>
-      </c>
-      <c r="F74" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="G74" s="10" t="s">
-        <v>537</v>
       </c>
       <c r="H74" s="11">
         <v>14.677166</v>
@@ -6992,22 +6992,22 @@
         <v>121.02803900000001</v>
       </c>
       <c r="J74" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K74" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="L74" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M74" s="13" t="s">
         <v>538</v>
       </c>
-      <c r="L74" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M74" s="13" t="s">
+      <c r="N74" s="14" t="s">
         <v>539</v>
       </c>
-      <c r="N74" s="14" t="s">
+      <c r="O74" s="8" t="s">
         <v>540</v>
-      </c>
-      <c r="O74" s="8" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="174.4" x14ac:dyDescent="0.35">
@@ -7015,22 +7015,22 @@
         <v>78</v>
       </c>
       <c r="B75" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="C75" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="C75" s="9" t="s">
-        <v>543</v>
-      </c>
       <c r="D75" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E75" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="G75" s="10" t="s">
         <v>536</v>
-      </c>
-      <c r="F75" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="G75" s="10" t="s">
-        <v>537</v>
       </c>
       <c r="H75" s="11">
         <v>14.606104800000001</v>
@@ -7039,22 +7039,22 @@
         <v>120.9802713</v>
       </c>
       <c r="J75" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K75" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="L75" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M75" s="15" t="s">
         <v>544</v>
       </c>
-      <c r="L75" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M75" s="15" t="s">
+      <c r="N75" s="14" t="s">
         <v>545</v>
       </c>
-      <c r="N75" s="14" t="s">
-        <v>546</v>
-      </c>
       <c r="O75" s="8" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -7062,22 +7062,22 @@
         <v>79</v>
       </c>
       <c r="B76" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="C76" s="9" t="s">
         <v>547</v>
       </c>
-      <c r="C76" s="9" t="s">
+      <c r="D76" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E76" s="10" t="s">
         <v>548</v>
       </c>
-      <c r="D76" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E76" s="10" t="s">
+      <c r="F76" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="G76" s="10" t="s">
         <v>549</v>
-      </c>
-      <c r="F76" s="10" t="s">
-        <v>549</v>
-      </c>
-      <c r="G76" s="10" t="s">
-        <v>550</v>
       </c>
       <c r="H76" s="11">
         <v>18.453226470000001</v>
@@ -7086,22 +7086,22 @@
         <v>-66.079707049999996</v>
       </c>
       <c r="J76" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K76" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="L76" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="M76" s="15" t="s">
         <v>551</v>
       </c>
-      <c r="L76" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="M76" s="15" t="s">
+      <c r="N76" s="14" t="s">
         <v>552</v>
       </c>
-      <c r="N76" s="14" t="s">
+      <c r="O76" s="8" t="s">
         <v>553</v>
-      </c>
-      <c r="O76" s="8" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -7109,22 +7109,22 @@
         <v>80</v>
       </c>
       <c r="B77" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="C77" s="9" t="s">
         <v>555</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="D77" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E77" s="10" t="s">
         <v>556</v>
       </c>
-      <c r="D77" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E77" s="10" t="s">
+      <c r="F77" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="G77" s="10" t="s">
         <v>557</v>
-      </c>
-      <c r="F77" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="G77" s="10" t="s">
-        <v>558</v>
       </c>
       <c r="H77" s="11">
         <v>55.872712</v>
@@ -7133,22 +7133,22 @@
         <v>-4.2790134599999998</v>
       </c>
       <c r="J77" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K77" s="12" t="s">
+        <v>558</v>
+      </c>
+      <c r="L77" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M77" s="15" t="s">
         <v>559</v>
       </c>
-      <c r="L77" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M77" s="15" t="s">
+      <c r="N77" s="14" t="s">
         <v>560</v>
       </c>
-      <c r="N77" s="14" t="s">
+      <c r="O77" s="8" t="s">
         <v>561</v>
-      </c>
-      <c r="O77" s="8" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="116.25" x14ac:dyDescent="0.35">
@@ -7156,22 +7156,22 @@
         <v>81</v>
       </c>
       <c r="B78" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="C78" s="9" t="s">
         <v>563</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="D78" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E78" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="D78" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E78" s="10" t="s">
+      <c r="F78" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="G78" s="10" t="s">
         <v>565</v>
-      </c>
-      <c r="F78" s="10" t="s">
-        <v>565</v>
-      </c>
-      <c r="G78" s="10" t="s">
-        <v>566</v>
       </c>
       <c r="H78" s="11">
         <v>14.72658348</v>
@@ -7180,22 +7180,22 @@
         <v>-17.452171969999998</v>
       </c>
       <c r="J78" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K78" s="12" t="s">
+        <v>566</v>
+      </c>
+      <c r="L78" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M78" s="15" t="s">
         <v>567</v>
       </c>
-      <c r="L78" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M78" s="15" t="s">
+      <c r="N78" s="14" t="s">
         <v>568</v>
       </c>
-      <c r="N78" s="14" t="s">
+      <c r="O78" s="8" t="s">
         <v>569</v>
-      </c>
-      <c r="O78" s="8" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -7203,22 +7203,22 @@
         <v>82</v>
       </c>
       <c r="B79" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="C79" s="9" t="s">
         <v>571</v>
       </c>
-      <c r="C79" s="9" t="s">
+      <c r="D79" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E79" s="10" t="s">
         <v>572</v>
       </c>
-      <c r="D79" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E79" s="10" t="s">
+      <c r="F79" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="G79" s="10" t="s">
         <v>573</v>
-      </c>
-      <c r="F79" s="10" t="s">
-        <v>573</v>
-      </c>
-      <c r="G79" s="10" t="s">
-        <v>574</v>
       </c>
       <c r="H79" s="11">
         <v>-26.202404720000001</v>
@@ -7227,22 +7227,22 @@
         <v>28.045585160000002</v>
       </c>
       <c r="J79" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K79" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="L79" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M79" s="15" t="s">
         <v>575</v>
       </c>
-      <c r="L79" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="M79" s="15" t="s">
+      <c r="N79" s="14" t="s">
         <v>576</v>
       </c>
-      <c r="N79" s="14" t="s">
+      <c r="O79" s="8" t="s">
         <v>577</v>
-      </c>
-      <c r="O79" s="8" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -7250,22 +7250,22 @@
         <v>83</v>
       </c>
       <c r="B80" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="C80" s="9" t="s">
         <v>579</v>
       </c>
-      <c r="C80" s="9" t="s">
-        <v>580</v>
-      </c>
       <c r="D80" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E80" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="G80" s="10" t="s">
         <v>573</v>
-      </c>
-      <c r="F80" s="10" t="s">
-        <v>573</v>
-      </c>
-      <c r="G80" s="10" t="s">
-        <v>574</v>
       </c>
       <c r="H80" s="11">
         <v>-26.23313568</v>
@@ -7274,22 +7274,22 @@
         <v>28.056662670000001</v>
       </c>
       <c r="J80" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K80" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="L80" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M80" s="15" t="s">
         <v>581</v>
       </c>
-      <c r="L80" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M80" s="15" t="s">
+      <c r="N80" s="14" t="s">
         <v>582</v>
       </c>
-      <c r="N80" s="14" t="s">
-        <v>583</v>
-      </c>
       <c r="O80" s="8" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -7297,22 +7297,22 @@
         <v>84</v>
       </c>
       <c r="B81" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="C81" s="9" t="s">
         <v>584</v>
       </c>
-      <c r="C81" s="9" t="s">
-        <v>585</v>
-      </c>
       <c r="D81" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E81" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="F81" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="G81" s="21" t="s">
         <v>512</v>
-      </c>
-      <c r="F81" s="10" t="s">
-        <v>512</v>
-      </c>
-      <c r="G81" s="21" t="s">
-        <v>513</v>
       </c>
       <c r="H81" s="11">
         <v>59.3241272</v>
@@ -7321,22 +7321,22 @@
         <v>18.066300170000002</v>
       </c>
       <c r="J81" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K81" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="L81" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="M81" s="15" t="s">
         <v>586</v>
       </c>
-      <c r="L81" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="M81" s="15" t="s">
+      <c r="N81" s="14" t="s">
         <v>587</v>
       </c>
-      <c r="N81" s="14" t="s">
-        <v>588</v>
-      </c>
       <c r="O81" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="82" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -7344,22 +7344,22 @@
         <v>85</v>
       </c>
       <c r="B82" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="C82" s="9" t="s">
         <v>589</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="D82" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="F82" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="G82" s="10" t="s">
         <v>590</v>
-      </c>
-      <c r="D82" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E82" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="F82" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="G82" s="10" t="s">
-        <v>591</v>
       </c>
       <c r="H82" s="11">
         <v>46.937537429999999</v>
@@ -7368,22 +7368,22 @@
         <v>7.4764258640000003</v>
       </c>
       <c r="J82" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K82" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="L82" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="M82" s="15" t="s">
         <v>592</v>
       </c>
-      <c r="L82" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="M82" s="15" t="s">
+      <c r="N82" s="14" t="s">
         <v>593</v>
       </c>
-      <c r="N82" s="14" t="s">
-        <v>594</v>
-      </c>
       <c r="O82" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -7391,22 +7391,22 @@
         <v>86</v>
       </c>
       <c r="B83" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="C83" s="9" t="s">
         <v>595</v>
       </c>
-      <c r="C83" s="9" t="s">
+      <c r="D83" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E83" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="D83" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E83" s="10" t="s">
+      <c r="F83" s="10" t="s">
+        <v>596</v>
+      </c>
+      <c r="G83" s="10" t="s">
         <v>597</v>
-      </c>
-      <c r="F83" s="10" t="s">
-        <v>597</v>
-      </c>
-      <c r="G83" s="10" t="s">
-        <v>598</v>
       </c>
       <c r="H83" s="11">
         <v>52.114130699999997</v>
@@ -7415,22 +7415,22 @@
         <v>5.0658318859999998</v>
       </c>
       <c r="J83" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K83" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="L83" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M83" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="L83" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M83" s="13" t="s">
+      <c r="N83" s="14" t="s">
         <v>600</v>
       </c>
-      <c r="N83" s="14" t="s">
+      <c r="O83" s="8" t="s">
         <v>601</v>
-      </c>
-      <c r="O83" s="8" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -7438,22 +7438,22 @@
         <v>87</v>
       </c>
       <c r="B84" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="C84" s="9" t="s">
         <v>603</v>
       </c>
-      <c r="C84" s="9" t="s">
+      <c r="D84" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E84" s="10" t="s">
         <v>604</v>
       </c>
-      <c r="D84" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E84" s="10" t="s">
+      <c r="F84" s="10" t="s">
+        <v>604</v>
+      </c>
+      <c r="G84" s="10" t="s">
         <v>605</v>
-      </c>
-      <c r="F84" s="10" t="s">
-        <v>605</v>
-      </c>
-      <c r="G84" s="10" t="s">
-        <v>606</v>
       </c>
       <c r="H84" s="11">
         <v>10.285561400000001</v>
@@ -7462,22 +7462,22 @@
         <v>-61.45250154</v>
       </c>
       <c r="J84" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K84" s="12" t="s">
+        <v>606</v>
+      </c>
+      <c r="L84" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="M84" s="15" t="s">
         <v>607</v>
       </c>
-      <c r="L84" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="M84" s="15" t="s">
+      <c r="N84" s="14" t="s">
         <v>608</v>
       </c>
-      <c r="N84" s="14" t="s">
+      <c r="O84" s="8" t="s">
         <v>609</v>
-      </c>
-      <c r="O84" s="8" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -7485,22 +7485,22 @@
         <v>88</v>
       </c>
       <c r="B85" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="C85" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="C85" s="9" t="s">
+      <c r="D85" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E85" s="10" t="s">
         <v>612</v>
       </c>
-      <c r="D85" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E85" s="10" t="s">
+      <c r="F85" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="G85" s="10" t="s">
         <v>613</v>
-      </c>
-      <c r="F85" s="10" t="s">
-        <v>613</v>
-      </c>
-      <c r="G85" s="10" t="s">
-        <v>614</v>
       </c>
       <c r="H85" s="11">
         <v>0.220148076</v>
@@ -7509,22 +7509,22 @@
         <v>32.545442270000002</v>
       </c>
       <c r="J85" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K85" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="L85" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="M85" s="13" t="s">
         <v>615</v>
       </c>
-      <c r="L85" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="M85" s="13" t="s">
+      <c r="N85" s="14" t="s">
         <v>616</v>
       </c>
-      <c r="N85" s="14" t="s">
+      <c r="O85" s="8" t="s">
         <v>617</v>
-      </c>
-      <c r="O85" s="8" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="34.9" x14ac:dyDescent="0.35">
@@ -7532,22 +7532,22 @@
         <v>89</v>
       </c>
       <c r="B86" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="C86" s="9" t="s">
         <v>619</v>
       </c>
-      <c r="C86" s="9" t="s">
+      <c r="D86" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="F86" s="10" t="s">
         <v>620</v>
       </c>
-      <c r="D86" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E86" s="10" t="s">
-        <v>613</v>
-      </c>
-      <c r="F86" s="10" t="s">
+      <c r="G86" s="10" t="s">
         <v>621</v>
-      </c>
-      <c r="G86" s="10" t="s">
-        <v>622</v>
       </c>
       <c r="H86" s="11">
         <v>0.44811600000000001</v>
@@ -7556,18 +7556,18 @@
         <v>33.204808</v>
       </c>
       <c r="J86" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K86" s="39"/>
       <c r="L86" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M86" s="10"/>
       <c r="N86" s="14" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="O86" s="8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -7575,22 +7575,22 @@
         <v>90</v>
       </c>
       <c r="B87" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="C87" s="9" t="s">
         <v>624</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="D87" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="F87" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="G87" s="10" t="s">
         <v>625</v>
-      </c>
-      <c r="D87" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E87" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="F87" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="G87" s="10" t="s">
-        <v>626</v>
       </c>
       <c r="H87" s="11">
         <v>51.412633960000001</v>
@@ -7599,22 +7599,22 @@
         <v>-0.28621947599999997</v>
       </c>
       <c r="J87" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K87" s="12" t="s">
+        <v>626</v>
+      </c>
+      <c r="L87" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M87" s="15" t="s">
         <v>627</v>
       </c>
-      <c r="L87" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="M87" s="15" t="s">
+      <c r="N87" s="14" t="s">
         <v>628</v>
       </c>
-      <c r="N87" s="14" t="s">
-        <v>629</v>
-      </c>
       <c r="O87" s="8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -7622,22 +7622,22 @@
         <v>91</v>
       </c>
       <c r="B88" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="C88" s="9" t="s">
         <v>630</v>
       </c>
-      <c r="C88" s="9" t="s">
-        <v>631</v>
-      </c>
       <c r="D88" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E88" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="G88" s="10" t="s">
         <v>344</v>
-      </c>
-      <c r="F88" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="G88" s="10" t="s">
-        <v>345</v>
       </c>
       <c r="H88" s="11">
         <v>51.467132919999997</v>
@@ -7646,22 +7646,22 @@
         <v>-0.16955398899999999</v>
       </c>
       <c r="J88" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K88" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="L88" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M88" s="15" t="s">
         <v>632</v>
       </c>
-      <c r="L88" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="M88" s="15" t="s">
+      <c r="N88" s="14" t="s">
         <v>633</v>
       </c>
-      <c r="N88" s="14" t="s">
-        <v>634</v>
-      </c>
       <c r="O88" s="8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -7669,22 +7669,22 @@
         <v>92</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E89" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="F89" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="G89" s="10" t="s">
         <v>344</v>
-      </c>
-      <c r="F89" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="G89" s="10" t="s">
-        <v>345</v>
       </c>
       <c r="H89" s="11">
         <v>51.530137699999997</v>
@@ -7693,22 +7693,22 @@
         <v>-0.12387535299999999</v>
       </c>
       <c r="J89" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K89" s="12" t="s">
+        <v>635</v>
+      </c>
+      <c r="L89" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M89" s="13" t="s">
         <v>636</v>
       </c>
-      <c r="L89" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="M89" s="13" t="s">
+      <c r="N89" s="14" t="s">
         <v>637</v>
       </c>
-      <c r="N89" s="14" t="s">
-        <v>638</v>
-      </c>
       <c r="O89" s="8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -7716,22 +7716,22 @@
         <v>93</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E90" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="F90" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="G90" s="10" t="s">
         <v>344</v>
-      </c>
-      <c r="F90" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="G90" s="10" t="s">
-        <v>345</v>
       </c>
       <c r="H90" s="11">
         <v>51.514874200000001</v>
@@ -7740,22 +7740,22 @@
         <v>4.0656694E-2</v>
       </c>
       <c r="J90" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K90" s="12" t="s">
+        <v>639</v>
+      </c>
+      <c r="L90" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M90" s="13" t="s">
         <v>640</v>
       </c>
-      <c r="L90" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="M90" s="13" t="s">
+      <c r="N90" s="14" t="s">
         <v>641</v>
       </c>
-      <c r="N90" s="14" t="s">
-        <v>642</v>
-      </c>
       <c r="O90" s="8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="91" spans="1:15" ht="93" x14ac:dyDescent="0.35">
@@ -7763,22 +7763,22 @@
         <v>94</v>
       </c>
       <c r="B91" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="C91" s="9" t="s">
         <v>643</v>
       </c>
-      <c r="C91" s="9" t="s">
+      <c r="D91" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E91" s="10" t="s">
         <v>644</v>
       </c>
-      <c r="D91" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E91" s="10" t="s">
-        <v>645</v>
-      </c>
       <c r="F91" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="G91" s="10" t="s">
         <v>344</v>
-      </c>
-      <c r="G91" s="10" t="s">
-        <v>345</v>
       </c>
       <c r="H91" s="11">
         <v>51.55713669</v>
@@ -7787,22 +7787,22 @@
         <v>-3.7843716999999999E-2</v>
       </c>
       <c r="J91" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K91" s="12" t="s">
+        <v>645</v>
+      </c>
+      <c r="L91" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="M91" s="15" t="s">
         <v>646</v>
       </c>
-      <c r="L91" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="M91" s="15" t="s">
+      <c r="N91" s="14" t="s">
         <v>647</v>
       </c>
-      <c r="N91" s="14" t="s">
-        <v>648</v>
-      </c>
       <c r="O91" s="8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="104.65" x14ac:dyDescent="0.35">
@@ -7810,22 +7810,22 @@
         <v>95</v>
       </c>
       <c r="B92" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E92" s="10" t="s">
         <v>649</v>
       </c>
-      <c r="C92" s="9" t="s">
-        <v>649</v>
-      </c>
-      <c r="D92" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E92" s="10" t="s">
+      <c r="F92" s="10" t="s">
         <v>650</v>
       </c>
-      <c r="F92" s="10" t="s">
+      <c r="G92" s="10" t="s">
         <v>651</v>
-      </c>
-      <c r="G92" s="10" t="s">
-        <v>652</v>
       </c>
       <c r="H92" s="11">
         <v>41.760447820000003</v>
@@ -7834,22 +7834,22 @@
         <v>-72.646517119999999</v>
       </c>
       <c r="J92" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K92" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="L92" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="M92" s="13" t="s">
         <v>653</v>
       </c>
-      <c r="L92" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="M92" s="13" t="s">
+      <c r="N92" s="14" t="s">
         <v>654</v>
       </c>
-      <c r="N92" s="14" t="s">
+      <c r="O92" s="8" t="s">
         <v>655</v>
-      </c>
-      <c r="O92" s="8" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="101.65" x14ac:dyDescent="0.35">
@@ -7857,22 +7857,22 @@
         <v>96</v>
       </c>
       <c r="B93" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="C93" s="9" t="s">
         <v>657</v>
       </c>
-      <c r="C93" s="9" t="s">
+      <c r="D93" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E93" s="10" t="s">
         <v>658</v>
       </c>
-      <c r="D93" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E93" s="10" t="s">
+      <c r="F93" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="G93" s="10" t="s">
         <v>659</v>
-      </c>
-      <c r="F93" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="G93" s="10" t="s">
-        <v>660</v>
       </c>
       <c r="H93" s="11">
         <v>40.50172688</v>
@@ -7881,22 +7881,22 @@
         <v>-74.447216699999998</v>
       </c>
       <c r="J93" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K93" s="12" t="s">
+        <v>660</v>
+      </c>
+      <c r="L93" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="M93" s="13" t="s">
         <v>661</v>
       </c>
-      <c r="L93" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="M93" s="13" t="s">
+      <c r="N93" s="33" t="s">
         <v>662</v>
       </c>
-      <c r="N93" s="33" t="s">
-        <v>663</v>
-      </c>
       <c r="O93" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="101.65" x14ac:dyDescent="0.35">
@@ -7904,22 +7904,22 @@
         <v>97</v>
       </c>
       <c r="B94" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="C94" s="9" t="s">
         <v>664</v>
       </c>
-      <c r="C94" s="9" t="s">
+      <c r="D94" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="F94" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="G94" s="10" t="s">
         <v>665</v>
-      </c>
-      <c r="D94" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E94" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="F94" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="G94" s="10" t="s">
-        <v>666</v>
       </c>
       <c r="H94" s="11">
         <v>37.73193569</v>
@@ -7928,22 +7928,22 @@
         <v>-122.205586</v>
       </c>
       <c r="J94" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K94" s="12" t="s">
+        <v>666</v>
+      </c>
+      <c r="L94" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M94" s="13" t="s">
         <v>667</v>
       </c>
-      <c r="L94" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="M94" s="13" t="s">
+      <c r="N94" s="40" t="s">
         <v>668</v>
       </c>
-      <c r="N94" s="40" t="s">
-        <v>669</v>
-      </c>
       <c r="O94" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -7951,22 +7951,22 @@
         <v>98</v>
       </c>
       <c r="B95" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="C95" s="9" t="s">
         <v>670</v>
       </c>
-      <c r="C95" s="9" t="s">
+      <c r="D95" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E95" s="10" t="s">
         <v>671</v>
       </c>
-      <c r="D95" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E95" s="10" t="s">
+      <c r="F95" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="G95" s="10" t="s">
         <v>672</v>
-      </c>
-      <c r="F95" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="G95" s="10" t="s">
-        <v>673</v>
       </c>
       <c r="H95" s="11">
         <v>41.807014619999997</v>
@@ -7975,22 +7975,22 @@
         <v>-72.251484649999995</v>
       </c>
       <c r="J95" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K95" s="12" t="s">
+        <v>673</v>
+      </c>
+      <c r="L95" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="M95" s="13" t="s">
         <v>674</v>
       </c>
-      <c r="L95" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="M95" s="13" t="s">
+      <c r="N95" s="14" t="s">
         <v>675</v>
       </c>
-      <c r="N95" s="14" t="s">
-        <v>676</v>
-      </c>
       <c r="O95" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="101.65" x14ac:dyDescent="0.35">
@@ -7998,22 +7998,22 @@
         <v>99</v>
       </c>
       <c r="B96" s="9" t="s">
+        <v>676</v>
+      </c>
+      <c r="C96" s="9" t="s">
         <v>677</v>
       </c>
-      <c r="C96" s="9" t="s">
+      <c r="D96" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E96" s="10" t="s">
         <v>678</v>
       </c>
-      <c r="D96" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E96" s="10" t="s">
+      <c r="F96" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="G96" s="10" t="s">
         <v>679</v>
-      </c>
-      <c r="F96" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="G96" s="10" t="s">
-        <v>680</v>
       </c>
       <c r="H96" s="11">
         <v>40.739022069999997</v>
@@ -8022,22 +8022,22 @@
         <v>-73.990546179999996</v>
       </c>
       <c r="J96" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K96" s="12" t="s">
+        <v>680</v>
+      </c>
+      <c r="L96" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="M96" s="13" t="s">
         <v>681</v>
       </c>
-      <c r="L96" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="M96" s="13" t="s">
+      <c r="N96" s="14" t="s">
         <v>682</v>
       </c>
-      <c r="N96" s="14" t="s">
-        <v>683</v>
-      </c>
       <c r="O96" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="97" spans="1:15" ht="101.65" x14ac:dyDescent="0.35">
@@ -8045,22 +8045,22 @@
         <v>100</v>
       </c>
       <c r="B97" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E97" s="10" t="s">
         <v>684</v>
       </c>
-      <c r="C97" s="9" t="s">
+      <c r="F97" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="G97" s="10" t="s">
         <v>684</v>
-      </c>
-      <c r="D97" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E97" s="10" t="s">
-        <v>685</v>
-      </c>
-      <c r="F97" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="G97" s="10" t="s">
-        <v>685</v>
       </c>
       <c r="H97" s="11">
         <v>34.049219260000001</v>
@@ -8069,22 +8069,22 @@
         <v>-118.2319865</v>
       </c>
       <c r="J97" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K97" s="12" t="s">
+        <v>685</v>
+      </c>
+      <c r="L97" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="M97" s="13" t="s">
         <v>686</v>
       </c>
-      <c r="L97" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="M97" s="13" t="s">
+      <c r="N97" s="14" t="s">
         <v>687</v>
       </c>
-      <c r="N97" s="14" t="s">
-        <v>688</v>
-      </c>
       <c r="O97" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -8092,22 +8092,22 @@
         <v>101</v>
       </c>
       <c r="B98" s="9" t="s">
+        <v>688</v>
+      </c>
+      <c r="C98" s="9" t="s">
         <v>689</v>
       </c>
-      <c r="C98" s="9" t="s">
+      <c r="D98" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E98" s="10" t="s">
         <v>690</v>
       </c>
-      <c r="D98" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E98" s="10" t="s">
-        <v>691</v>
-      </c>
       <c r="F98" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G98" s="10" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H98" s="11">
         <v>40.734231219999998</v>
@@ -8116,22 +8116,22 @@
         <v>-73.803463179999994</v>
       </c>
       <c r="J98" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K98" s="12" t="s">
+        <v>691</v>
+      </c>
+      <c r="L98" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="M98" s="15" t="s">
         <v>692</v>
       </c>
-      <c r="L98" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="M98" s="15" t="s">
+      <c r="N98" s="14" t="s">
         <v>693</v>
       </c>
-      <c r="N98" s="14" t="s">
-        <v>694</v>
-      </c>
       <c r="O98" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="99" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -8139,22 +8139,22 @@
         <v>102</v>
       </c>
       <c r="B99" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="C99" s="9" t="s">
         <v>695</v>
       </c>
-      <c r="C99" s="9" t="s">
+      <c r="D99" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E99" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="F99" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="G99" s="10" t="s">
         <v>696</v>
-      </c>
-      <c r="D99" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E99" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="F99" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="G99" s="10" t="s">
-        <v>697</v>
       </c>
       <c r="H99" s="11">
         <v>38.907703990000002</v>
@@ -8163,22 +8163,22 @@
         <v>-77.035786959999996</v>
       </c>
       <c r="J99" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K99" s="12" t="s">
+        <v>697</v>
+      </c>
+      <c r="L99" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="M99" s="15" t="s">
         <v>698</v>
       </c>
-      <c r="L99" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="M99" s="15" t="s">
+      <c r="N99" s="14" t="s">
         <v>699</v>
       </c>
-      <c r="N99" s="14" t="s">
-        <v>700</v>
-      </c>
       <c r="O99" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="100" spans="1:15" ht="101.65" x14ac:dyDescent="0.35">
@@ -8186,22 +8186,22 @@
         <v>103</v>
       </c>
       <c r="B100" s="9" t="s">
+        <v>700</v>
+      </c>
+      <c r="C100" s="9" t="s">
         <v>701</v>
       </c>
-      <c r="C100" s="9" t="s">
+      <c r="D100" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E100" s="10" t="s">
         <v>702</v>
       </c>
-      <c r="D100" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E100" s="10" t="s">
+      <c r="F100" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="G100" s="10" t="s">
         <v>703</v>
-      </c>
-      <c r="F100" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="G100" s="10" t="s">
-        <v>704</v>
       </c>
       <c r="H100" s="11">
         <v>42.357227940000001</v>
@@ -8210,22 +8210,22 @@
         <v>-71.058808670000005</v>
       </c>
       <c r="J100" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K100" s="12" t="s">
+        <v>704</v>
+      </c>
+      <c r="L100" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M100" s="18" t="s">
         <v>705</v>
       </c>
-      <c r="L100" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M100" s="18" t="s">
+      <c r="N100" s="14" t="s">
         <v>706</v>
       </c>
-      <c r="N100" s="14" t="s">
-        <v>707</v>
-      </c>
       <c r="O100" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="101" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -8233,22 +8233,22 @@
         <v>104</v>
       </c>
       <c r="B101" s="9" t="s">
+        <v>707</v>
+      </c>
+      <c r="C101" s="9" t="s">
         <v>708</v>
       </c>
-      <c r="C101" s="9" t="s">
-        <v>709</v>
-      </c>
       <c r="D101" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H101" s="11">
         <v>37.829565670000001</v>
@@ -8257,22 +8257,22 @@
         <v>-122.2825812</v>
       </c>
       <c r="J101" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K101" s="12" t="s">
+        <v>709</v>
+      </c>
+      <c r="L101" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="M101" s="15" t="s">
         <v>710</v>
       </c>
-      <c r="L101" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="M101" s="15" t="s">
+      <c r="N101" s="41" t="s">
         <v>711</v>
       </c>
-      <c r="N101" s="41" t="s">
-        <v>712</v>
-      </c>
       <c r="O101" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -8280,22 +8280,22 @@
         <v>105</v>
       </c>
       <c r="B102" s="9" t="s">
+        <v>712</v>
+      </c>
+      <c r="C102" s="9" t="s">
         <v>713</v>
       </c>
-      <c r="C102" s="9" t="s">
+      <c r="D102" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E102" s="10" t="s">
         <v>714</v>
       </c>
-      <c r="D102" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E102" s="10" t="s">
-        <v>715</v>
-      </c>
       <c r="F102" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G102" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H102" s="11">
         <v>40.683403200000001</v>
@@ -8304,22 +8304,22 @@
         <v>-73.977086560000004</v>
       </c>
       <c r="J102" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K102" s="12" t="s">
+        <v>715</v>
+      </c>
+      <c r="L102" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="M102" s="13" t="s">
         <v>716</v>
       </c>
-      <c r="L102" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="M102" s="13" t="s">
+      <c r="N102" s="14" t="s">
         <v>717</v>
       </c>
-      <c r="N102" s="14" t="s">
-        <v>718</v>
-      </c>
       <c r="O102" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="101.65" x14ac:dyDescent="0.35">
@@ -8327,22 +8327,22 @@
         <v>106</v>
       </c>
       <c r="B103" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="C103" s="9" t="s">
         <v>719</v>
       </c>
-      <c r="C103" s="9" t="s">
+      <c r="D103" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E103" s="10" t="s">
         <v>720</v>
       </c>
-      <c r="D103" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E103" s="10" t="s">
+      <c r="F103" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="G103" s="10" t="s">
         <v>721</v>
-      </c>
-      <c r="F103" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="G103" s="10" t="s">
-        <v>722</v>
       </c>
       <c r="H103" s="11">
         <v>39.945942440000003</v>
@@ -8351,22 +8351,22 @@
         <v>-75.179841240000002</v>
       </c>
       <c r="J103" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K103" s="20" t="s">
+        <v>722</v>
+      </c>
+      <c r="L103" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="M103" s="13" t="s">
         <v>723</v>
       </c>
-      <c r="L103" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="M103" s="13" t="s">
+      <c r="N103" s="14" t="s">
         <v>724</v>
       </c>
-      <c r="N103" s="14" t="s">
-        <v>725</v>
-      </c>
       <c r="O103" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="104" spans="1:15" ht="101.65" x14ac:dyDescent="0.35">
@@ -8374,22 +8374,22 @@
         <v>107</v>
       </c>
       <c r="B104" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="C104" s="9" t="s">
         <v>726</v>
       </c>
-      <c r="C104" s="9" t="s">
-        <v>727</v>
-      </c>
       <c r="D104" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G104" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H104" s="11">
         <v>40.76381052</v>
@@ -8398,22 +8398,22 @@
         <v>-73.975035950000006</v>
       </c>
       <c r="J104" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K104" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="L104" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="M104" s="13" t="s">
         <v>728</v>
       </c>
-      <c r="L104" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="M104" s="13" t="s">
+      <c r="N104" s="14" t="s">
         <v>729</v>
       </c>
-      <c r="N104" s="14" t="s">
-        <v>730</v>
-      </c>
       <c r="O104" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="105" spans="1:15" ht="101.65" x14ac:dyDescent="0.35">
@@ -8421,22 +8421,22 @@
         <v>108</v>
       </c>
       <c r="B105" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="C105" s="9" t="s">
         <v>731</v>
       </c>
-      <c r="C105" s="9" t="s">
+      <c r="D105" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E105" s="10" t="s">
         <v>732</v>
       </c>
-      <c r="D105" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E105" s="10" t="s">
-        <v>733</v>
-      </c>
       <c r="F105" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G105" s="10" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H105" s="11">
         <v>37.80472503</v>
@@ -8445,22 +8445,22 @@
         <v>-122.2780382</v>
       </c>
       <c r="J105" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K105" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="L105" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M105" s="13" t="s">
         <v>734</v>
       </c>
-      <c r="L105" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M105" s="13" t="s">
+      <c r="N105" s="14" t="s">
         <v>735</v>
       </c>
-      <c r="N105" s="14" t="s">
-        <v>736</v>
-      </c>
       <c r="O105" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="106" spans="1:15" ht="81.400000000000006" x14ac:dyDescent="0.35">
@@ -8468,22 +8468,22 @@
         <v>109</v>
       </c>
       <c r="B106" s="9" t="s">
+        <v>736</v>
+      </c>
+      <c r="C106" s="9" t="s">
         <v>737</v>
       </c>
-      <c r="C106" s="9" t="s">
+      <c r="D106" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E106" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="F106" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="G106" s="10" t="s">
         <v>738</v>
-      </c>
-      <c r="D106" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E106" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="F106" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="G106" s="10" t="s">
-        <v>739</v>
       </c>
       <c r="H106" s="11">
         <v>40.4319445</v>
@@ -8492,22 +8492,22 @@
         <v>-80.001931299999995</v>
       </c>
       <c r="J106" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K106" s="12" t="s">
+        <v>739</v>
+      </c>
+      <c r="L106" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="M106" s="13" t="s">
         <v>740</v>
       </c>
-      <c r="L106" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="M106" s="13" t="s">
+      <c r="N106" s="14" t="s">
         <v>741</v>
       </c>
-      <c r="N106" s="14" t="s">
-        <v>742</v>
-      </c>
       <c r="O106" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="107" spans="1:15" ht="101.65" x14ac:dyDescent="0.35">
@@ -8515,22 +8515,22 @@
         <v>110</v>
       </c>
       <c r="B107" s="9" t="s">
+        <v>742</v>
+      </c>
+      <c r="C107" s="9" t="s">
         <v>743</v>
       </c>
-      <c r="C107" s="9" t="s">
+      <c r="D107" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E107" s="10" t="s">
         <v>744</v>
       </c>
-      <c r="D107" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E107" s="10" t="s">
-        <v>745</v>
-      </c>
       <c r="F107" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H107" s="11">
         <v>42.331905999999996</v>
@@ -8539,22 +8539,22 @@
         <v>-71.071959500000006</v>
       </c>
       <c r="J107" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K107" s="12" t="s">
+        <v>745</v>
+      </c>
+      <c r="L107" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M107" s="13" t="s">
         <v>746</v>
       </c>
-      <c r="L107" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M107" s="13" t="s">
+      <c r="N107" s="14" t="s">
         <v>747</v>
       </c>
-      <c r="N107" s="14" t="s">
-        <v>748</v>
-      </c>
       <c r="O107" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="108" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -8562,22 +8562,22 @@
         <v>111</v>
       </c>
       <c r="B108" s="9" t="s">
+        <v>748</v>
+      </c>
+      <c r="C108" s="9" t="s">
         <v>749</v>
       </c>
-      <c r="C108" s="9" t="s">
+      <c r="D108" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E108" s="10" t="s">
         <v>750</v>
       </c>
-      <c r="D108" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E108" s="10" t="s">
-        <v>751</v>
-      </c>
       <c r="F108" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H108" s="11">
         <v>38.901495199999999</v>
@@ -8586,22 +8586,22 @@
         <v>-77.011364400000005</v>
       </c>
       <c r="J108" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K108" s="12" t="s">
+        <v>751</v>
+      </c>
+      <c r="L108" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="M108" s="15" t="s">
         <v>752</v>
       </c>
-      <c r="L108" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="M108" s="15" t="s">
+      <c r="N108" s="14" t="s">
         <v>753</v>
       </c>
-      <c r="N108" s="14" t="s">
-        <v>754</v>
-      </c>
       <c r="O108" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="109" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -8609,22 +8609,22 @@
         <v>112</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H109" s="11">
         <v>40.721561749999999</v>
@@ -8633,22 +8633,22 @@
         <v>-73.995717540000001</v>
       </c>
       <c r="J109" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K109" s="12" t="s">
+        <v>755</v>
+      </c>
+      <c r="L109" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="M109" s="15" t="s">
         <v>756</v>
       </c>
-      <c r="L109" s="10" t="s">
-        <v>490</v>
-      </c>
-      <c r="M109" s="15" t="s">
+      <c r="N109" s="14" t="s">
         <v>757</v>
       </c>
-      <c r="N109" s="14" t="s">
-        <v>758</v>
-      </c>
       <c r="O109" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="110" spans="1:15" ht="61.15" x14ac:dyDescent="0.35">
@@ -8656,22 +8656,22 @@
         <v>113</v>
       </c>
       <c r="B110" s="9" t="s">
+        <v>758</v>
+      </c>
+      <c r="C110" s="9" t="s">
         <v>759</v>
       </c>
-      <c r="C110" s="9" t="s">
-        <v>760</v>
-      </c>
       <c r="D110" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E110" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F110" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G110" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="F110" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G110" s="10" t="s">
-        <v>20</v>
       </c>
       <c r="H110" s="11">
         <v>-34.886643560000003</v>
@@ -8680,22 +8680,22 @@
         <v>-56.191323150000002</v>
       </c>
       <c r="J110" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K110" s="12" t="s">
+        <v>760</v>
+      </c>
+      <c r="L110" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="M110" s="15" t="s">
         <v>761</v>
       </c>
-      <c r="L110" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="M110" s="15" t="s">
+      <c r="N110" s="14" t="s">
         <v>762</v>
       </c>
-      <c r="N110" s="14" t="s">
-        <v>763</v>
-      </c>
       <c r="O110" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -8703,22 +8703,22 @@
         <v>114</v>
       </c>
       <c r="B111" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="C111" s="9" t="s">
         <v>764</v>
       </c>
-      <c r="C111" s="9" t="s">
+      <c r="D111" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E111" s="10" t="s">
         <v>765</v>
       </c>
-      <c r="D111" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E111" s="10" t="s">
+      <c r="F111" s="10" t="s">
         <v>766</v>
       </c>
-      <c r="F111" s="10" t="s">
+      <c r="G111" s="10" t="s">
         <v>767</v>
-      </c>
-      <c r="G111" s="10" t="s">
-        <v>768</v>
       </c>
       <c r="H111" s="11">
         <v>36.801718649999998</v>
@@ -8727,22 +8727,22 @@
         <v>10.178635249999999</v>
       </c>
       <c r="J111" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K111" s="20" t="s">
+        <v>768</v>
+      </c>
+      <c r="L111" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="M111" s="18" t="s">
         <v>769</v>
       </c>
-      <c r="L111" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="M111" s="18" t="s">
+      <c r="N111" s="14" t="s">
         <v>770</v>
       </c>
-      <c r="N111" s="14" t="s">
+      <c r="O111" s="8" t="s">
         <v>771</v>
-      </c>
-      <c r="O111" s="8" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="112" spans="1:15" ht="81.400000000000006" x14ac:dyDescent="0.35">
@@ -8750,22 +8750,22 @@
         <v>115</v>
       </c>
       <c r="B112" s="22" t="s">
+        <v>772</v>
+      </c>
+      <c r="C112" s="9" t="s">
         <v>773</v>
       </c>
-      <c r="C112" s="9" t="s">
+      <c r="D112" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E112" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="F112" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="G112" s="10" t="s">
         <v>774</v>
-      </c>
-      <c r="D112" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E112" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="F112" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="G112" s="10" t="s">
-        <v>775</v>
       </c>
       <c r="H112" s="11">
         <v>48.854422649999997</v>
@@ -8774,22 +8774,22 @@
         <v>2.4157218029999998</v>
       </c>
       <c r="J112" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K112" s="23" t="s">
+        <v>775</v>
+      </c>
+      <c r="L112" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M112" s="13" t="s">
         <v>776</v>
       </c>
-      <c r="L112" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="M112" s="13" t="s">
+      <c r="N112" s="14" t="s">
         <v>777</v>
       </c>
-      <c r="N112" s="14" t="s">
-        <v>778</v>
-      </c>
       <c r="O112" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="113" spans="1:15" ht="71.25" x14ac:dyDescent="0.35">
@@ -8797,22 +8797,22 @@
         <v>116</v>
       </c>
       <c r="B113" s="9" t="s">
+        <v>778</v>
+      </c>
+      <c r="C113" s="9" t="s">
         <v>779</v>
       </c>
-      <c r="C113" s="9" t="s">
+      <c r="D113" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E113" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="F113" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="G113" s="10" t="s">
         <v>780</v>
-      </c>
-      <c r="D113" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E113" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="F113" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="G113" s="10" t="s">
-        <v>781</v>
       </c>
       <c r="H113" s="11">
         <v>14.57197246</v>
@@ -8821,22 +8821,22 @@
         <v>121.07957740000001</v>
       </c>
       <c r="J113" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K113" s="12" t="s">
+        <v>781</v>
+      </c>
+      <c r="L113" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M113" s="13" t="s">
         <v>782</v>
       </c>
-      <c r="L113" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M113" s="13" t="s">
+      <c r="N113" s="14" t="s">
         <v>783</v>
       </c>
-      <c r="N113" s="14" t="s">
-        <v>784</v>
-      </c>
       <c r="O113" s="8" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="114" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -8844,22 +8844,22 @@
         <v>117</v>
       </c>
       <c r="B114" s="42" t="s">
+        <v>784</v>
+      </c>
+      <c r="C114" s="8" t="s">
         <v>785</v>
       </c>
-      <c r="C114" s="8" t="s">
-        <v>786</v>
-      </c>
       <c r="D114" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E114" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="F114" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="G114" s="10" t="s">
         <v>274</v>
-      </c>
-      <c r="F114" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="G114" s="10" t="s">
-        <v>275</v>
       </c>
       <c r="H114" s="11">
         <v>4.6253558789999998</v>
@@ -8868,22 +8868,22 @@
         <v>-74.064914689999995</v>
       </c>
       <c r="J114" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K114" s="43" t="s">
+        <v>786</v>
+      </c>
+      <c r="L114" s="10" t="s">
         <v>787</v>
       </c>
-      <c r="L114" s="10" t="s">
+      <c r="M114" s="13" t="s">
         <v>788</v>
       </c>
-      <c r="M114" s="13" t="s">
+      <c r="N114" s="14" t="s">
         <v>789</v>
       </c>
-      <c r="N114" s="14" t="s">
-        <v>790</v>
-      </c>
       <c r="O114" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="115" spans="1:15" ht="93" x14ac:dyDescent="0.35">
@@ -8891,22 +8891,22 @@
         <v>118</v>
       </c>
       <c r="B115" s="42" t="s">
+        <v>790</v>
+      </c>
+      <c r="C115" s="8" t="s">
         <v>791</v>
       </c>
-      <c r="C115" s="8" t="s">
-        <v>792</v>
-      </c>
       <c r="D115" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E115" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="F115" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="G115" s="10" t="s">
         <v>274</v>
-      </c>
-      <c r="F115" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="G115" s="10" t="s">
-        <v>275</v>
       </c>
       <c r="H115" s="11">
         <v>4.6858719999999998</v>
@@ -8915,22 +8915,22 @@
         <v>-74.152534000000003</v>
       </c>
       <c r="J115" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K115" s="44" t="s">
+        <v>792</v>
+      </c>
+      <c r="L115" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M115" s="13" t="s">
         <v>793</v>
       </c>
-      <c r="L115" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="M115" s="13" t="s">
+      <c r="N115" s="14" t="s">
         <v>794</v>
       </c>
-      <c r="N115" s="14" t="s">
-        <v>795</v>
-      </c>
       <c r="O115" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="116" spans="1:15" ht="71.25" x14ac:dyDescent="0.35">
@@ -8938,22 +8938,22 @@
         <v>120</v>
       </c>
       <c r="B116" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="C116" s="9" t="s">
         <v>796</v>
       </c>
-      <c r="C116" s="9" t="s">
-        <v>797</v>
-      </c>
       <c r="D116" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F116" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G116" s="10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H116" s="45">
         <v>27.7316459557623</v>
@@ -8962,22 +8962,22 @@
         <v>85.305680530047994</v>
       </c>
       <c r="J116" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K116" s="12" t="s">
+        <v>797</v>
+      </c>
+      <c r="L116" s="10" t="s">
         <v>798</v>
       </c>
-      <c r="L116" s="10" t="s">
+      <c r="M116" s="13" t="s">
         <v>799</v>
       </c>
-      <c r="M116" s="13" t="s">
+      <c r="N116" s="14" t="s">
         <v>800</v>
       </c>
-      <c r="N116" s="14" t="s">
-        <v>801</v>
-      </c>
       <c r="O116" s="45" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="117" spans="1:15" ht="101.65" x14ac:dyDescent="0.35">
@@ -8985,22 +8985,22 @@
         <v>121</v>
       </c>
       <c r="B117" s="9" t="s">
+        <v>801</v>
+      </c>
+      <c r="C117" s="9" t="s">
         <v>802</v>
       </c>
-      <c r="C117" s="9" t="s">
-        <v>803</v>
-      </c>
       <c r="D117" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F117" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="G117" s="10" t="s">
         <v>262</v>
-      </c>
-      <c r="G117" s="10" t="s">
-        <v>263</v>
       </c>
       <c r="H117" s="45">
         <v>-33.514003000000002</v>
@@ -9009,22 +9009,22 @@
         <v>-70.610748000000001</v>
       </c>
       <c r="J117" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K117" s="12" t="s">
+        <v>803</v>
+      </c>
+      <c r="L117" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="M117" s="13" t="s">
         <v>804</v>
       </c>
-      <c r="L117" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="M117" s="13" t="s">
+      <c r="N117" s="14" t="s">
         <v>805</v>
       </c>
-      <c r="N117" s="14" t="s">
-        <v>806</v>
-      </c>
       <c r="O117" s="45" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="118" spans="1:15" ht="101.65" x14ac:dyDescent="0.35">
@@ -9032,22 +9032,22 @@
         <v>122</v>
       </c>
       <c r="B118" s="9" t="s">
+        <v>806</v>
+      </c>
+      <c r="C118" s="46" t="s">
         <v>807</v>
       </c>
-      <c r="C118" s="46" t="s">
-        <v>808</v>
-      </c>
       <c r="D118" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E118" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="F118" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="G118" s="10" t="s">
         <v>274</v>
-      </c>
-      <c r="F118" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="G118" s="10" t="s">
-        <v>275</v>
       </c>
       <c r="H118" s="45">
         <v>4.7363860000000004</v>
@@ -9056,22 +9056,22 @@
         <v>-74.033507999999998</v>
       </c>
       <c r="J118" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K118" s="12" t="s">
+        <v>808</v>
+      </c>
+      <c r="L118" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="M118" s="13" t="s">
         <v>809</v>
       </c>
-      <c r="L118" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="M118" s="13" t="s">
+      <c r="N118" s="14" t="s">
         <v>810</v>
       </c>
-      <c r="N118" s="14" t="s">
-        <v>811</v>
-      </c>
       <c r="O118" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="119" spans="1:15" ht="104.65" x14ac:dyDescent="0.35">
@@ -9079,22 +9079,22 @@
         <v>123</v>
       </c>
       <c r="B119" s="9" t="s">
+        <v>811</v>
+      </c>
+      <c r="C119" s="9" t="s">
         <v>812</v>
       </c>
-      <c r="C119" s="9" t="s">
+      <c r="D119" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E119" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="F119" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="G119" s="10" t="s">
         <v>813</v>
-      </c>
-      <c r="D119" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E119" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="F119" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="G119" s="10" t="s">
-        <v>814</v>
       </c>
       <c r="H119" s="45">
         <v>-17.612545000000001</v>
@@ -9103,22 +9103,22 @@
         <v>-71.339772999999994</v>
       </c>
       <c r="J119" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K119" s="12" t="s">
+        <v>814</v>
+      </c>
+      <c r="L119" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="M119" s="13" t="s">
         <v>815</v>
       </c>
-      <c r="L119" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="M119" s="13" t="s">
+      <c r="N119" s="14" t="s">
         <v>816</v>
       </c>
-      <c r="N119" s="14" t="s">
-        <v>817</v>
-      </c>
       <c r="O119" s="45" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="120" spans="1:15" ht="81.400000000000006" x14ac:dyDescent="0.35">
@@ -9126,22 +9126,22 @@
         <v>124</v>
       </c>
       <c r="B120" s="9" t="s">
+        <v>817</v>
+      </c>
+      <c r="C120" s="9" t="s">
         <v>818</v>
       </c>
-      <c r="C120" s="9" t="s">
+      <c r="D120" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E120" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="F120" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="G120" s="10" t="s">
         <v>819</v>
-      </c>
-      <c r="D120" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E120" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="F120" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="G120" s="10" t="s">
-        <v>820</v>
       </c>
       <c r="H120" s="45">
         <v>7.1178910000000002</v>
@@ -9150,22 +9150,22 @@
         <v>-73.127138000000002</v>
       </c>
       <c r="J120" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K120" s="12" t="s">
+        <v>820</v>
+      </c>
+      <c r="L120" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M120" s="13" t="s">
         <v>821</v>
       </c>
-      <c r="L120" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="M120" s="13" t="s">
+      <c r="N120" s="14" t="s">
         <v>822</v>
       </c>
-      <c r="N120" s="14" t="s">
-        <v>823</v>
-      </c>
       <c r="O120" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="121" spans="1:15" ht="81.400000000000006" x14ac:dyDescent="0.35">
@@ -9173,22 +9173,22 @@
         <v>125</v>
       </c>
       <c r="B121" s="9" t="s">
+        <v>823</v>
+      </c>
+      <c r="C121" s="9" t="s">
         <v>824</v>
       </c>
-      <c r="C121" s="9" t="s">
+      <c r="D121" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E121" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="F121" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="G121" s="10" t="s">
         <v>825</v>
-      </c>
-      <c r="D121" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E121" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="F121" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="G121" s="10" t="s">
-        <v>826</v>
       </c>
       <c r="H121" s="45">
         <v>3.83209</v>
@@ -9197,22 +9197,22 @@
         <v>11.499803</v>
       </c>
       <c r="J121" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K121" s="12" t="s">
+        <v>826</v>
+      </c>
+      <c r="L121" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="M121" s="13" t="s">
         <v>827</v>
       </c>
-      <c r="L121" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="M121" s="13" t="s">
+      <c r="N121" s="14" t="s">
         <v>828</v>
       </c>
-      <c r="N121" s="14" t="s">
-        <v>829</v>
-      </c>
       <c r="O121" s="45" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="122" spans="1:15" ht="71.650000000000006" x14ac:dyDescent="0.4">
@@ -9220,22 +9220,22 @@
         <v>126</v>
       </c>
       <c r="B122" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="C122" s="9" t="s">
         <v>830</v>
       </c>
-      <c r="C122" s="9" t="s">
+      <c r="D122" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E122" s="10" t="s">
         <v>831</v>
       </c>
-      <c r="D122" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E122" s="10" t="s">
+      <c r="F122" s="10" t="s">
+        <v>831</v>
+      </c>
+      <c r="G122" s="10" t="s">
         <v>832</v>
-      </c>
-      <c r="F122" s="10" t="s">
-        <v>832</v>
-      </c>
-      <c r="G122" s="10" t="s">
-        <v>833</v>
       </c>
       <c r="H122" s="47">
         <v>31.902719999999999</v>
@@ -9244,18 +9244,18 @@
         <v>35.208692999999997</v>
       </c>
       <c r="J122" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K122" s="12" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="L122" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M122" s="10"/>
       <c r="N122" s="14"/>
       <c r="O122" s="45" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="123" spans="1:15" ht="93" x14ac:dyDescent="0.35">
@@ -9263,22 +9263,22 @@
         <v>127</v>
       </c>
       <c r="B123" s="9" t="s">
+        <v>835</v>
+      </c>
+      <c r="C123" s="9" t="s">
         <v>836</v>
       </c>
-      <c r="C123" s="9" t="s">
+      <c r="D123" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E123" s="10" t="s">
         <v>837</v>
       </c>
-      <c r="D123" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E123" s="10" t="s">
+      <c r="F123" s="10" t="s">
+        <v>837</v>
+      </c>
+      <c r="G123" s="10" t="s">
         <v>838</v>
-      </c>
-      <c r="F123" s="10" t="s">
-        <v>838</v>
-      </c>
-      <c r="G123" s="10" t="s">
-        <v>839</v>
       </c>
       <c r="H123" s="45">
         <v>-6.1997270000000002</v>
@@ -9287,22 +9287,22 @@
         <v>106.89189500000001</v>
       </c>
       <c r="J123" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K123" s="20" t="s">
+        <v>839</v>
+      </c>
+      <c r="L123" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M123" s="13" t="s">
         <v>840</v>
       </c>
-      <c r="L123" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M123" s="13" t="s">
+      <c r="N123" s="14" t="s">
         <v>841</v>
       </c>
-      <c r="N123" s="14" t="s">
+      <c r="O123" s="45" t="s">
         <v>842</v>
-      </c>
-      <c r="O123" s="45" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="124" spans="1:15" ht="104.65" x14ac:dyDescent="0.35">
@@ -9310,22 +9310,22 @@
         <v>128</v>
       </c>
       <c r="B124" s="9" t="s">
+        <v>843</v>
+      </c>
+      <c r="C124" s="9" t="s">
         <v>844</v>
       </c>
-      <c r="C124" s="9" t="s">
+      <c r="D124" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E124" s="10" t="s">
+        <v>837</v>
+      </c>
+      <c r="F124" s="10" t="s">
+        <v>837</v>
+      </c>
+      <c r="G124" s="10" t="s">
         <v>845</v>
-      </c>
-      <c r="D124" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E124" s="10" t="s">
-        <v>838</v>
-      </c>
-      <c r="F124" s="10" t="s">
-        <v>838</v>
-      </c>
-      <c r="G124" s="10" t="s">
-        <v>846</v>
       </c>
       <c r="H124" s="45">
         <v>-6.2333379999999998</v>
@@ -9334,22 +9334,22 @@
         <v>106.831048</v>
       </c>
       <c r="J124" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K124" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="L124" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="M124" s="13" t="s">
         <v>847</v>
       </c>
-      <c r="L124" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="M124" s="13" t="s">
+      <c r="N124" s="14" t="s">
         <v>848</v>
       </c>
-      <c r="N124" s="14" t="s">
-        <v>849</v>
-      </c>
       <c r="O124" s="45" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="125" spans="1:15" ht="104.65" x14ac:dyDescent="0.35">
@@ -9357,22 +9357,22 @@
         <v>129</v>
       </c>
       <c r="B125" s="9" t="s">
+        <v>849</v>
+      </c>
+      <c r="C125" s="9" t="s">
         <v>850</v>
       </c>
-      <c r="C125" s="9" t="s">
-        <v>851</v>
-      </c>
       <c r="D125" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E125" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F125" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G125" s="10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H125" s="45">
         <v>27.705015</v>
@@ -9381,22 +9381,22 @@
         <v>85.284378000000004</v>
       </c>
       <c r="J125" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K125" s="12" t="s">
+        <v>851</v>
+      </c>
+      <c r="L125" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="M125" s="13" t="s">
         <v>852</v>
       </c>
-      <c r="L125" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="M125" s="13" t="s">
+      <c r="N125" s="14" t="s">
         <v>853</v>
       </c>
-      <c r="N125" s="14" t="s">
-        <v>854</v>
-      </c>
       <c r="O125" s="45" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="126" spans="1:15" ht="111.75" x14ac:dyDescent="0.35">
@@ -9404,22 +9404,22 @@
         <v>130</v>
       </c>
       <c r="B126" s="9" t="s">
+        <v>854</v>
+      </c>
+      <c r="C126" s="9" t="s">
         <v>855</v>
       </c>
-      <c r="C126" s="9" t="s">
+      <c r="D126" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E126" s="10" t="s">
+        <v>837</v>
+      </c>
+      <c r="F126" s="10" t="s">
+        <v>837</v>
+      </c>
+      <c r="G126" s="10" t="s">
         <v>856</v>
-      </c>
-      <c r="D126" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E126" s="10" t="s">
-        <v>838</v>
-      </c>
-      <c r="F126" s="10" t="s">
-        <v>838</v>
-      </c>
-      <c r="G126" s="10" t="s">
-        <v>857</v>
       </c>
       <c r="H126" s="45">
         <v>3.6285400000000001</v>
@@ -9428,22 +9428,22 @@
         <v>98.690443000000002</v>
       </c>
       <c r="J126" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K126" s="12" t="s">
+        <v>857</v>
+      </c>
+      <c r="L126" s="10" t="s">
         <v>858</v>
       </c>
-      <c r="L126" s="10" t="s">
+      <c r="M126" s="13" t="s">
         <v>859</v>
       </c>
-      <c r="M126" s="13" t="s">
+      <c r="N126" s="14" t="s">
         <v>860</v>
       </c>
-      <c r="N126" s="14" t="s">
-        <v>861</v>
-      </c>
       <c r="O126" s="45" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="127" spans="1:15" ht="71.25" x14ac:dyDescent="0.35">
@@ -9451,22 +9451,22 @@
         <v>131</v>
       </c>
       <c r="B127" s="9" t="s">
+        <v>861</v>
+      </c>
+      <c r="C127" s="9" t="s">
         <v>862</v>
       </c>
-      <c r="C127" s="9" t="s">
-        <v>863</v>
-      </c>
       <c r="D127" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E127" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="F127" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="G127" s="10" t="s">
         <v>536</v>
-      </c>
-      <c r="F127" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="G127" s="10" t="s">
-        <v>537</v>
       </c>
       <c r="H127" s="45">
         <v>14.628663</v>
@@ -9475,22 +9475,22 @@
         <v>121.034978</v>
       </c>
       <c r="J127" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K127" s="12" t="s">
+        <v>863</v>
+      </c>
+      <c r="L127" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="M127" s="13" t="s">
         <v>864</v>
       </c>
-      <c r="L127" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="M127" s="13" t="s">
+      <c r="N127" s="14" t="s">
         <v>865</v>
       </c>
-      <c r="N127" s="14" t="s">
-        <v>866</v>
-      </c>
       <c r="O127" s="45" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="128" spans="1:15" ht="71.25" x14ac:dyDescent="0.35">
@@ -9498,22 +9498,22 @@
         <v>132</v>
       </c>
       <c r="B128" s="9" t="s">
+        <v>866</v>
+      </c>
+      <c r="C128" s="9" t="s">
         <v>867</v>
       </c>
-      <c r="C128" s="9" t="s">
+      <c r="D128" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E128" s="10" t="s">
         <v>868</v>
       </c>
-      <c r="D128" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E128" s="10" t="s">
+      <c r="F128" s="10" t="s">
+        <v>868</v>
+      </c>
+      <c r="G128" s="10" t="s">
         <v>869</v>
-      </c>
-      <c r="F128" s="10" t="s">
-        <v>869</v>
-      </c>
-      <c r="G128" s="10" t="s">
-        <v>870</v>
       </c>
       <c r="H128" s="45">
         <v>5.3306649999999998</v>
@@ -9522,22 +9522,22 @@
         <v>-4.0230949999999996</v>
       </c>
       <c r="J128" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K128" s="12" t="s">
+        <v>870</v>
+      </c>
+      <c r="L128" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="M128" s="13" t="s">
         <v>871</v>
       </c>
-      <c r="L128" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="M128" s="13" t="s">
+      <c r="N128" s="14" t="s">
         <v>872</v>
       </c>
-      <c r="N128" s="14" t="s">
+      <c r="O128" s="45" t="s">
         <v>873</v>
-      </c>
-      <c r="O128" s="45" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="129" spans="1:15" ht="71.25" x14ac:dyDescent="0.35">
@@ -9545,22 +9545,22 @@
         <v>133</v>
       </c>
       <c r="B129" s="9" t="s">
+        <v>874</v>
+      </c>
+      <c r="C129" s="9" t="s">
         <v>875</v>
       </c>
-      <c r="C129" s="9" t="s">
-        <v>876</v>
-      </c>
       <c r="D129" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E129" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="F129" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="G129" s="10" t="s">
         <v>495</v>
-      </c>
-      <c r="F129" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="G129" s="10" t="s">
-        <v>496</v>
       </c>
       <c r="H129" s="45">
         <v>13.57724</v>
@@ -9569,22 +9569,22 @@
         <v>2.0857209999999999</v>
       </c>
       <c r="J129" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K129" s="12" t="s">
+        <v>876</v>
+      </c>
+      <c r="L129" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="M129" s="13" t="s">
         <v>877</v>
       </c>
-      <c r="L129" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="M129" s="13" t="s">
+      <c r="N129" s="14" t="s">
         <v>878</v>
       </c>
-      <c r="N129" s="14" t="s">
-        <v>879</v>
-      </c>
       <c r="O129" s="45" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="130" spans="1:15" ht="12.75" x14ac:dyDescent="0.35">

--- a/TUEDweb/ALL_TUED_UNIONS.xlsx
+++ b/TUEDweb/ALL_TUED_UNIONS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\André\TUED\webmap\andreldeod.github.io\TUEDweb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA3228C-5797-47AF-8390-B653D43DEC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C808202-9CDF-4AC0-A63C-A3A860DF1464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31890" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="898">
   <si>
     <t>id</t>
   </si>
@@ -249,7 +249,7 @@
     <t>Logo</t>
   </si>
   <si>
-    <t xml:space="preserve">Sector </t>
+    <t>Sector</t>
   </si>
   <si>
     <t>Website</t>
@@ -2893,7 +2893,7 @@
     <t>https://cdn.prod.website-files.com/63276dc4e6b803208bf159df/679eb2f5a717b8b203c72e0a_LOGO%20Federation%20of%20SERBUNDO%20-%20Serbundo%20Indonesia.jpg</t>
   </si>
   <si>
-    <t>Agricultural / Food Service</t>
+    <t>Agriculture / Food Service</t>
   </si>
   <si>
     <t>https://www.facebook.com/groups/125053378774145/</t>
@@ -2954,6 +2954,9 @@
   </si>
   <si>
     <t xml:space="preserve">The National Union of Energy Workers of Niger (Syndicat National des Travailleurs de l'Énergie du Niger, SYNTRAVE) is a trade union in Niger representing workers in the energy sector. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sector </t>
   </si>
   <si>
     <t>Instituto de Estudos Estratégicos de Petróleo, Gás Natural e Biocombustíveis</t>
@@ -3647,8 +3650,8 @@
   <dimension ref="A1:Y979"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A130" sqref="A130:XFD130"/>
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4095,7 +4098,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="91.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>11</v>
       </c>
@@ -4142,7 +4145,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="101.65" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>12</v>
       </c>
@@ -4189,7 +4192,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="91.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>13</v>
       </c>
@@ -4236,7 +4239,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="91.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
         <v>14</v>
       </c>
@@ -4283,7 +4286,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="91.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
         <v>15</v>
       </c>
@@ -4330,7 +4333,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="91.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
         <v>16</v>
       </c>
@@ -4377,7 +4380,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="91.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
         <v>17</v>
       </c>
@@ -4424,7 +4427,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="111.75" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
         <v>18</v>
       </c>
@@ -4471,7 +4474,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
         <v>19</v>
       </c>
@@ -21636,20 +21639,20 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L111:L116 L119:L122" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Diverse,Education,Energy - Electricity,Energy - Hydrocarbon,Energy - Mining,Energy - Other,Agriculture / Food service,Health,Industry / Manufacturing,National Centre,Professionals,Private Sector,Public Services,Retail,Transport,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D111:D129" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L45 L49 L68 L71 L81 L85 L91 L103 L108:L109 L117:L118 L123:L129" xr:uid="{00000000-0002-0000-0000-000003000000}">
+      <formula1>"Diverse,Education,Energy - Electricity,Energy - Hydrocarbon,Energy - Mining,Energy - Other,Agriculture / Food Service,Health,Industry / Manufacturing,National Centre,Professionals,Private Sector,Public Services,Retail,Transport,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D111:D129" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"Local Union ,National Union,National Centre,Regional Body,Global Union Federation,Participating Ally"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D82 D84:D110" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D82 D84:D110" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"Select below,Local Union,National Union,National Centre,Regional Body,Global Union Federation"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L3 L14 L17 L20 L27:L28 L36 L38 L46 L48" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L3 L14 L17 L20 L27:L28 L36 L38 L46 L48" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"Health,Education,Public Services,Transport,National Centre,Diverse,Energy,Industry / Manufacturing,Food service / Agricultural,Retail,Professionals"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L2 L4:L6 L8:L13 L15:L16 L18:L19 L21:L23 L25:L26 L29:L35 L37 L39:L44 L47 L50:L67 L69:L70 L72:L78 L80 L82:L84 L86:L90 L95:L102 L104:L107 L110" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L2 L4:L6 L8:L13 L15:L16 L18:L19 L21:L23 L25:L26 L29:L35 L37 L39:L44 L47 L50:L67 L69:L70 L72:L78 L80 L82:L84 L86:L90 L95:L102 L104:L107 L110" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>"Select below,Diverse,Education,Energy - Electricity,Energy - Hydrocarbon,Energy - Mining,Energy - Other,Food service / Agricultural,Health,Industry / Manufacturing,National Centre,Professionals,Private Sector,Public Services,Retail,Transport,Other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L45 L49 L68 L71 L81 L85 L91 L103 L108:L109 L117:L118 L123:L129" xr:uid="{00000000-0002-0000-0000-000007000000}">
-      <formula1>"Diverse,Education,Energy - Electricity,Energy - Hydrocarbon,Energy - Mining,Energy - Other,Agricultural / Food Service,Health,Industry / Manufacturing,National Centre,Professionals,Private Sector,Public Services,Retail,Transport,Other"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L79" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>"Select below,Health,Education,Public Services,Transport,National Centre,Diverse,Industry / Manufacturing,Food service / Agricultural,Retail,Professionals,Energy - Mining,Energy - Electricity,Energy - Hydrocarbon,Energy - Other,Other"</formula1>
@@ -21977,7 +21980,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>11</v>
+        <v>880</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>12</v>
@@ -22004,20 +22007,20 @@
         <v>119</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="48" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
@@ -22135,7 +22138,7 @@
       <c r="M9" s="10"/>
       <c r="N9" s="14"/>
     </row>
-    <row r="10" spans="1:25" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>128</v>
       </c>
@@ -22151,7 +22154,7 @@
       <c r="M10" s="10"/>
       <c r="N10" s="14"/>
     </row>
-    <row r="11" spans="1:25" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>129</v>
       </c>
@@ -22167,7 +22170,7 @@
       <c r="M11" s="10"/>
       <c r="N11" s="14"/>
     </row>
-    <row r="12" spans="1:25" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>130</v>
       </c>
@@ -22183,7 +22186,7 @@
       <c r="M12" s="10"/>
       <c r="N12" s="14"/>
     </row>
-    <row r="13" spans="1:25" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -22197,7 +22200,7 @@
       <c r="M13" s="10"/>
       <c r="N13" s="14"/>
     </row>
-    <row r="14" spans="1:25" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -22211,7 +22214,7 @@
       <c r="M14" s="10"/>
       <c r="N14" s="14"/>
     </row>
-    <row r="15" spans="1:25" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -22225,7 +22228,7 @@
       <c r="M15" s="10"/>
       <c r="N15" s="14"/>
     </row>
-    <row r="16" spans="1:25" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -22239,7 +22242,7 @@
       <c r="M16" s="10"/>
       <c r="N16" s="14"/>
     </row>
-    <row r="17" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -22253,7 +22256,7 @@
       <c r="M17" s="10"/>
       <c r="N17" s="14"/>
     </row>
-    <row r="18" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -34194,10 +34197,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>9</v>
@@ -34206,7 +34209,7 @@
         <v>10</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>11</v>
+        <v>880</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>12</v>
@@ -34215,10 +34218,10 @@
         <v>13</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="M1" s="51" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
@@ -34241,7 +34244,7 @@
       <c r="C2" s="9"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -34257,10 +34260,10 @@
         <v>43</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>87</v>
@@ -34290,7 +34293,7 @@
       <c r="M3" s="10"/>
       <c r="N3" s="14"/>
       <c r="O3" s="10" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="P3" s="52"/>
     </row>
@@ -34299,10 +34302,10 @@
         <v>74</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="D4" s="55" t="s">
         <v>38</v>
@@ -34326,16 +34329,16 @@
         <v>110</v>
       </c>
       <c r="K4" s="56" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="L4" s="55" t="s">
         <v>67</v>
       </c>
       <c r="M4" s="57" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="N4" s="58" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="O4" s="8" t="s">
         <v>525</v>
@@ -34426,7 +34429,7 @@
       <c r="L9" s="10"/>
       <c r="M9" s="52"/>
     </row>
-    <row r="10" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -34441,7 +34444,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="52"/>
     </row>
-    <row r="11" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -34456,7 +34459,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="52"/>
     </row>
-    <row r="12" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -34471,7 +34474,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="52"/>
     </row>
-    <row r="13" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -34486,7 +34489,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="52"/>
     </row>
-    <row r="14" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -34501,7 +34504,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="52"/>
     </row>
-    <row r="15" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -34516,7 +34519,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="52"/>
     </row>
-    <row r="16" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -34531,7 +34534,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="52"/>
     </row>
-    <row r="17" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -34546,7 +34549,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="52"/>
     </row>
-    <row r="18" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>

--- a/TUEDweb/ALL_TUED_UNIONS.xlsx
+++ b/TUEDweb/ALL_TUED_UNIONS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\André\TUED\webmap\andreldeod.github.io\TUEDweb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C808202-9CDF-4AC0-A63C-A3A860DF1464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA360A9-5B7F-45B4-9170-A0A60C3EC5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31890" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="897">
   <si>
     <t>id</t>
   </si>
@@ -2713,7 +2713,7 @@
     <t>https://cdn.prod.website-files.com/63276dc4e6b803208bf159df/67280ffc2e53115d08b6345b_AWUN.png</t>
   </si>
   <si>
-    <t>Agriculture / Food service</t>
+    <t>Agriculture / Food Service</t>
   </si>
   <si>
     <t>https://ntuc.org.np/affilates/details/285</t>
@@ -2891,9 +2891,6 @@
   </si>
   <si>
     <t>https://cdn.prod.website-files.com/63276dc4e6b803208bf159df/679eb2f5a717b8b203c72e0a_LOGO%20Federation%20of%20SERBUNDO%20-%20Serbundo%20Indonesia.jpg</t>
-  </si>
-  <si>
-    <t>Agriculture / Food Service</t>
   </si>
   <si>
     <t>https://www.facebook.com/groups/125053378774145/</t>
@@ -3650,8 +3647,8 @@
   <dimension ref="A1:Y979"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C134" sqref="C134"/>
+      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A130" sqref="A130:XFD130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9575,13 +9572,13 @@
         <v>858</v>
       </c>
       <c r="L126" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="M126" s="13" t="s">
         <v>859</v>
       </c>
-      <c r="M126" s="13" t="s">
+      <c r="N126" s="14" t="s">
         <v>860</v>
-      </c>
-      <c r="N126" s="14" t="s">
-        <v>861</v>
       </c>
       <c r="O126" s="45" t="s">
         <v>843</v>
@@ -9592,10 +9589,10 @@
         <v>131</v>
       </c>
       <c r="B127" s="9" t="s">
+        <v>861</v>
+      </c>
+      <c r="C127" s="9" t="s">
         <v>862</v>
-      </c>
-      <c r="C127" s="9" t="s">
-        <v>863</v>
       </c>
       <c r="D127" s="10" t="s">
         <v>29</v>
@@ -9619,16 +9616,16 @@
         <v>58</v>
       </c>
       <c r="K127" s="12" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="L127" s="10" t="s">
         <v>317</v>
       </c>
       <c r="M127" s="13" t="s">
+        <v>864</v>
+      </c>
+      <c r="N127" s="14" t="s">
         <v>865</v>
-      </c>
-      <c r="N127" s="14" t="s">
-        <v>866</v>
       </c>
       <c r="O127" s="45" t="s">
         <v>541</v>
@@ -9639,22 +9636,22 @@
         <v>132</v>
       </c>
       <c r="B128" s="9" t="s">
+        <v>866</v>
+      </c>
+      <c r="C128" s="9" t="s">
         <v>867</v>
-      </c>
-      <c r="C128" s="9" t="s">
-        <v>868</v>
       </c>
       <c r="D128" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E128" s="10" t="s">
+        <v>868</v>
+      </c>
+      <c r="F128" s="10" t="s">
+        <v>868</v>
+      </c>
+      <c r="G128" s="10" t="s">
         <v>869</v>
-      </c>
-      <c r="F128" s="10" t="s">
-        <v>869</v>
-      </c>
-      <c r="G128" s="10" t="s">
-        <v>870</v>
       </c>
       <c r="H128" s="45">
         <v>5.3306649999999998</v>
@@ -9666,19 +9663,19 @@
         <v>135</v>
       </c>
       <c r="K128" s="12" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="L128" s="10" t="s">
         <v>83</v>
       </c>
       <c r="M128" s="13" t="s">
+        <v>871</v>
+      </c>
+      <c r="N128" s="14" t="s">
         <v>872</v>
       </c>
-      <c r="N128" s="14" t="s">
+      <c r="O128" s="45" t="s">
         <v>873</v>
-      </c>
-      <c r="O128" s="45" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="129" spans="1:15" ht="71.25" x14ac:dyDescent="0.35">
@@ -9686,10 +9683,10 @@
         <v>133</v>
       </c>
       <c r="B129" s="9" t="s">
+        <v>874</v>
+      </c>
+      <c r="C129" s="9" t="s">
         <v>875</v>
-      </c>
-      <c r="C129" s="9" t="s">
-        <v>876</v>
       </c>
       <c r="D129" s="10" t="s">
         <v>38</v>
@@ -9713,16 +9710,16 @@
         <v>135</v>
       </c>
       <c r="K129" s="12" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="L129" s="10" t="s">
         <v>67</v>
       </c>
       <c r="M129" s="13" t="s">
+        <v>877</v>
+      </c>
+      <c r="N129" s="14" t="s">
         <v>878</v>
-      </c>
-      <c r="N129" s="14" t="s">
-        <v>879</v>
       </c>
       <c r="O129" s="45" t="s">
         <v>500</v>
@@ -21629,38 +21626,35 @@
       <c r="N979" s="14"/>
     </row>
   </sheetData>
-  <dataValidations count="11">
+  <dataValidations count="10">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J2:J110" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Select below,Africa,Asia and the Pacific,Europe,Latin America and the Caribbean,North America,Global"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J111:J129" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Africa,Asia and the Pacific,Europe,Latin America and the Caribbean,North America,Global"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L111:L116 L119:L122" xr:uid="{00000000-0002-0000-0000-000002000000}">
-      <formula1>"Diverse,Education,Energy - Electricity,Energy - Hydrocarbon,Energy - Mining,Energy - Other,Agriculture / Food service,Health,Industry / Manufacturing,National Centre,Professionals,Private Sector,Public Services,Retail,Transport,Other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L45 L49 L68 L71 L81 L85 L91 L103 L108:L109 L117:L118 L123:L129" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L45 L49 L68 L71 L81 L85 L91 L103 L108:L109 L111:L129" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Diverse,Education,Energy - Electricity,Energy - Hydrocarbon,Energy - Mining,Energy - Other,Agriculture / Food Service,Health,Industry / Manufacturing,National Centre,Professionals,Private Sector,Public Services,Retail,Transport,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D111:D129" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D111:D129" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"Local Union ,National Union,National Centre,Regional Body,Global Union Federation,Participating Ally"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D82 D84:D110" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D82 D84:D110" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"Select below,Local Union,National Union,National Centre,Regional Body,Global Union Federation"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L3 L14 L17 L20 L27:L28 L36 L38 L46 L48" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L3 L14 L17 L20 L27:L28 L36 L38 L46 L48" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"Health,Education,Public Services,Transport,National Centre,Diverse,Energy,Industry / Manufacturing,Food service / Agricultural,Retail,Professionals"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L2 L4:L6 L8:L13 L15:L16 L18:L19 L21:L23 L25:L26 L29:L35 L37 L39:L44 L47 L50:L67 L69:L70 L72:L78 L80 L82:L84 L86:L90 L95:L102 L104:L107 L110" xr:uid="{00000000-0002-0000-0000-000007000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L2 L4:L6 L8:L13 L15:L16 L18:L19 L21:L23 L25:L26 L29:L35 L37 L39:L44 L47 L50:L67 L69:L70 L72:L78 L80 L82:L84 L86:L90 L95:L102 L104:L107 L110" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"Select below,Diverse,Education,Energy - Electricity,Energy - Hydrocarbon,Energy - Mining,Energy - Other,Food service / Agricultural,Health,Industry / Manufacturing,National Centre,Professionals,Private Sector,Public Services,Retail,Transport,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L79" xr:uid="{00000000-0002-0000-0000-000008000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L79" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>"Select below,Health,Education,Public Services,Transport,National Centre,Diverse,Industry / Manufacturing,Food service / Agricultural,Retail,Professionals,Energy - Mining,Energy - Electricity,Energy - Hydrocarbon,Energy - Other,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L7 L24" xr:uid="{00000000-0002-0000-0000-000009000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L7 L24" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>"Health,Education,Public Services,Transport,National Centre,Diverse,Energy,Industry / Manufacturing,Food service / Agricultural,Retail,Professionals,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L92:L94" xr:uid="{00000000-0002-0000-0000-00000A000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L92:L94" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>"Health,Education,Public Services,Transport,National Centre,Diverse,Energy,Industry / Manufacturing,Food service / Agricultural,Retail,Professionals,Research Centre,Other"</formula1>
     </dataValidation>
   </dataValidations>
@@ -21980,7 +21974,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>12</v>
@@ -22007,20 +22001,20 @@
         <v>119</v>
       </c>
       <c r="B2" s="42" t="s">
+        <v>880</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>881</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="10" t="s">
         <v>882</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>883</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="48" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
@@ -34197,10 +34191,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>885</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>886</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>9</v>
@@ -34209,7 +34203,7 @@
         <v>10</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>12</v>
@@ -34218,10 +34212,10 @@
         <v>13</v>
       </c>
       <c r="L1" s="5" t="s">
+        <v>886</v>
+      </c>
+      <c r="M1" s="51" t="s">
         <v>887</v>
-      </c>
-      <c r="M1" s="51" t="s">
-        <v>888</v>
       </c>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
@@ -34244,7 +34238,7 @@
       <c r="C2" s="9"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -34260,10 +34254,10 @@
         <v>43</v>
       </c>
       <c r="B3" s="27" t="s">
+        <v>889</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>890</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>891</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>87</v>
@@ -34293,7 +34287,7 @@
       <c r="M3" s="10"/>
       <c r="N3" s="14"/>
       <c r="O3" s="10" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="P3" s="52"/>
     </row>
@@ -34302,10 +34296,10 @@
         <v>74</v>
       </c>
       <c r="B4" s="54" t="s">
+        <v>892</v>
+      </c>
+      <c r="C4" s="55" t="s">
         <v>893</v>
-      </c>
-      <c r="C4" s="55" t="s">
-        <v>894</v>
       </c>
       <c r="D4" s="55" t="s">
         <v>38</v>
@@ -34329,16 +34323,16 @@
         <v>110</v>
       </c>
       <c r="K4" s="56" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="L4" s="55" t="s">
         <v>67</v>
       </c>
       <c r="M4" s="57" t="s">
+        <v>895</v>
+      </c>
+      <c r="N4" s="58" t="s">
         <v>896</v>
-      </c>
-      <c r="N4" s="58" t="s">
-        <v>897</v>
       </c>
       <c r="O4" s="8" t="s">
         <v>525</v>

--- a/TUEDweb/ALL_TUED_UNIONS.xlsx
+++ b/TUEDweb/ALL_TUED_UNIONS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\André\TUED\webmap\andreldeod.github.io\TUEDweb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA360A9-5B7F-45B4-9170-A0A60C3EC5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9C7CC0-C2DB-460F-A961-E55BACE82E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31890" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -478,9 +478,6 @@
     <t>Unions ACT</t>
   </si>
   <si>
-    <t xml:space="preserve">Local Union </t>
-  </si>
-  <si>
     <t xml:space="preserve">Australian Capital Territory </t>
   </si>
   <si>
@@ -2726,6 +2723,9 @@
   </si>
   <si>
     <t xml:space="preserve"> FESIMETRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local Union </t>
   </si>
   <si>
     <t>https://cdn.prod.website-files.com/63276dc4e6b803208bf159df/679e756a067eee6384aa3b23_FESIMETRO-color1%20-%20Elias%20gutierrez%20hidalgo.jpg</t>
@@ -3647,8 +3647,8 @@
   <dimension ref="A1:Y979"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A130" sqref="A130:XFD130"/>
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C135" sqref="C135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4153,16 +4153,16 @@
         <v>86</v>
       </c>
       <c r="D11" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>88</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H11" s="11">
         <v>-35.251411210000001</v>
@@ -4174,16 +4174,16 @@
         <v>58</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L11" s="10" t="s">
         <v>23</v>
       </c>
       <c r="M11" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="N11" s="14" t="s">
         <v>91</v>
-      </c>
-      <c r="N11" s="14" t="s">
-        <v>92</v>
       </c>
       <c r="O11" s="8" t="s">
         <v>62</v>
@@ -4194,10 +4194,10 @@
         <v>13</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>29</v>
@@ -4209,7 +4209,7 @@
         <v>56</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H12" s="11">
         <v>-37.820259</v>
@@ -4221,16 +4221,16 @@
         <v>58</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L12" s="10" t="s">
         <v>29</v>
       </c>
       <c r="M12" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="N12" s="14" t="s">
         <v>97</v>
-      </c>
-      <c r="N12" s="14" t="s">
-        <v>98</v>
       </c>
       <c r="O12" s="8" t="s">
         <v>62</v>
@@ -4241,22 +4241,22 @@
         <v>14</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>99</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>100</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>72</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H13" s="11">
         <v>-37.806871999999998</v>
@@ -4268,16 +4268,16 @@
         <v>58</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L13" s="10" t="s">
         <v>23</v>
       </c>
       <c r="M13" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="N13" s="14" t="s">
         <v>103</v>
-      </c>
-      <c r="N13" s="14" t="s">
-        <v>104</v>
       </c>
       <c r="O13" s="8" t="s">
         <v>62</v>
@@ -4288,22 +4288,22 @@
         <v>15</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>105</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>106</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E14" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="G14" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>109</v>
       </c>
       <c r="H14" s="11">
         <v>43.266271000000003</v>
@@ -4312,22 +4312,22 @@
         <v>-2.9347840000000001</v>
       </c>
       <c r="J14" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K14" s="12" t="s">
         <v>110</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>111</v>
       </c>
       <c r="L14" s="10" t="s">
         <v>23</v>
       </c>
       <c r="M14" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="N14" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="N14" s="14" t="s">
+      <c r="O14" s="8" t="s">
         <v>113</v>
-      </c>
-      <c r="O14" s="8" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.35">
@@ -4335,22 +4335,22 @@
         <v>16</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>115</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>116</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E15" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="F15" s="10" t="s">
-        <v>108</v>
-      </c>
       <c r="G15" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H15" s="11">
         <v>42.856045420000001</v>
@@ -4359,22 +4359,22 @@
         <v>-2.6695284159999999</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L15" s="10" t="s">
         <v>23</v>
       </c>
       <c r="M15" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="N15" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="N15" s="14" t="s">
-        <v>120</v>
-      </c>
       <c r="O15" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.35">
@@ -4382,22 +4382,22 @@
         <v>17</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>121</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>122</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E16" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>123</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>124</v>
       </c>
       <c r="H16" s="11">
         <v>50.859474069999997</v>
@@ -4406,22 +4406,22 @@
         <v>4.3581126899999996</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K16" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="L16" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="L16" s="10" t="s">
+      <c r="M16" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="M16" s="15" t="s">
+      <c r="N16" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="N16" s="14" t="s">
+      <c r="O16" s="8" t="s">
         <v>128</v>
-      </c>
-      <c r="O16" s="8" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
@@ -4429,22 +4429,22 @@
         <v>18</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>130</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>131</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E17" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="G17" s="10" t="s">
         <v>133</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>134</v>
       </c>
       <c r="H17" s="11">
         <v>6.359389674</v>
@@ -4453,22 +4453,22 @@
         <v>2.4179765799999999</v>
       </c>
       <c r="J17" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="K17" s="12" t="s">
         <v>135</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>136</v>
       </c>
       <c r="L17" s="10" t="s">
         <v>29</v>
       </c>
       <c r="M17" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="N17" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="N17" s="14" t="s">
+      <c r="O17" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="O17" s="8" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
@@ -4476,22 +4476,22 @@
         <v>19</v>
       </c>
       <c r="B18" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>140</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>141</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>142</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>143</v>
       </c>
       <c r="H18" s="11">
         <v>-24.67558292</v>
@@ -4500,22 +4500,22 @@
         <v>25.9150402</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L18" s="10" t="s">
         <v>29</v>
       </c>
       <c r="M18" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="N18" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="N18" s="14" t="s">
+      <c r="O18" s="8" t="s">
         <v>146</v>
-      </c>
-      <c r="O18" s="8" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="93" x14ac:dyDescent="0.35">
@@ -4523,22 +4523,22 @@
         <v>20</v>
       </c>
       <c r="B19" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>148</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>149</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E19" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19" s="10" t="s">
         <v>150</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>151</v>
       </c>
       <c r="H19" s="11">
         <v>-23.697198570000001</v>
@@ -4550,19 +4550,19 @@
         <v>21</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L19" s="10" t="s">
         <v>40</v>
       </c>
       <c r="M19" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="N19" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="N19" s="14" t="s">
+      <c r="O19" s="8" t="s">
         <v>154</v>
-      </c>
-      <c r="O19" s="8" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -4570,22 +4570,22 @@
         <v>21</v>
       </c>
       <c r="B20" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>156</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>157</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H20" s="11">
         <v>-23.550652190000001</v>
@@ -4597,19 +4597,19 @@
         <v>21</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L20" s="10" t="s">
         <v>29</v>
       </c>
       <c r="M20" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="N20" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="N20" s="14" t="s">
-        <v>161</v>
-      </c>
       <c r="O20" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="81.400000000000006" x14ac:dyDescent="0.35">
@@ -4617,22 +4617,22 @@
         <v>22</v>
       </c>
       <c r="B21" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>162</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>163</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H21" s="11">
         <v>-22.904237380000001</v>
@@ -4644,19 +4644,19 @@
         <v>21</v>
       </c>
       <c r="K21" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="L21" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="L21" s="10" t="s">
+      <c r="M21" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="M21" s="15" t="s">
+      <c r="N21" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="N21" s="14" t="s">
-        <v>168</v>
-      </c>
       <c r="O21" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="71.25" x14ac:dyDescent="0.35">
@@ -4664,22 +4664,22 @@
         <v>23</v>
       </c>
       <c r="B22" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>169</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>170</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E22" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="G22" s="19" t="s">
         <v>171</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>172</v>
       </c>
       <c r="H22" s="11">
         <v>3.8359220000000001</v>
@@ -4688,22 +4688,22 @@
         <v>11.536372</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K22" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M22" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="L22" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="M22" s="13" t="s">
+      <c r="N22" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="N22" s="21" t="s">
+      <c r="O22" s="8" t="s">
         <v>175</v>
-      </c>
-      <c r="O22" s="8" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="71.25" x14ac:dyDescent="0.35">
@@ -4711,22 +4711,22 @@
         <v>24</v>
       </c>
       <c r="B23" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>177</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>178</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E23" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="G23" s="10" t="s">
         <v>171</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>172</v>
       </c>
       <c r="H23" s="11">
         <v>3.8686465000000001</v>
@@ -4735,10 +4735,10 @@
         <v>11.5147049</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K23" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L23" s="10" t="s">
         <v>67</v>
@@ -4746,7 +4746,7 @@
       <c r="M23" s="10"/>
       <c r="N23" s="14"/>
       <c r="O23" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -4754,22 +4754,22 @@
         <v>25</v>
       </c>
       <c r="B24" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>180</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>181</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E24" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="F24" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="G24" s="10" t="s">
         <v>183</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>184</v>
       </c>
       <c r="H24" s="11">
         <v>49.246527389999997</v>
@@ -4778,22 +4778,22 @@
         <v>-122.9757062</v>
       </c>
       <c r="J24" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="K24" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="K24" s="12" t="s">
+      <c r="L24" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="L24" s="10" t="s">
+      <c r="M24" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="M24" s="15" t="s">
+      <c r="N24" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="N24" s="14" t="s">
+      <c r="O24" s="8" t="s">
         <v>189</v>
-      </c>
-      <c r="O24" s="8" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -4801,22 +4801,22 @@
         <v>26</v>
       </c>
       <c r="B25" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>191</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>192</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E25" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="F25" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="F25" s="10" t="s">
-        <v>183</v>
-      </c>
       <c r="G25" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H25" s="11">
         <v>49.26582389</v>
@@ -4825,22 +4825,22 @@
         <v>-123.1172131</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L25" s="10" t="s">
         <v>83</v>
       </c>
       <c r="M25" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="N25" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="N25" s="14" t="s">
-        <v>196</v>
-      </c>
       <c r="O25" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -4848,22 +4848,22 @@
         <v>27</v>
       </c>
       <c r="B26" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>197</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>198</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H26" s="11">
         <v>45.371397989999998</v>
@@ -4872,22 +4872,22 @@
         <v>-75.689281719999997</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L26" s="10" t="s">
         <v>29</v>
       </c>
       <c r="M26" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="N26" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="N26" s="14" t="s">
-        <v>202</v>
-      </c>
       <c r="O26" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -4895,22 +4895,22 @@
         <v>28</v>
       </c>
       <c r="B27" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>203</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>204</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H27" s="11">
         <v>45.418122429999997</v>
@@ -4919,22 +4919,22 @@
         <v>-75.632936240000006</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L27" s="10" t="s">
         <v>23</v>
       </c>
       <c r="M27" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="N27" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="N27" s="14" t="s">
-        <v>208</v>
-      </c>
       <c r="O27" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -4942,22 +4942,22 @@
         <v>29</v>
       </c>
       <c r="B28" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>209</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>210</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H28" s="11">
         <v>45.413802349999997</v>
@@ -4966,22 +4966,22 @@
         <v>-75.694667449999997</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K28" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M28" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="L28" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="M28" s="13" t="s">
+      <c r="N28" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="N28" s="14" t="s">
-        <v>214</v>
-      </c>
       <c r="O28" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -4989,22 +4989,22 @@
         <v>30</v>
       </c>
       <c r="B29" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>215</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>216</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>72</v>
       </c>
       <c r="E29" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="G29" s="10" t="s">
         <v>217</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>218</v>
       </c>
       <c r="H29" s="11">
         <v>45.546885420000002</v>
@@ -5013,22 +5013,22 @@
         <v>-73.63817444</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L29" s="10" t="s">
         <v>23</v>
       </c>
       <c r="M29" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="N29" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="N29" s="14" t="s">
-        <v>221</v>
-      </c>
       <c r="O29" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="81.400000000000006" x14ac:dyDescent="0.35">
@@ -5036,22 +5036,22 @@
         <v>31</v>
       </c>
       <c r="B30" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>222</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>223</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H30" s="11">
         <v>45.334954439999997</v>
@@ -5060,22 +5060,22 @@
         <v>-75.703985759999995</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K30" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M30" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="L30" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="M30" s="15" t="s">
+      <c r="N30" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="N30" s="14" t="s">
-        <v>227</v>
-      </c>
       <c r="O30" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="81.400000000000006" x14ac:dyDescent="0.35">
@@ -5083,22 +5083,22 @@
         <v>32</v>
       </c>
       <c r="B31" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>228</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>229</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H31" s="11">
         <v>45.416356059999998</v>
@@ -5107,22 +5107,22 @@
         <v>-75.69086145</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K31" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="L31" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M31" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="L31" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="M31" s="15" t="s">
+      <c r="N31" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="N31" s="14" t="s">
-        <v>233</v>
-      </c>
       <c r="O31" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="101.65" x14ac:dyDescent="0.35">
@@ -5130,22 +5130,22 @@
         <v>33</v>
       </c>
       <c r="B32" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>234</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>235</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H32" s="11">
         <v>43.80268547</v>
@@ -5154,22 +5154,22 @@
         <v>-79.344046320000004</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K32" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="L32" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="L32" s="10" t="s">
+      <c r="M32" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="M32" s="13" t="s">
+      <c r="N32" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="N32" s="14" t="s">
-        <v>240</v>
-      </c>
       <c r="O32" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:25" ht="91.5" x14ac:dyDescent="0.35">
@@ -5177,22 +5177,22 @@
         <v>34</v>
       </c>
       <c r="B33" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>241</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>242</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>72</v>
       </c>
       <c r="E33" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="G33" s="10" t="s">
         <v>243</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>244</v>
       </c>
       <c r="H33" s="11">
         <v>49.283540039999998</v>
@@ -5201,22 +5201,22 @@
         <v>-123.0657997</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L33" s="10" t="s">
         <v>23</v>
       </c>
       <c r="M33" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="N33" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="N33" s="14" t="s">
-        <v>247</v>
-      </c>
       <c r="O33" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:25" ht="91.5" x14ac:dyDescent="0.35">
@@ -5224,22 +5224,22 @@
         <v>35</v>
       </c>
       <c r="B34" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C34" s="9" t="s">
         <v>248</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>249</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>72</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H34" s="11">
         <v>49.265870290000002</v>
@@ -5248,22 +5248,22 @@
         <v>-123.1060402</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L34" s="10" t="s">
         <v>83</v>
       </c>
       <c r="M34" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="N34" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="N34" s="14" t="s">
-        <v>253</v>
-      </c>
       <c r="O34" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:25" ht="93" x14ac:dyDescent="0.35">
@@ -5271,22 +5271,22 @@
         <v>36</v>
       </c>
       <c r="B35" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>254</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>255</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H35" s="11">
         <v>49.230513360000003</v>
@@ -5295,22 +5295,22 @@
         <v>-123.0037913</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K35" s="23" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L35" s="10" t="s">
         <v>23</v>
       </c>
       <c r="M35" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="N35" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="N35" s="14" t="s">
-        <v>259</v>
-      </c>
       <c r="O35" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:25" ht="71.25" x14ac:dyDescent="0.35">
@@ -5318,22 +5318,22 @@
         <v>37</v>
       </c>
       <c r="B36" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C36" s="9" t="s">
         <v>260</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>261</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E36" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="G36" s="10" t="s">
         <v>262</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>263</v>
       </c>
       <c r="H36" s="11">
         <v>-33.445240990000002</v>
@@ -5345,19 +5345,19 @@
         <v>21</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L36" s="10" t="s">
         <v>29</v>
       </c>
       <c r="M36" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="N36" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="N36" s="14" t="s">
+      <c r="O36" s="8" t="s">
         <v>266</v>
-      </c>
-      <c r="O36" s="8" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="37" spans="1:25" ht="101.65" x14ac:dyDescent="0.35">
@@ -5365,22 +5365,22 @@
         <v>38</v>
       </c>
       <c r="B37" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="C37" s="9" t="s">
         <v>268</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>269</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E37" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="G37" s="10" t="s">
         <v>262</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>263</v>
       </c>
       <c r="H37" s="11">
         <v>-33.417164759999999</v>
@@ -5392,19 +5392,19 @@
         <v>21</v>
       </c>
       <c r="K37" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="L37" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="M37" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="L37" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="M37" s="13" t="s">
+      <c r="N37" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="N37" s="14" t="s">
-        <v>272</v>
-      </c>
       <c r="O37" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:25" ht="91.5" x14ac:dyDescent="0.35">
@@ -5412,22 +5412,22 @@
         <v>39</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E38" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="G38" s="10" t="s">
         <v>274</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>275</v>
       </c>
       <c r="H38" s="11">
         <v>4.6253558789999998</v>
@@ -5439,19 +5439,19 @@
         <v>21</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L38" s="10" t="s">
         <v>29</v>
       </c>
       <c r="M38" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="N38" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="N38" s="14" t="s">
+      <c r="O38" s="8" t="s">
         <v>278</v>
-      </c>
-      <c r="O38" s="8" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="39" spans="1:25" ht="91.5" x14ac:dyDescent="0.35">
@@ -5459,22 +5459,22 @@
         <v>40</v>
       </c>
       <c r="B39" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="C39" s="9" t="s">
         <v>280</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>281</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E39" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="G39" s="10" t="s">
         <v>274</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>275</v>
       </c>
       <c r="H39" s="11">
         <v>4.6002685469999998</v>
@@ -5486,19 +5486,19 @@
         <v>21</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L39" s="10" t="s">
         <v>67</v>
       </c>
       <c r="M39" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="N39" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="N39" s="14" t="s">
-        <v>284</v>
-      </c>
       <c r="O39" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="40" spans="1:25" ht="101.65" x14ac:dyDescent="0.35">
@@ -5506,22 +5506,22 @@
         <v>41</v>
       </c>
       <c r="B40" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="C40" s="9" t="s">
         <v>285</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>286</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>72</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H40" s="11">
         <v>3.4552851659999999</v>
@@ -5533,19 +5533,19 @@
         <v>21</v>
       </c>
       <c r="K40" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="L40" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M40" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="L40" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="M40" s="15" t="s">
+      <c r="N40" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="N40" s="14" t="s">
-        <v>290</v>
-      </c>
       <c r="O40" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="41" spans="1:25" ht="101.65" x14ac:dyDescent="0.35">
@@ -5553,22 +5553,22 @@
         <v>42</v>
       </c>
       <c r="B41" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="C41" s="9" t="s">
         <v>291</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>292</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H41" s="11">
         <v>7.0659280850000004</v>
@@ -5580,19 +5580,19 @@
         <v>21</v>
       </c>
       <c r="K41" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="L41" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="M41" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="L41" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="M41" s="15" t="s">
+      <c r="N41" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="N41" s="14" t="s">
-        <v>296</v>
-      </c>
       <c r="O41" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="42" spans="1:25" ht="111.75" x14ac:dyDescent="0.35">
@@ -5600,22 +5600,22 @@
         <v>44</v>
       </c>
       <c r="B42" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="C42" s="9" t="s">
         <v>297</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>298</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E42" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="F42" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="F42" s="10" t="s">
+      <c r="G42" s="10" t="s">
         <v>300</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>301</v>
       </c>
       <c r="H42" s="11">
         <v>-0.21909969400000001</v>
@@ -5627,19 +5627,19 @@
         <v>21</v>
       </c>
       <c r="K42" s="23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L42" s="10" t="s">
         <v>29</v>
       </c>
       <c r="M42" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="N42" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="N42" s="14" t="s">
+      <c r="O42" s="8" t="s">
         <v>304</v>
-      </c>
-      <c r="O42" s="8" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="43" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
@@ -5647,20 +5647,20 @@
         <v>45</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C43" s="27"/>
       <c r="D43" s="28" t="s">
         <v>38</v>
       </c>
       <c r="E43" s="28" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F43" s="28" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G43" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H43" s="11">
         <v>-26.316650800000001</v>
@@ -5669,16 +5669,16 @@
         <v>31.1333345</v>
       </c>
       <c r="J43" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K43" s="29"/>
       <c r="L43" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M43" s="28"/>
       <c r="N43" s="30"/>
       <c r="O43" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P43" s="31"/>
       <c r="Q43" s="31"/>
@@ -5696,22 +5696,22 @@
         <v>46</v>
       </c>
       <c r="B44" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>309</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>310</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F44" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="G44" s="24" t="s">
         <v>123</v>
-      </c>
-      <c r="G44" s="24" t="s">
-        <v>124</v>
       </c>
       <c r="H44" s="11">
         <v>50.861115269999999</v>
@@ -5720,22 +5720,22 @@
         <v>4.331592605</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K44" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="L44" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M44" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="L44" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="M44" s="15" t="s">
+      <c r="N44" s="33" t="s">
         <v>312</v>
       </c>
-      <c r="N44" s="33" t="s">
-        <v>313</v>
-      </c>
       <c r="O44" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:25" ht="91.5" x14ac:dyDescent="0.35">
@@ -5743,22 +5743,22 @@
         <v>47</v>
       </c>
       <c r="B45" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C45" s="9" t="s">
         <v>314</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>315</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F45" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="G45" s="24" t="s">
         <v>123</v>
-      </c>
-      <c r="G45" s="24" t="s">
-        <v>124</v>
       </c>
       <c r="H45" s="11">
         <v>50.838795879999999</v>
@@ -5767,22 +5767,22 @@
         <v>4.3732313679999999</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K45" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="L45" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="L45" s="10" t="s">
+      <c r="M45" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="M45" s="15" t="s">
+      <c r="N45" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="N45" s="14" t="s">
-        <v>319</v>
-      </c>
       <c r="O45" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:25" ht="71.25" x14ac:dyDescent="0.35">
@@ -5790,22 +5790,22 @@
         <v>48</v>
       </c>
       <c r="B46" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="C46" s="9" t="s">
         <v>320</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>321</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E46" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="F46" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="G46" s="24" t="s">
         <v>322</v>
-      </c>
-      <c r="F46" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="G46" s="24" t="s">
-        <v>323</v>
       </c>
       <c r="H46" s="11">
         <v>42.884474769999997</v>
@@ -5814,22 +5814,22 @@
         <v>-8.5133369939999994</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K46" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L46" s="10" t="s">
         <v>23</v>
       </c>
       <c r="M46" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="N46" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="N46" s="14" t="s">
-        <v>326</v>
-      </c>
       <c r="O46" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:25" ht="101.65" x14ac:dyDescent="0.35">
@@ -5837,22 +5837,22 @@
         <v>49</v>
       </c>
       <c r="B47" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>327</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>328</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E47" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="G47" s="10" t="s">
         <v>329</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>330</v>
       </c>
       <c r="H47" s="11">
         <v>5.5519805</v>
@@ -5861,22 +5861,22 @@
         <v>-0.21866160000000001</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K47" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="L47" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M47" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="L47" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="M47" s="15" t="s">
+      <c r="N47" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="N47" s="14" t="s">
+      <c r="O47" s="8" t="s">
         <v>333</v>
-      </c>
-      <c r="O47" s="8" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="48" spans="1:25" ht="91.5" x14ac:dyDescent="0.35">
@@ -5884,22 +5884,22 @@
         <v>50</v>
       </c>
       <c r="B48" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="C48" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="D48" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="E48" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="E48" s="10" t="s">
-        <v>338</v>
-      </c>
       <c r="F48" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G48" s="24" t="s">
         <v>123</v>
-      </c>
-      <c r="G48" s="24" t="s">
-        <v>124</v>
       </c>
       <c r="H48" s="11">
         <v>50.835262899999996</v>
@@ -5908,22 +5908,22 @@
         <v>4.3313706999999999</v>
       </c>
       <c r="J48" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="K48" s="12" t="s">
         <v>338</v>
-      </c>
-      <c r="K48" s="12" t="s">
-        <v>339</v>
       </c>
       <c r="L48" s="10" t="s">
         <v>83</v>
       </c>
       <c r="M48" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="N48" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="N48" s="14" t="s">
-        <v>341</v>
-      </c>
       <c r="O48" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -5931,22 +5931,22 @@
         <v>51</v>
       </c>
       <c r="B49" s="34" t="s">
+        <v>341</v>
+      </c>
+      <c r="C49" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="D49" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="F49" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="D49" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="F49" s="10" t="s">
+      <c r="G49" s="10" t="s">
         <v>344</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>345</v>
       </c>
       <c r="H49" s="11">
         <v>51.464404199999997</v>
@@ -5955,22 +5955,22 @@
         <v>-8.2082484999999997E-2</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K49" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="L49" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="M49" s="15" t="s">
         <v>346</v>
       </c>
-      <c r="L49" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="M49" s="15" t="s">
+      <c r="N49" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="N49" s="14" t="s">
+      <c r="O49" s="8" t="s">
         <v>348</v>
-      </c>
-      <c r="O49" s="8" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -5978,22 +5978,22 @@
         <v>52</v>
       </c>
       <c r="B50" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="C50" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="D50" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="F50" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="D50" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="F50" s="10" t="s">
+      <c r="G50" s="10" t="s">
         <v>352</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>353</v>
       </c>
       <c r="H50" s="11">
         <v>46.210007500000003</v>
@@ -6002,22 +6002,22 @@
         <v>6.140028</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K50" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L50" s="10" t="s">
         <v>23</v>
       </c>
       <c r="M50" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="N50" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="N50" s="14" t="s">
+      <c r="O50" s="8" t="s">
         <v>356</v>
-      </c>
-      <c r="O50" s="8" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -6025,22 +6025,22 @@
         <v>53</v>
       </c>
       <c r="B51" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="C51" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="D51" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="F51" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="D51" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="F51" s="10" t="s">
+      <c r="G51" s="10" t="s">
         <v>360</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>361</v>
       </c>
       <c r="H51" s="11">
         <v>46.26248116</v>
@@ -6049,22 +6049,22 @@
         <v>6.0721476159999996</v>
       </c>
       <c r="J51" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K51" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="L51" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M51" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="L51" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="M51" s="15" t="s">
+      <c r="N51" s="14" t="s">
         <v>363</v>
       </c>
-      <c r="N51" s="14" t="s">
+      <c r="O51" s="8" t="s">
         <v>364</v>
-      </c>
-      <c r="O51" s="8" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -6072,22 +6072,22 @@
         <v>54</v>
       </c>
       <c r="B52" s="35" t="s">
+        <v>365</v>
+      </c>
+      <c r="C52" s="9" t="s">
         <v>366</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>367</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>72</v>
       </c>
       <c r="E52" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="F52" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="F52" s="10" t="s">
+      <c r="G52" s="10" t="s">
         <v>369</v>
-      </c>
-      <c r="G52" s="10" t="s">
-        <v>370</v>
       </c>
       <c r="H52" s="11">
         <v>40.629915820000001</v>
@@ -6096,22 +6096,22 @@
         <v>22.947171879999999</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K52" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="L52" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M52" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="L52" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="M52" s="15" t="s">
+      <c r="N52" s="14" t="s">
         <v>372</v>
       </c>
-      <c r="N52" s="14" t="s">
+      <c r="O52" s="8" t="s">
         <v>373</v>
-      </c>
-      <c r="O52" s="8" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -6119,22 +6119,22 @@
         <v>55</v>
       </c>
       <c r="B53" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="C53" s="9" t="s">
         <v>375</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>376</v>
       </c>
       <c r="D53" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E53" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="G53" s="10" t="s">
         <v>377</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="G53" s="10" t="s">
-        <v>378</v>
       </c>
       <c r="H53" s="11">
         <v>28.562263489999999</v>
@@ -6146,19 +6146,19 @@
         <v>58</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L53" s="10" t="s">
         <v>29</v>
       </c>
       <c r="M53" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="N53" s="14" t="s">
         <v>380</v>
       </c>
-      <c r="N53" s="14" t="s">
+      <c r="O53" s="8" t="s">
         <v>381</v>
-      </c>
-      <c r="O53" s="8" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="71.25" x14ac:dyDescent="0.35">
@@ -6166,22 +6166,22 @@
         <v>56</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D54" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E54" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="G54" s="10" t="s">
         <v>384</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="G54" s="10" t="s">
-        <v>385</v>
       </c>
       <c r="H54" s="11">
         <v>53.353532370000003</v>
@@ -6190,22 +6190,22 @@
         <v>-6.2616945890000002</v>
       </c>
       <c r="J54" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L54" s="10" t="s">
         <v>23</v>
       </c>
       <c r="M54" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="N54" s="36" t="s">
         <v>387</v>
       </c>
-      <c r="N54" s="36" t="s">
+      <c r="O54" s="8" t="s">
         <v>388</v>
-      </c>
-      <c r="O54" s="8" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -6213,22 +6213,22 @@
         <v>57</v>
       </c>
       <c r="B55" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="C55" s="9" t="s">
         <v>390</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>391</v>
       </c>
       <c r="D55" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E55" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="G55" s="10" t="s">
         <v>392</v>
-      </c>
-      <c r="F55" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="G55" s="10" t="s">
-        <v>393</v>
       </c>
       <c r="H55" s="11">
         <v>41.911398839999997</v>
@@ -6237,22 +6237,22 @@
         <v>12.49198311</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="L55" s="10" t="s">
         <v>29</v>
       </c>
       <c r="M55" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="N55" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="N55" s="14" t="s">
+      <c r="O55" s="8" t="s">
         <v>396</v>
-      </c>
-      <c r="O55" s="8" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="71.25" x14ac:dyDescent="0.35">
@@ -6260,22 +6260,22 @@
         <v>58</v>
       </c>
       <c r="B56" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="C56" s="9" t="s">
         <v>398</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>399</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E56" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="G56" s="10" t="s">
         <v>400</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="G56" s="10" t="s">
-        <v>401</v>
       </c>
       <c r="H56" s="11">
         <v>-1.2765567799999999</v>
@@ -6284,22 +6284,22 @@
         <v>36.826619469999997</v>
       </c>
       <c r="J56" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K56" s="12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L56" s="10" t="s">
         <v>67</v>
       </c>
       <c r="M56" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="N56" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="N56" s="14" t="s">
+      <c r="O56" s="8" t="s">
         <v>404</v>
-      </c>
-      <c r="O56" s="8" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="232.5" x14ac:dyDescent="0.35">
@@ -6307,22 +6307,22 @@
         <v>59</v>
       </c>
       <c r="B57" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="C57" s="9" t="s">
         <v>406</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>407</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E57" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="G57" s="10" t="s">
         <v>408</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>409</v>
       </c>
       <c r="H57" s="11">
         <v>37.547555189999997</v>
@@ -6334,19 +6334,19 @@
         <v>58</v>
       </c>
       <c r="K57" s="12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L57" s="10" t="s">
         <v>23</v>
       </c>
       <c r="M57" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="N57" s="14" t="s">
         <v>411</v>
       </c>
-      <c r="N57" s="14" t="s">
+      <c r="O57" s="8" t="s">
         <v>412</v>
-      </c>
-      <c r="O57" s="8" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="61.15" x14ac:dyDescent="0.35">
@@ -6354,22 +6354,22 @@
         <v>60</v>
       </c>
       <c r="B58" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="C58" s="9" t="s">
         <v>414</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>415</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E58" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="G58" s="10" t="s">
         <v>408</v>
-      </c>
-      <c r="F58" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="G58" s="10" t="s">
-        <v>409</v>
       </c>
       <c r="H58" s="11">
         <v>37.568352369999999</v>
@@ -6381,19 +6381,19 @@
         <v>58</v>
       </c>
       <c r="K58" s="16" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L58" s="10" t="s">
         <v>29</v>
       </c>
       <c r="M58" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="N58" s="14" t="s">
         <v>417</v>
       </c>
-      <c r="N58" s="14" t="s">
-        <v>418</v>
-      </c>
       <c r="O58" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="61.15" x14ac:dyDescent="0.35">
@@ -6401,22 +6401,22 @@
         <v>61</v>
       </c>
       <c r="B59" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="C59" s="9" t="s">
         <v>419</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>420</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E59" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="G59" s="10" t="s">
         <v>421</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="G59" s="10" t="s">
-        <v>422</v>
       </c>
       <c r="H59" s="11">
         <v>18.086427</v>
@@ -6425,22 +6425,22 @@
         <v>-15.9753404</v>
       </c>
       <c r="J59" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K59" s="37" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L59" s="10" t="s">
         <v>29</v>
       </c>
       <c r="M59" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="N59" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="N59" s="14" t="s">
+      <c r="O59" s="8" t="s">
         <v>425</v>
-      </c>
-      <c r="O59" s="8" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -6448,22 +6448,22 @@
         <v>62</v>
       </c>
       <c r="B60" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="C60" s="9" t="s">
         <v>427</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>428</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E60" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="G60" s="10" t="s">
         <v>429</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>429</v>
-      </c>
-      <c r="G60" s="10" t="s">
-        <v>430</v>
       </c>
       <c r="H60" s="11">
         <v>19.434547540000001</v>
@@ -6475,19 +6475,19 @@
         <v>21</v>
       </c>
       <c r="K60" s="12" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L60" s="10" t="s">
         <v>67</v>
       </c>
       <c r="M60" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="N60" s="14" t="s">
         <v>432</v>
       </c>
-      <c r="N60" s="14" t="s">
+      <c r="O60" s="8" t="s">
         <v>433</v>
-      </c>
-      <c r="O60" s="8" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -6495,22 +6495,22 @@
         <v>63</v>
       </c>
       <c r="B61" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="C61" s="9" t="s">
         <v>435</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>436</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E61" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="G61" s="10" t="s">
         <v>429</v>
-      </c>
-      <c r="F61" s="10" t="s">
-        <v>429</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>430</v>
       </c>
       <c r="H61" s="11">
         <v>19.4443883</v>
@@ -6522,19 +6522,19 @@
         <v>21</v>
       </c>
       <c r="K61" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="L61" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="M61" s="15" t="s">
         <v>437</v>
       </c>
-      <c r="L61" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="M61" s="15" t="s">
+      <c r="N61" s="14" t="s">
         <v>438</v>
       </c>
-      <c r="N61" s="14" t="s">
-        <v>439</v>
-      </c>
       <c r="O61" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -6542,22 +6542,22 @@
         <v>64</v>
       </c>
       <c r="B62" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="C62" s="9" t="s">
         <v>440</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>441</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E62" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="F62" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="F62" s="10" t="s">
+      <c r="G62" s="10" t="s">
         <v>443</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>444</v>
       </c>
       <c r="H62" s="11">
         <v>-25.953425330000002</v>
@@ -6566,22 +6566,22 @@
         <v>32.59405022</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K62" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L62" s="10" t="s">
         <v>29</v>
       </c>
       <c r="M62" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="N62" s="14" t="s">
         <v>446</v>
       </c>
-      <c r="N62" s="14" t="s">
+      <c r="O62" s="8" t="s">
         <v>447</v>
-      </c>
-      <c r="O62" s="8" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -6589,22 +6589,22 @@
         <v>65</v>
       </c>
       <c r="B63" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="C63" s="9" t="s">
         <v>449</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>450</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E63" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="G63" s="10" t="s">
         <v>451</v>
-      </c>
-      <c r="F63" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="G63" s="10" t="s">
-        <v>452</v>
       </c>
       <c r="H63" s="11">
         <v>-22.570006100000001</v>
@@ -6613,22 +6613,22 @@
         <v>17.0835461</v>
       </c>
       <c r="J63" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K63" s="12" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L63" s="10" t="s">
         <v>29</v>
       </c>
       <c r="M63" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="N63" s="14" t="s">
         <v>454</v>
       </c>
-      <c r="N63" s="14" t="s">
+      <c r="O63" s="8" t="s">
         <v>455</v>
-      </c>
-      <c r="O63" s="8" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="139.5" x14ac:dyDescent="0.35">
@@ -6636,22 +6636,22 @@
         <v>66</v>
       </c>
       <c r="B64" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="C64" s="9" t="s">
         <v>457</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>458</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E64" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="G64" s="10" t="s">
         <v>459</v>
-      </c>
-      <c r="F64" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="G64" s="10" t="s">
-        <v>460</v>
       </c>
       <c r="H64" s="11">
         <v>27.702627960000001</v>
@@ -6663,19 +6663,19 @@
         <v>58</v>
       </c>
       <c r="K64" s="12" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="L64" s="10" t="s">
         <v>29</v>
       </c>
       <c r="M64" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="N64" s="14" t="s">
         <v>462</v>
       </c>
-      <c r="N64" s="14" t="s">
+      <c r="O64" s="8" t="s">
         <v>463</v>
-      </c>
-      <c r="O64" s="8" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="101.65" x14ac:dyDescent="0.35">
@@ -6683,22 +6683,22 @@
         <v>67</v>
       </c>
       <c r="B65" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="C65" s="9" t="s">
         <v>465</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>466</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H65" s="11">
         <v>27.694147869999998</v>
@@ -6710,19 +6710,19 @@
         <v>58</v>
       </c>
       <c r="K65" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="L65" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="M65" s="15" t="s">
         <v>468</v>
       </c>
-      <c r="L65" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="M65" s="15" t="s">
+      <c r="N65" s="14" t="s">
         <v>469</v>
       </c>
-      <c r="N65" s="14" t="s">
-        <v>470</v>
-      </c>
       <c r="O65" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="101.65" x14ac:dyDescent="0.35">
@@ -6730,22 +6730,22 @@
         <v>68</v>
       </c>
       <c r="B66" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="C66" s="9" t="s">
         <v>471</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>472</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E66" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="F66" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="F66" s="10" t="s">
+      <c r="G66" s="10" t="s">
         <v>474</v>
-      </c>
-      <c r="G66" s="10" t="s">
-        <v>475</v>
       </c>
       <c r="H66" s="11">
         <v>-37.78537163</v>
@@ -6757,19 +6757,19 @@
         <v>58</v>
       </c>
       <c r="K66" s="12" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="L66" s="10" t="s">
         <v>23</v>
       </c>
       <c r="M66" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="N66" s="14" t="s">
         <v>477</v>
       </c>
-      <c r="N66" s="14" t="s">
+      <c r="O66" s="8" t="s">
         <v>478</v>
-      </c>
-      <c r="O66" s="8" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="101.65" x14ac:dyDescent="0.35">
@@ -6777,22 +6777,22 @@
         <v>69</v>
       </c>
       <c r="B67" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="C67" s="9" t="s">
         <v>480</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>481</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E67" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="F67" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="F67" s="10" t="s">
-        <v>474</v>
-      </c>
       <c r="G67" s="10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H67" s="11">
         <v>-41.281005100000002</v>
@@ -6804,19 +6804,19 @@
         <v>58</v>
       </c>
       <c r="K67" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="L67" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M67" s="15" t="s">
         <v>483</v>
       </c>
-      <c r="L67" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="M67" s="15" t="s">
+      <c r="N67" s="14" t="s">
         <v>484</v>
       </c>
-      <c r="N67" s="14" t="s">
-        <v>485</v>
-      </c>
       <c r="O67" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="101.65" x14ac:dyDescent="0.35">
@@ -6824,22 +6824,22 @@
         <v>70</v>
       </c>
       <c r="B68" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="C68" s="9" t="s">
         <v>486</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>487</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E68" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="F68" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="F68" s="10" t="s">
-        <v>474</v>
-      </c>
       <c r="G68" s="10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H68" s="11">
         <v>-36.872185610000002</v>
@@ -6851,19 +6851,19 @@
         <v>58</v>
       </c>
       <c r="K68" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="L68" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="L68" s="10" t="s">
+      <c r="M68" s="13" t="s">
         <v>490</v>
       </c>
-      <c r="M68" s="13" t="s">
+      <c r="N68" s="14" t="s">
         <v>491</v>
       </c>
-      <c r="N68" s="14" t="s">
-        <v>492</v>
-      </c>
       <c r="O68" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -6871,22 +6871,22 @@
         <v>71</v>
       </c>
       <c r="B69" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="C69" s="21" t="s">
         <v>493</v>
-      </c>
-      <c r="C69" s="21" t="s">
-        <v>494</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E69" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="G69" s="10" t="s">
         <v>495</v>
-      </c>
-      <c r="F69" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="G69" s="10" t="s">
-        <v>496</v>
       </c>
       <c r="H69" s="11">
         <v>13.518651800000001</v>
@@ -6895,22 +6895,22 @@
         <v>2.1147102000000002</v>
       </c>
       <c r="J69" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K69" s="12" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L69" s="10" t="s">
         <v>29</v>
       </c>
       <c r="M69" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="N69" s="14" t="s">
         <v>498</v>
       </c>
-      <c r="N69" s="14" t="s">
+      <c r="O69" s="8" t="s">
         <v>499</v>
-      </c>
-      <c r="O69" s="8" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="81.400000000000006" x14ac:dyDescent="0.35">
@@ -6918,22 +6918,22 @@
         <v>72</v>
       </c>
       <c r="B70" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="C70" s="9" t="s">
         <v>501</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>502</v>
       </c>
       <c r="D70" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E70" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="G70" s="10" t="s">
         <v>503</v>
-      </c>
-      <c r="F70" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="G70" s="10" t="s">
-        <v>504</v>
       </c>
       <c r="H70" s="11">
         <v>6.5074042820000004</v>
@@ -6942,22 +6942,22 @@
         <v>3.37602213</v>
       </c>
       <c r="J70" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K70" s="12" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L70" s="10" t="s">
         <v>67</v>
       </c>
       <c r="M70" s="15" t="s">
+        <v>505</v>
+      </c>
+      <c r="N70" s="14" t="s">
         <v>506</v>
       </c>
-      <c r="N70" s="14" t="s">
+      <c r="O70" s="8" t="s">
         <v>507</v>
-      </c>
-      <c r="O70" s="8" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -6965,22 +6965,22 @@
         <v>73</v>
       </c>
       <c r="B71" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="C71" s="9" t="s">
         <v>509</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>510</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E71" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="F71" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="F71" s="10" t="s">
+      <c r="G71" s="10" t="s">
         <v>512</v>
-      </c>
-      <c r="G71" s="10" t="s">
-        <v>513</v>
       </c>
       <c r="H71" s="11">
         <v>59.33648616</v>
@@ -6989,22 +6989,22 @@
         <v>18.05712007</v>
       </c>
       <c r="J71" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K71" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="L71" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="M71" s="15" t="s">
         <v>514</v>
       </c>
-      <c r="L71" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="M71" s="15" t="s">
+      <c r="N71" s="14" t="s">
         <v>515</v>
       </c>
-      <c r="N71" s="14" t="s">
+      <c r="O71" s="8" t="s">
         <v>516</v>
-      </c>
-      <c r="O71" s="8" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -7012,22 +7012,22 @@
         <v>75</v>
       </c>
       <c r="B72" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="C72" s="9" t="s">
         <v>518</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>519</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E72" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="G72" s="10" t="s">
         <v>520</v>
-      </c>
-      <c r="F72" s="10" t="s">
-        <v>520</v>
-      </c>
-      <c r="G72" s="10" t="s">
-        <v>521</v>
       </c>
       <c r="H72" s="11">
         <v>59.915615289999998</v>
@@ -7036,22 +7036,22 @@
         <v>10.737540559999999</v>
       </c>
       <c r="J72" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K72" s="12" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L72" s="10" t="s">
         <v>23</v>
       </c>
       <c r="M72" s="15" t="s">
+        <v>522</v>
+      </c>
+      <c r="N72" s="38" t="s">
         <v>523</v>
       </c>
-      <c r="N72" s="38" t="s">
+      <c r="O72" s="8" t="s">
         <v>524</v>
-      </c>
-      <c r="O72" s="8" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="101.65" x14ac:dyDescent="0.35">
@@ -7059,22 +7059,22 @@
         <v>76</v>
       </c>
       <c r="B73" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="C73" s="9" t="s">
         <v>526</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>527</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E73" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="G73" s="10" t="s">
         <v>528</v>
-      </c>
-      <c r="F73" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="G73" s="10" t="s">
-        <v>529</v>
       </c>
       <c r="H73" s="11">
         <v>-12.05344232</v>
@@ -7086,19 +7086,19 @@
         <v>21</v>
       </c>
       <c r="K73" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="L73" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M73" s="13" t="s">
         <v>530</v>
       </c>
-      <c r="L73" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="M73" s="13" t="s">
+      <c r="N73" s="14" t="s">
         <v>531</v>
       </c>
-      <c r="N73" s="14" t="s">
+      <c r="O73" s="8" t="s">
         <v>532</v>
-      </c>
-      <c r="O73" s="8" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -7106,22 +7106,22 @@
         <v>77</v>
       </c>
       <c r="B74" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="C74" s="9" t="s">
         <v>534</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>535</v>
       </c>
       <c r="D74" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E74" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="G74" s="10" t="s">
         <v>536</v>
-      </c>
-      <c r="F74" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="G74" s="10" t="s">
-        <v>537</v>
       </c>
       <c r="H74" s="11">
         <v>14.677166</v>
@@ -7133,19 +7133,19 @@
         <v>58</v>
       </c>
       <c r="K74" s="12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L74" s="10" t="s">
         <v>23</v>
       </c>
       <c r="M74" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="N74" s="14" t="s">
         <v>539</v>
       </c>
-      <c r="N74" s="14" t="s">
+      <c r="O74" s="8" t="s">
         <v>540</v>
-      </c>
-      <c r="O74" s="8" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="174.4" x14ac:dyDescent="0.35">
@@ -7153,22 +7153,22 @@
         <v>78</v>
       </c>
       <c r="B75" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="C75" s="9" t="s">
         <v>542</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>543</v>
       </c>
       <c r="D75" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E75" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="G75" s="10" t="s">
         <v>536</v>
-      </c>
-      <c r="F75" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="G75" s="10" t="s">
-        <v>537</v>
       </c>
       <c r="H75" s="11">
         <v>14.606104800000001</v>
@@ -7180,19 +7180,19 @@
         <v>58</v>
       </c>
       <c r="K75" s="12" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L75" s="10" t="s">
         <v>29</v>
       </c>
       <c r="M75" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="N75" s="14" t="s">
         <v>545</v>
       </c>
-      <c r="N75" s="14" t="s">
-        <v>546</v>
-      </c>
       <c r="O75" s="8" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -7200,22 +7200,22 @@
         <v>79</v>
       </c>
       <c r="B76" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="C76" s="9" t="s">
         <v>547</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>548</v>
       </c>
       <c r="D76" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E76" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="G76" s="10" t="s">
         <v>549</v>
-      </c>
-      <c r="F76" s="10" t="s">
-        <v>549</v>
-      </c>
-      <c r="G76" s="10" t="s">
-        <v>550</v>
       </c>
       <c r="H76" s="11">
         <v>18.453226470000001</v>
@@ -7227,19 +7227,19 @@
         <v>21</v>
       </c>
       <c r="K76" s="12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="L76" s="10" t="s">
         <v>67</v>
       </c>
       <c r="M76" s="15" t="s">
+        <v>551</v>
+      </c>
+      <c r="N76" s="14" t="s">
         <v>552</v>
       </c>
-      <c r="N76" s="14" t="s">
+      <c r="O76" s="8" t="s">
         <v>553</v>
-      </c>
-      <c r="O76" s="8" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -7247,22 +7247,22 @@
         <v>80</v>
       </c>
       <c r="B77" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="C77" s="9" t="s">
         <v>555</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>556</v>
       </c>
       <c r="D77" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E77" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="G77" s="10" t="s">
         <v>557</v>
-      </c>
-      <c r="F77" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="G77" s="10" t="s">
-        <v>558</v>
       </c>
       <c r="H77" s="11">
         <v>55.872712</v>
@@ -7271,22 +7271,22 @@
         <v>-4.2790134599999998</v>
       </c>
       <c r="J77" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K77" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L77" s="10" t="s">
         <v>29</v>
       </c>
       <c r="M77" s="15" t="s">
+        <v>559</v>
+      </c>
+      <c r="N77" s="14" t="s">
         <v>560</v>
       </c>
-      <c r="N77" s="14" t="s">
+      <c r="O77" s="8" t="s">
         <v>561</v>
-      </c>
-      <c r="O77" s="8" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="116.25" x14ac:dyDescent="0.35">
@@ -7294,22 +7294,22 @@
         <v>81</v>
       </c>
       <c r="B78" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="C78" s="9" t="s">
         <v>563</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>564</v>
       </c>
       <c r="D78" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E78" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="G78" s="10" t="s">
         <v>565</v>
-      </c>
-      <c r="F78" s="10" t="s">
-        <v>565</v>
-      </c>
-      <c r="G78" s="10" t="s">
-        <v>566</v>
       </c>
       <c r="H78" s="11">
         <v>14.72658348</v>
@@ -7318,22 +7318,22 @@
         <v>-17.452171969999998</v>
       </c>
       <c r="J78" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K78" s="12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="L78" s="10" t="s">
         <v>29</v>
       </c>
       <c r="M78" s="15" t="s">
+        <v>567</v>
+      </c>
+      <c r="N78" s="14" t="s">
         <v>568</v>
       </c>
-      <c r="N78" s="14" t="s">
+      <c r="O78" s="8" t="s">
         <v>569</v>
-      </c>
-      <c r="O78" s="8" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -7341,22 +7341,22 @@
         <v>82</v>
       </c>
       <c r="B79" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="C79" s="9" t="s">
         <v>571</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>572</v>
       </c>
       <c r="D79" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E79" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="G79" s="10" t="s">
         <v>573</v>
-      </c>
-      <c r="F79" s="10" t="s">
-        <v>573</v>
-      </c>
-      <c r="G79" s="10" t="s">
-        <v>574</v>
       </c>
       <c r="H79" s="11">
         <v>-26.202404720000001</v>
@@ -7365,22 +7365,22 @@
         <v>28.045585160000002</v>
       </c>
       <c r="J79" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K79" s="12" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L79" s="10" t="s">
         <v>40</v>
       </c>
       <c r="M79" s="15" t="s">
+        <v>575</v>
+      </c>
+      <c r="N79" s="14" t="s">
         <v>576</v>
       </c>
-      <c r="N79" s="14" t="s">
+      <c r="O79" s="8" t="s">
         <v>577</v>
-      </c>
-      <c r="O79" s="8" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -7388,22 +7388,22 @@
         <v>83</v>
       </c>
       <c r="B80" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="C80" s="9" t="s">
         <v>579</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>580</v>
       </c>
       <c r="D80" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E80" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="G80" s="10" t="s">
         <v>573</v>
-      </c>
-      <c r="F80" s="10" t="s">
-        <v>573</v>
-      </c>
-      <c r="G80" s="10" t="s">
-        <v>574</v>
       </c>
       <c r="H80" s="11">
         <v>-26.23313568</v>
@@ -7412,22 +7412,22 @@
         <v>28.056662670000001</v>
       </c>
       <c r="J80" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K80" s="12" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L80" s="10" t="s">
         <v>29</v>
       </c>
       <c r="M80" s="15" t="s">
+        <v>581</v>
+      </c>
+      <c r="N80" s="14" t="s">
         <v>582</v>
       </c>
-      <c r="N80" s="14" t="s">
-        <v>583</v>
-      </c>
       <c r="O80" s="8" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -7435,22 +7435,22 @@
         <v>84</v>
       </c>
       <c r="B81" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="C81" s="9" t="s">
         <v>584</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>585</v>
       </c>
       <c r="D81" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E81" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="F81" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="G81" s="21" t="s">
         <v>512</v>
-      </c>
-      <c r="F81" s="10" t="s">
-        <v>512</v>
-      </c>
-      <c r="G81" s="21" t="s">
-        <v>513</v>
       </c>
       <c r="H81" s="11">
         <v>59.3241272</v>
@@ -7459,22 +7459,22 @@
         <v>18.066300170000002</v>
       </c>
       <c r="J81" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K81" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="L81" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="M81" s="15" t="s">
         <v>586</v>
       </c>
-      <c r="L81" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="M81" s="15" t="s">
+      <c r="N81" s="14" t="s">
         <v>587</v>
       </c>
-      <c r="N81" s="14" t="s">
-        <v>588</v>
-      </c>
       <c r="O81" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="82" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -7482,22 +7482,22 @@
         <v>85</v>
       </c>
       <c r="B82" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="C82" s="9" t="s">
         <v>589</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>590</v>
       </c>
       <c r="D82" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H82" s="11">
         <v>46.937537429999999</v>
@@ -7506,22 +7506,22 @@
         <v>7.4764258640000003</v>
       </c>
       <c r="J82" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K82" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="L82" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="M82" s="15" t="s">
         <v>592</v>
       </c>
-      <c r="L82" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="M82" s="15" t="s">
+      <c r="N82" s="14" t="s">
         <v>593</v>
       </c>
-      <c r="N82" s="14" t="s">
-        <v>594</v>
-      </c>
       <c r="O82" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -7529,22 +7529,22 @@
         <v>86</v>
       </c>
       <c r="B83" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="C83" s="9" t="s">
         <v>595</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>596</v>
       </c>
       <c r="D83" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E83" s="10" t="s">
+        <v>596</v>
+      </c>
+      <c r="F83" s="10" t="s">
+        <v>596</v>
+      </c>
+      <c r="G83" s="10" t="s">
         <v>597</v>
-      </c>
-      <c r="F83" s="10" t="s">
-        <v>597</v>
-      </c>
-      <c r="G83" s="10" t="s">
-        <v>598</v>
       </c>
       <c r="H83" s="11">
         <v>52.114130699999997</v>
@@ -7553,22 +7553,22 @@
         <v>5.0658318859999998</v>
       </c>
       <c r="J83" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K83" s="12" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="L83" s="10" t="s">
         <v>29</v>
       </c>
       <c r="M83" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="N83" s="14" t="s">
         <v>600</v>
       </c>
-      <c r="N83" s="14" t="s">
+      <c r="O83" s="8" t="s">
         <v>601</v>
-      </c>
-      <c r="O83" s="8" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -7576,22 +7576,22 @@
         <v>87</v>
       </c>
       <c r="B84" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="C84" s="9" t="s">
         <v>603</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>604</v>
       </c>
       <c r="D84" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E84" s="10" t="s">
+        <v>604</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>604</v>
+      </c>
+      <c r="G84" s="10" t="s">
         <v>605</v>
-      </c>
-      <c r="F84" s="10" t="s">
-        <v>605</v>
-      </c>
-      <c r="G84" s="10" t="s">
-        <v>606</v>
       </c>
       <c r="H84" s="11">
         <v>10.285561400000001</v>
@@ -7603,19 +7603,19 @@
         <v>21</v>
       </c>
       <c r="K84" s="12" t="s">
+        <v>606</v>
+      </c>
+      <c r="L84" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="M84" s="15" t="s">
         <v>607</v>
       </c>
-      <c r="L84" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="M84" s="15" t="s">
+      <c r="N84" s="14" t="s">
         <v>608</v>
       </c>
-      <c r="N84" s="14" t="s">
+      <c r="O84" s="8" t="s">
         <v>609</v>
-      </c>
-      <c r="O84" s="8" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -7623,22 +7623,22 @@
         <v>88</v>
       </c>
       <c r="B85" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="C85" s="9" t="s">
         <v>611</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>612</v>
       </c>
       <c r="D85" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E85" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="G85" s="10" t="s">
         <v>613</v>
-      </c>
-      <c r="F85" s="10" t="s">
-        <v>613</v>
-      </c>
-      <c r="G85" s="10" t="s">
-        <v>614</v>
       </c>
       <c r="H85" s="11">
         <v>0.220148076</v>
@@ -7647,22 +7647,22 @@
         <v>32.545442270000002</v>
       </c>
       <c r="J85" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K85" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="L85" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="M85" s="13" t="s">
         <v>615</v>
       </c>
-      <c r="L85" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="M85" s="13" t="s">
+      <c r="N85" s="14" t="s">
         <v>616</v>
       </c>
-      <c r="N85" s="14" t="s">
+      <c r="O85" s="8" t="s">
         <v>617</v>
-      </c>
-      <c r="O85" s="8" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="34.9" x14ac:dyDescent="0.35">
@@ -7670,22 +7670,22 @@
         <v>89</v>
       </c>
       <c r="B86" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="C86" s="9" t="s">
         <v>619</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>620</v>
       </c>
       <c r="D86" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F86" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="G86" s="10" t="s">
         <v>621</v>
-      </c>
-      <c r="G86" s="10" t="s">
-        <v>622</v>
       </c>
       <c r="H86" s="11">
         <v>0.44811600000000001</v>
@@ -7694,7 +7694,7 @@
         <v>33.204808</v>
       </c>
       <c r="J86" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K86" s="39"/>
       <c r="L86" s="10" t="s">
@@ -7702,10 +7702,10 @@
       </c>
       <c r="M86" s="10"/>
       <c r="N86" s="14" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="O86" s="8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -7713,22 +7713,22 @@
         <v>90</v>
       </c>
       <c r="B87" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="C87" s="9" t="s">
         <v>624</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>625</v>
       </c>
       <c r="D87" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H87" s="11">
         <v>51.412633960000001</v>
@@ -7737,22 +7737,22 @@
         <v>-0.28621947599999997</v>
       </c>
       <c r="J87" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K87" s="12" t="s">
+        <v>626</v>
+      </c>
+      <c r="L87" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M87" s="15" t="s">
         <v>627</v>
       </c>
-      <c r="L87" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="M87" s="15" t="s">
+      <c r="N87" s="14" t="s">
         <v>628</v>
       </c>
-      <c r="N87" s="14" t="s">
-        <v>629</v>
-      </c>
       <c r="O87" s="8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -7760,22 +7760,22 @@
         <v>91</v>
       </c>
       <c r="B88" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="C88" s="9" t="s">
         <v>630</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>631</v>
       </c>
       <c r="D88" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E88" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="G88" s="10" t="s">
         <v>344</v>
-      </c>
-      <c r="F88" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="G88" s="10" t="s">
-        <v>345</v>
       </c>
       <c r="H88" s="11">
         <v>51.467132919999997</v>
@@ -7784,22 +7784,22 @@
         <v>-0.16955398899999999</v>
       </c>
       <c r="J88" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K88" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="L88" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M88" s="15" t="s">
         <v>632</v>
       </c>
-      <c r="L88" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="M88" s="15" t="s">
+      <c r="N88" s="14" t="s">
         <v>633</v>
       </c>
-      <c r="N88" s="14" t="s">
-        <v>634</v>
-      </c>
       <c r="O88" s="8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -7807,22 +7807,22 @@
         <v>92</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D89" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E89" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="F89" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="G89" s="10" t="s">
         <v>344</v>
-      </c>
-      <c r="F89" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="G89" s="10" t="s">
-        <v>345</v>
       </c>
       <c r="H89" s="11">
         <v>51.530137699999997</v>
@@ -7831,22 +7831,22 @@
         <v>-0.12387535299999999</v>
       </c>
       <c r="J89" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K89" s="12" t="s">
+        <v>635</v>
+      </c>
+      <c r="L89" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M89" s="13" t="s">
         <v>636</v>
       </c>
-      <c r="L89" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="M89" s="13" t="s">
+      <c r="N89" s="14" t="s">
         <v>637</v>
       </c>
-      <c r="N89" s="14" t="s">
-        <v>638</v>
-      </c>
       <c r="O89" s="8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -7854,22 +7854,22 @@
         <v>93</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D90" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E90" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="F90" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="G90" s="10" t="s">
         <v>344</v>
-      </c>
-      <c r="F90" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="G90" s="10" t="s">
-        <v>345</v>
       </c>
       <c r="H90" s="11">
         <v>51.514874200000001</v>
@@ -7878,22 +7878,22 @@
         <v>4.0656694E-2</v>
       </c>
       <c r="J90" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K90" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="L90" s="10" t="s">
         <v>40</v>
       </c>
       <c r="M90" s="13" t="s">
+        <v>640</v>
+      </c>
+      <c r="N90" s="14" t="s">
         <v>641</v>
       </c>
-      <c r="N90" s="14" t="s">
-        <v>642</v>
-      </c>
       <c r="O90" s="8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="91" spans="1:15" ht="93" x14ac:dyDescent="0.35">
@@ -7901,22 +7901,22 @@
         <v>94</v>
       </c>
       <c r="B91" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="C91" s="9" t="s">
         <v>643</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>644</v>
       </c>
       <c r="D91" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F91" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="G91" s="10" t="s">
         <v>344</v>
-      </c>
-      <c r="G91" s="10" t="s">
-        <v>345</v>
       </c>
       <c r="H91" s="11">
         <v>51.55713669</v>
@@ -7925,22 +7925,22 @@
         <v>-3.7843716999999999E-2</v>
       </c>
       <c r="J91" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K91" s="12" t="s">
+        <v>645</v>
+      </c>
+      <c r="L91" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="M91" s="15" t="s">
         <v>646</v>
       </c>
-      <c r="L91" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="M91" s="15" t="s">
+      <c r="N91" s="14" t="s">
         <v>647</v>
       </c>
-      <c r="N91" s="14" t="s">
-        <v>648</v>
-      </c>
       <c r="O91" s="8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="104.65" x14ac:dyDescent="0.35">
@@ -7948,22 +7948,22 @@
         <v>95</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>72</v>
       </c>
       <c r="E92" s="10" t="s">
+        <v>649</v>
+      </c>
+      <c r="F92" s="10" t="s">
         <v>650</v>
       </c>
-      <c r="F92" s="10" t="s">
+      <c r="G92" s="10" t="s">
         <v>651</v>
-      </c>
-      <c r="G92" s="10" t="s">
-        <v>652</v>
       </c>
       <c r="H92" s="11">
         <v>41.760447820000003</v>
@@ -7972,22 +7972,22 @@
         <v>-72.646517119999999</v>
       </c>
       <c r="J92" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K92" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="L92" s="10" t="s">
         <v>76</v>
       </c>
       <c r="M92" s="13" t="s">
+        <v>653</v>
+      </c>
+      <c r="N92" s="14" t="s">
         <v>654</v>
       </c>
-      <c r="N92" s="14" t="s">
+      <c r="O92" s="8" t="s">
         <v>655</v>
-      </c>
-      <c r="O92" s="8" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="101.65" x14ac:dyDescent="0.35">
@@ -7995,22 +7995,22 @@
         <v>96</v>
       </c>
       <c r="B93" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="C93" s="9" t="s">
         <v>657</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>658</v>
       </c>
       <c r="D93" s="10" t="s">
         <v>72</v>
       </c>
       <c r="E93" s="10" t="s">
+        <v>658</v>
+      </c>
+      <c r="F93" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="G93" s="10" t="s">
         <v>659</v>
-      </c>
-      <c r="F93" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="G93" s="10" t="s">
-        <v>660</v>
       </c>
       <c r="H93" s="11">
         <v>40.50172688</v>
@@ -8019,22 +8019,22 @@
         <v>-74.447216699999998</v>
       </c>
       <c r="J93" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K93" s="12" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="L93" s="10" t="s">
         <v>83</v>
       </c>
       <c r="M93" s="13" t="s">
+        <v>661</v>
+      </c>
+      <c r="N93" s="33" t="s">
         <v>662</v>
       </c>
-      <c r="N93" s="33" t="s">
-        <v>663</v>
-      </c>
       <c r="O93" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="101.65" x14ac:dyDescent="0.35">
@@ -8042,22 +8042,22 @@
         <v>97</v>
       </c>
       <c r="B94" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="C94" s="9" t="s">
         <v>664</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>665</v>
       </c>
       <c r="D94" s="10" t="s">
         <v>72</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H94" s="11">
         <v>37.73193569</v>
@@ -8066,22 +8066,22 @@
         <v>-122.205586</v>
       </c>
       <c r="J94" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K94" s="12" t="s">
+        <v>666</v>
+      </c>
+      <c r="L94" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M94" s="13" t="s">
         <v>667</v>
       </c>
-      <c r="L94" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="M94" s="13" t="s">
+      <c r="N94" s="40" t="s">
         <v>668</v>
       </c>
-      <c r="N94" s="40" t="s">
-        <v>669</v>
-      </c>
       <c r="O94" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -8089,22 +8089,22 @@
         <v>98</v>
       </c>
       <c r="B95" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="C95" s="9" t="s">
         <v>670</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>671</v>
       </c>
       <c r="D95" s="10" t="s">
         <v>72</v>
       </c>
       <c r="E95" s="10" t="s">
+        <v>671</v>
+      </c>
+      <c r="F95" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="G95" s="10" t="s">
         <v>672</v>
-      </c>
-      <c r="F95" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="G95" s="10" t="s">
-        <v>673</v>
       </c>
       <c r="H95" s="11">
         <v>41.807014619999997</v>
@@ -8113,22 +8113,22 @@
         <v>-72.251484649999995</v>
       </c>
       <c r="J95" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K95" s="12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="L95" s="10" t="s">
         <v>83</v>
       </c>
       <c r="M95" s="13" t="s">
+        <v>674</v>
+      </c>
+      <c r="N95" s="14" t="s">
         <v>675</v>
       </c>
-      <c r="N95" s="14" t="s">
-        <v>676</v>
-      </c>
       <c r="O95" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="101.65" x14ac:dyDescent="0.35">
@@ -8136,22 +8136,22 @@
         <v>99</v>
       </c>
       <c r="B96" s="9" t="s">
+        <v>676</v>
+      </c>
+      <c r="C96" s="9" t="s">
         <v>677</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>678</v>
       </c>
       <c r="D96" s="10" t="s">
         <v>72</v>
       </c>
       <c r="E96" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="F96" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="G96" s="10" t="s">
         <v>679</v>
-      </c>
-      <c r="F96" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="G96" s="10" t="s">
-        <v>680</v>
       </c>
       <c r="H96" s="11">
         <v>40.739022069999997</v>
@@ -8160,22 +8160,22 @@
         <v>-73.990546179999996</v>
       </c>
       <c r="J96" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K96" s="12" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L96" s="10" t="s">
         <v>83</v>
       </c>
       <c r="M96" s="13" t="s">
+        <v>681</v>
+      </c>
+      <c r="N96" s="14" t="s">
         <v>682</v>
       </c>
-      <c r="N96" s="14" t="s">
-        <v>683</v>
-      </c>
       <c r="O96" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="97" spans="1:15" ht="101.65" x14ac:dyDescent="0.35">
@@ -8183,22 +8183,22 @@
         <v>100</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D97" s="10" t="s">
         <v>72</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H97" s="11">
         <v>34.049219260000001</v>
@@ -8207,22 +8207,22 @@
         <v>-118.2319865</v>
       </c>
       <c r="J97" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K97" s="12" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L97" s="10" t="s">
         <v>67</v>
       </c>
       <c r="M97" s="13" t="s">
+        <v>686</v>
+      </c>
+      <c r="N97" s="14" t="s">
         <v>687</v>
       </c>
-      <c r="N97" s="14" t="s">
-        <v>688</v>
-      </c>
       <c r="O97" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -8230,22 +8230,22 @@
         <v>101</v>
       </c>
       <c r="B98" s="9" t="s">
+        <v>688</v>
+      </c>
+      <c r="C98" s="9" t="s">
         <v>689</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>690</v>
       </c>
       <c r="D98" s="10" t="s">
         <v>72</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G98" s="10" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H98" s="11">
         <v>40.734231219999998</v>
@@ -8254,22 +8254,22 @@
         <v>-73.803463179999994</v>
       </c>
       <c r="J98" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K98" s="12" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="L98" s="10" t="s">
         <v>67</v>
       </c>
       <c r="M98" s="15" t="s">
+        <v>692</v>
+      </c>
+      <c r="N98" s="14" t="s">
         <v>693</v>
       </c>
-      <c r="N98" s="14" t="s">
-        <v>694</v>
-      </c>
       <c r="O98" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="99" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -8277,22 +8277,22 @@
         <v>102</v>
       </c>
       <c r="B99" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="C99" s="9" t="s">
         <v>695</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>696</v>
       </c>
       <c r="D99" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H99" s="11">
         <v>38.907703990000002</v>
@@ -8301,22 +8301,22 @@
         <v>-77.035786959999996</v>
       </c>
       <c r="J99" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K99" s="12" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="L99" s="10" t="s">
         <v>83</v>
       </c>
       <c r="M99" s="15" t="s">
+        <v>698</v>
+      </c>
+      <c r="N99" s="14" t="s">
         <v>699</v>
       </c>
-      <c r="N99" s="14" t="s">
-        <v>700</v>
-      </c>
       <c r="O99" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="100" spans="1:15" ht="101.65" x14ac:dyDescent="0.35">
@@ -8324,22 +8324,22 @@
         <v>103</v>
       </c>
       <c r="B100" s="9" t="s">
+        <v>700</v>
+      </c>
+      <c r="C100" s="9" t="s">
         <v>701</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>702</v>
       </c>
       <c r="D100" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E100" s="10" t="s">
+        <v>702</v>
+      </c>
+      <c r="F100" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="G100" s="10" t="s">
         <v>703</v>
-      </c>
-      <c r="F100" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="G100" s="10" t="s">
-        <v>704</v>
       </c>
       <c r="H100" s="11">
         <v>42.357227940000001</v>
@@ -8348,22 +8348,22 @@
         <v>-71.058808670000005</v>
       </c>
       <c r="J100" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K100" s="12" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="L100" s="10" t="s">
         <v>23</v>
       </c>
       <c r="M100" s="18" t="s">
+        <v>705</v>
+      </c>
+      <c r="N100" s="14" t="s">
         <v>706</v>
       </c>
-      <c r="N100" s="14" t="s">
-        <v>707</v>
-      </c>
       <c r="O100" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="101" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -8371,22 +8371,22 @@
         <v>104</v>
       </c>
       <c r="B101" s="9" t="s">
+        <v>707</v>
+      </c>
+      <c r="C101" s="9" t="s">
         <v>708</v>
-      </c>
-      <c r="C101" s="9" t="s">
-        <v>709</v>
       </c>
       <c r="D101" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H101" s="11">
         <v>37.829565670000001</v>
@@ -8395,22 +8395,22 @@
         <v>-122.2825812</v>
       </c>
       <c r="J101" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K101" s="12" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="L101" s="10" t="s">
         <v>76</v>
       </c>
       <c r="M101" s="15" t="s">
+        <v>710</v>
+      </c>
+      <c r="N101" s="41" t="s">
         <v>711</v>
       </c>
-      <c r="N101" s="41" t="s">
-        <v>712</v>
-      </c>
       <c r="O101" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -8418,22 +8418,22 @@
         <v>105</v>
       </c>
       <c r="B102" s="9" t="s">
+        <v>712</v>
+      </c>
+      <c r="C102" s="9" t="s">
         <v>713</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>714</v>
       </c>
       <c r="D102" s="10" t="s">
         <v>72</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G102" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H102" s="11">
         <v>40.683403200000001</v>
@@ -8442,22 +8442,22 @@
         <v>-73.977086560000004</v>
       </c>
       <c r="J102" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K102" s="12" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="L102" s="10" t="s">
         <v>76</v>
       </c>
       <c r="M102" s="13" t="s">
+        <v>716</v>
+      </c>
+      <c r="N102" s="14" t="s">
         <v>717</v>
       </c>
-      <c r="N102" s="14" t="s">
-        <v>718</v>
-      </c>
       <c r="O102" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="101.65" x14ac:dyDescent="0.35">
@@ -8465,22 +8465,22 @@
         <v>106</v>
       </c>
       <c r="B103" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="C103" s="9" t="s">
         <v>719</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>720</v>
       </c>
       <c r="D103" s="10" t="s">
         <v>72</v>
       </c>
       <c r="E103" s="10" t="s">
+        <v>720</v>
+      </c>
+      <c r="F103" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="G103" s="10" t="s">
         <v>721</v>
-      </c>
-      <c r="F103" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="G103" s="10" t="s">
-        <v>722</v>
       </c>
       <c r="H103" s="11">
         <v>39.945942440000003</v>
@@ -8489,22 +8489,22 @@
         <v>-75.179841240000002</v>
       </c>
       <c r="J103" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K103" s="20" t="s">
+        <v>722</v>
+      </c>
+      <c r="L103" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="M103" s="13" t="s">
         <v>723</v>
       </c>
-      <c r="L103" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="M103" s="13" t="s">
+      <c r="N103" s="14" t="s">
         <v>724</v>
       </c>
-      <c r="N103" s="14" t="s">
-        <v>725</v>
-      </c>
       <c r="O103" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="104" spans="1:15" ht="101.65" x14ac:dyDescent="0.35">
@@ -8512,22 +8512,22 @@
         <v>107</v>
       </c>
       <c r="B104" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="C104" s="9" t="s">
         <v>726</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>727</v>
       </c>
       <c r="D104" s="10" t="s">
         <v>72</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G104" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H104" s="11">
         <v>40.76381052</v>
@@ -8536,22 +8536,22 @@
         <v>-73.975035950000006</v>
       </c>
       <c r="J104" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K104" s="12" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="L104" s="10" t="s">
         <v>83</v>
       </c>
       <c r="M104" s="13" t="s">
+        <v>728</v>
+      </c>
+      <c r="N104" s="14" t="s">
         <v>729</v>
       </c>
-      <c r="N104" s="14" t="s">
-        <v>730</v>
-      </c>
       <c r="O104" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="105" spans="1:15" ht="101.65" x14ac:dyDescent="0.35">
@@ -8559,22 +8559,22 @@
         <v>108</v>
       </c>
       <c r="B105" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="C105" s="9" t="s">
         <v>731</v>
-      </c>
-      <c r="C105" s="9" t="s">
-        <v>732</v>
       </c>
       <c r="D105" s="10" t="s">
         <v>72</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G105" s="10" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H105" s="11">
         <v>37.80472503</v>
@@ -8583,22 +8583,22 @@
         <v>-122.2780382</v>
       </c>
       <c r="J105" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K105" s="12" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="L105" s="10" t="s">
         <v>23</v>
       </c>
       <c r="M105" s="13" t="s">
+        <v>734</v>
+      </c>
+      <c r="N105" s="14" t="s">
         <v>735</v>
       </c>
-      <c r="N105" s="14" t="s">
-        <v>736</v>
-      </c>
       <c r="O105" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="106" spans="1:15" ht="81.400000000000006" x14ac:dyDescent="0.35">
@@ -8606,22 +8606,22 @@
         <v>109</v>
       </c>
       <c r="B106" s="9" t="s">
+        <v>736</v>
+      </c>
+      <c r="C106" s="9" t="s">
         <v>737</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>738</v>
       </c>
       <c r="D106" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G106" s="10" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H106" s="11">
         <v>40.4319445</v>
@@ -8630,22 +8630,22 @@
         <v>-80.001931299999995</v>
       </c>
       <c r="J106" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K106" s="12" t="s">
+        <v>739</v>
+      </c>
+      <c r="L106" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="M106" s="13" t="s">
         <v>740</v>
       </c>
-      <c r="L106" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="M106" s="13" t="s">
+      <c r="N106" s="14" t="s">
         <v>741</v>
       </c>
-      <c r="N106" s="14" t="s">
-        <v>742</v>
-      </c>
       <c r="O106" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="107" spans="1:15" ht="101.65" x14ac:dyDescent="0.35">
@@ -8653,22 +8653,22 @@
         <v>110</v>
       </c>
       <c r="B107" s="9" t="s">
+        <v>742</v>
+      </c>
+      <c r="C107" s="9" t="s">
         <v>743</v>
-      </c>
-      <c r="C107" s="9" t="s">
-        <v>744</v>
       </c>
       <c r="D107" s="10" t="s">
         <v>72</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H107" s="11">
         <v>42.331905999999996</v>
@@ -8677,22 +8677,22 @@
         <v>-71.071959500000006</v>
       </c>
       <c r="J107" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K107" s="12" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="L107" s="10" t="s">
         <v>23</v>
       </c>
       <c r="M107" s="13" t="s">
+        <v>746</v>
+      </c>
+      <c r="N107" s="14" t="s">
         <v>747</v>
       </c>
-      <c r="N107" s="14" t="s">
-        <v>748</v>
-      </c>
       <c r="O107" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="108" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -8700,22 +8700,22 @@
         <v>111</v>
       </c>
       <c r="B108" s="9" t="s">
+        <v>748</v>
+      </c>
+      <c r="C108" s="9" t="s">
         <v>749</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>750</v>
       </c>
       <c r="D108" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H108" s="11">
         <v>38.901495199999999</v>
@@ -8724,22 +8724,22 @@
         <v>-77.011364400000005</v>
       </c>
       <c r="J108" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K108" s="12" t="s">
+        <v>751</v>
+      </c>
+      <c r="L108" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="M108" s="15" t="s">
         <v>752</v>
       </c>
-      <c r="L108" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="M108" s="15" t="s">
+      <c r="N108" s="14" t="s">
         <v>753</v>
       </c>
-      <c r="N108" s="14" t="s">
-        <v>754</v>
-      </c>
       <c r="O108" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="109" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -8747,22 +8747,22 @@
         <v>112</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D109" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H109" s="11">
         <v>40.721561749999999</v>
@@ -8771,22 +8771,22 @@
         <v>-73.995717540000001</v>
       </c>
       <c r="J109" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K109" s="12" t="s">
+        <v>755</v>
+      </c>
+      <c r="L109" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="M109" s="15" t="s">
         <v>756</v>
       </c>
-      <c r="L109" s="10" t="s">
-        <v>490</v>
-      </c>
-      <c r="M109" s="15" t="s">
+      <c r="N109" s="14" t="s">
         <v>757</v>
       </c>
-      <c r="N109" s="14" t="s">
-        <v>758</v>
-      </c>
       <c r="O109" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="110" spans="1:15" ht="61.15" x14ac:dyDescent="0.35">
@@ -8794,10 +8794,10 @@
         <v>113</v>
       </c>
       <c r="B110" s="9" t="s">
+        <v>758</v>
+      </c>
+      <c r="C110" s="9" t="s">
         <v>759</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>760</v>
       </c>
       <c r="D110" s="10" t="s">
         <v>38</v>
@@ -8821,16 +8821,16 @@
         <v>21</v>
       </c>
       <c r="K110" s="12" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="L110" s="10" t="s">
         <v>67</v>
       </c>
       <c r="M110" s="15" t="s">
+        <v>761</v>
+      </c>
+      <c r="N110" s="14" t="s">
         <v>762</v>
-      </c>
-      <c r="N110" s="14" t="s">
-        <v>763</v>
       </c>
       <c r="O110" s="8" t="s">
         <v>26</v>
@@ -8841,22 +8841,22 @@
         <v>114</v>
       </c>
       <c r="B111" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="C111" s="9" t="s">
         <v>764</v>
-      </c>
-      <c r="C111" s="9" t="s">
-        <v>765</v>
       </c>
       <c r="D111" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E111" s="10" t="s">
+        <v>765</v>
+      </c>
+      <c r="F111" s="10" t="s">
         <v>766</v>
       </c>
-      <c r="F111" s="10" t="s">
+      <c r="G111" s="10" t="s">
         <v>767</v>
-      </c>
-      <c r="G111" s="10" t="s">
-        <v>768</v>
       </c>
       <c r="H111" s="11">
         <v>36.801718649999998</v>
@@ -8865,22 +8865,22 @@
         <v>10.178635249999999</v>
       </c>
       <c r="J111" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K111" s="20" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="L111" s="10" t="s">
         <v>67</v>
       </c>
       <c r="M111" s="18" t="s">
+        <v>769</v>
+      </c>
+      <c r="N111" s="14" t="s">
         <v>770</v>
       </c>
-      <c r="N111" s="14" t="s">
+      <c r="O111" s="8" t="s">
         <v>771</v>
-      </c>
-      <c r="O111" s="8" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="112" spans="1:15" ht="81.400000000000006" x14ac:dyDescent="0.35">
@@ -8888,22 +8888,22 @@
         <v>115</v>
       </c>
       <c r="B112" s="22" t="s">
+        <v>772</v>
+      </c>
+      <c r="C112" s="9" t="s">
         <v>773</v>
-      </c>
-      <c r="C112" s="9" t="s">
-        <v>774</v>
       </c>
       <c r="D112" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G112" s="10" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H112" s="11">
         <v>48.854422649999997</v>
@@ -8912,22 +8912,22 @@
         <v>2.4157218029999998</v>
       </c>
       <c r="J112" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K112" s="23" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="L112" s="10" t="s">
         <v>51</v>
       </c>
       <c r="M112" s="13" t="s">
+        <v>776</v>
+      </c>
+      <c r="N112" s="14" t="s">
         <v>777</v>
       </c>
-      <c r="N112" s="14" t="s">
-        <v>778</v>
-      </c>
       <c r="O112" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="113" spans="1:15" ht="71.25" x14ac:dyDescent="0.35">
@@ -8935,22 +8935,22 @@
         <v>116</v>
       </c>
       <c r="B113" s="9" t="s">
+        <v>778</v>
+      </c>
+      <c r="C113" s="9" t="s">
         <v>779</v>
-      </c>
-      <c r="C113" s="9" t="s">
-        <v>780</v>
       </c>
       <c r="D113" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G113" s="10" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H113" s="11">
         <v>14.57197246</v>
@@ -8962,19 +8962,19 @@
         <v>58</v>
       </c>
       <c r="K113" s="12" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="L113" s="10" t="s">
         <v>29</v>
       </c>
       <c r="M113" s="13" t="s">
+        <v>782</v>
+      </c>
+      <c r="N113" s="14" t="s">
         <v>783</v>
       </c>
-      <c r="N113" s="14" t="s">
-        <v>784</v>
-      </c>
       <c r="O113" s="8" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="114" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -8982,22 +8982,22 @@
         <v>117</v>
       </c>
       <c r="B114" s="42" t="s">
+        <v>784</v>
+      </c>
+      <c r="C114" s="8" t="s">
         <v>785</v>
-      </c>
-      <c r="C114" s="8" t="s">
-        <v>786</v>
       </c>
       <c r="D114" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E114" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="F114" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="G114" s="10" t="s">
         <v>274</v>
-      </c>
-      <c r="F114" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="G114" s="10" t="s">
-        <v>275</v>
       </c>
       <c r="H114" s="11">
         <v>4.6253558789999998</v>
@@ -9009,19 +9009,19 @@
         <v>21</v>
       </c>
       <c r="K114" s="43" t="s">
+        <v>786</v>
+      </c>
+      <c r="L114" s="10" t="s">
         <v>787</v>
       </c>
-      <c r="L114" s="10" t="s">
+      <c r="M114" s="13" t="s">
         <v>788</v>
       </c>
-      <c r="M114" s="13" t="s">
+      <c r="N114" s="14" t="s">
         <v>789</v>
       </c>
-      <c r="N114" s="14" t="s">
-        <v>790</v>
-      </c>
       <c r="O114" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="115" spans="1:15" ht="93" x14ac:dyDescent="0.35">
@@ -9029,22 +9029,22 @@
         <v>118</v>
       </c>
       <c r="B115" s="42" t="s">
+        <v>790</v>
+      </c>
+      <c r="C115" s="8" t="s">
         <v>791</v>
-      </c>
-      <c r="C115" s="8" t="s">
-        <v>792</v>
       </c>
       <c r="D115" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E115" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="F115" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="G115" s="10" t="s">
         <v>274</v>
-      </c>
-      <c r="F115" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="G115" s="10" t="s">
-        <v>275</v>
       </c>
       <c r="H115" s="11">
         <v>4.6858719999999998</v>
@@ -9056,19 +9056,19 @@
         <v>21</v>
       </c>
       <c r="K115" s="44" t="s">
+        <v>792</v>
+      </c>
+      <c r="L115" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M115" s="13" t="s">
         <v>793</v>
       </c>
-      <c r="L115" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="M115" s="13" t="s">
+      <c r="N115" s="14" t="s">
         <v>794</v>
       </c>
-      <c r="N115" s="14" t="s">
-        <v>795</v>
-      </c>
       <c r="O115" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="116" spans="1:15" ht="71.25" x14ac:dyDescent="0.35">
@@ -9076,22 +9076,22 @@
         <v>120</v>
       </c>
       <c r="B116" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="C116" s="9" t="s">
         <v>796</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>797</v>
       </c>
       <c r="D116" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F116" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G116" s="10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H116" s="45">
         <v>27.7316459557623</v>
@@ -9103,19 +9103,19 @@
         <v>58</v>
       </c>
       <c r="K116" s="12" t="s">
+        <v>797</v>
+      </c>
+      <c r="L116" s="10" t="s">
         <v>798</v>
       </c>
-      <c r="L116" s="10" t="s">
+      <c r="M116" s="13" t="s">
         <v>799</v>
       </c>
-      <c r="M116" s="13" t="s">
+      <c r="N116" s="14" t="s">
         <v>800</v>
       </c>
-      <c r="N116" s="14" t="s">
-        <v>801</v>
-      </c>
       <c r="O116" s="45" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="117" spans="1:15" ht="101.65" x14ac:dyDescent="0.35">
@@ -9123,22 +9123,22 @@
         <v>121</v>
       </c>
       <c r="B117" s="9" t="s">
+        <v>801</v>
+      </c>
+      <c r="C117" s="9" t="s">
         <v>802</v>
       </c>
-      <c r="C117" s="9" t="s">
+      <c r="D117" s="10" t="s">
         <v>803</v>
       </c>
-      <c r="D117" s="10" t="s">
-        <v>87</v>
-      </c>
       <c r="E117" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F117" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="G117" s="10" t="s">
         <v>262</v>
-      </c>
-      <c r="G117" s="10" t="s">
-        <v>263</v>
       </c>
       <c r="H117" s="45">
         <v>-33.514003000000002</v>
@@ -9153,7 +9153,7 @@
         <v>804</v>
       </c>
       <c r="L117" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M117" s="13" t="s">
         <v>805</v>
@@ -9162,7 +9162,7 @@
         <v>806</v>
       </c>
       <c r="O117" s="45" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="118" spans="1:15" ht="101.65" x14ac:dyDescent="0.35">
@@ -9179,13 +9179,13 @@
         <v>38</v>
       </c>
       <c r="E118" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="F118" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="G118" s="10" t="s">
         <v>274</v>
-      </c>
-      <c r="F118" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="G118" s="10" t="s">
-        <v>275</v>
       </c>
       <c r="H118" s="45">
         <v>4.7363860000000004</v>
@@ -9200,7 +9200,7 @@
         <v>809</v>
       </c>
       <c r="L118" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M118" s="13" t="s">
         <v>810</v>
@@ -9209,7 +9209,7 @@
         <v>811</v>
       </c>
       <c r="O118" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="119" spans="1:15" ht="104.65" x14ac:dyDescent="0.35">
@@ -9226,10 +9226,10 @@
         <v>38</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F119" s="10" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G119" s="10" t="s">
         <v>814</v>
@@ -9256,7 +9256,7 @@
         <v>817</v>
       </c>
       <c r="O119" s="45" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="120" spans="1:15" ht="81.400000000000006" x14ac:dyDescent="0.35">
@@ -9273,10 +9273,10 @@
         <v>38</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F120" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G120" s="10" t="s">
         <v>820</v>
@@ -9294,7 +9294,7 @@
         <v>821</v>
       </c>
       <c r="L120" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M120" s="13" t="s">
         <v>822</v>
@@ -9303,7 +9303,7 @@
         <v>823</v>
       </c>
       <c r="O120" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="121" spans="1:15" ht="81.400000000000006" x14ac:dyDescent="0.35">
@@ -9320,10 +9320,10 @@
         <v>38</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F121" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G121" s="10" t="s">
         <v>826</v>
@@ -9335,7 +9335,7 @@
         <v>11.499803</v>
       </c>
       <c r="J121" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K121" s="12" t="s">
         <v>827</v>
@@ -9350,7 +9350,7 @@
         <v>829</v>
       </c>
       <c r="O121" s="45" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="122" spans="1:15" ht="71.650000000000006" x14ac:dyDescent="0.4">
@@ -9504,13 +9504,13 @@
         <v>38</v>
       </c>
       <c r="E125" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F125" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G125" s="10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H125" s="45">
         <v>27.705015</v>
@@ -9525,7 +9525,7 @@
         <v>852</v>
       </c>
       <c r="L125" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M125" s="13" t="s">
         <v>853</v>
@@ -9534,7 +9534,7 @@
         <v>854</v>
       </c>
       <c r="O125" s="45" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="126" spans="1:15" ht="111.75" x14ac:dyDescent="0.35">
@@ -9572,7 +9572,7 @@
         <v>858</v>
       </c>
       <c r="L126" s="10" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="M126" s="13" t="s">
         <v>859</v>
@@ -9598,13 +9598,13 @@
         <v>29</v>
       </c>
       <c r="E127" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="F127" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="G127" s="10" t="s">
         <v>536</v>
-      </c>
-      <c r="F127" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="G127" s="10" t="s">
-        <v>537</v>
       </c>
       <c r="H127" s="45">
         <v>14.628663</v>
@@ -9619,7 +9619,7 @@
         <v>863</v>
       </c>
       <c r="L127" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M127" s="13" t="s">
         <v>864</v>
@@ -9628,7 +9628,7 @@
         <v>865</v>
       </c>
       <c r="O127" s="45" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="128" spans="1:15" ht="71.25" x14ac:dyDescent="0.35">
@@ -9660,7 +9660,7 @@
         <v>-4.0230949999999996</v>
       </c>
       <c r="J128" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K128" s="12" t="s">
         <v>870</v>
@@ -9692,13 +9692,13 @@
         <v>38</v>
       </c>
       <c r="E129" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="F129" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="G129" s="10" t="s">
         <v>495</v>
-      </c>
-      <c r="F129" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="G129" s="10" t="s">
-        <v>496</v>
       </c>
       <c r="H129" s="45">
         <v>13.57724</v>
@@ -9707,7 +9707,7 @@
         <v>2.0857209999999999</v>
       </c>
       <c r="J129" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K129" s="12" t="s">
         <v>876</v>
@@ -9722,7 +9722,7 @@
         <v>878</v>
       </c>
       <c r="O129" s="45" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="130" spans="1:15" ht="12.75" x14ac:dyDescent="0.35">
@@ -21630,14 +21630,14 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J2:J110" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Select below,Africa,Asia and the Pacific,Europe,Latin America and the Caribbean,North America,Global"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J111:J129" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D111:D129" xr:uid="{00000000-0002-0000-0000-000001000000}">
+      <formula1>"Local Union,National Union,National Centre,Regional Body,Global Union Federation,Participating Ally"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J111:J129" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Africa,Asia and the Pacific,Europe,Latin America and the Caribbean,North America,Global"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L45 L49 L68 L71 L81 L85 L91 L103 L108:L109 L111:L129" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L45 L49 L68 L71 L81 L85 L91 L103 L108:L109 L111:L129" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"Diverse,Education,Energy - Electricity,Energy - Hydrocarbon,Energy - Mining,Energy - Other,Agriculture / Food Service,Health,Industry / Manufacturing,National Centre,Professionals,Private Sector,Public Services,Retail,Transport,Other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D111:D129" xr:uid="{00000000-0002-0000-0000-000003000000}">
-      <formula1>"Local Union ,National Union,National Centre,Regional Body,Global Union Federation,Participating Ally"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D82 D84:D110" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"Select below,Local Union,National Union,National Centre,Regional Body,Global Union Federation"</formula1>
@@ -34260,16 +34260,16 @@
         <v>890</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>87</v>
+        <v>803</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H3" s="45">
         <v>4.5983694000000002</v>
@@ -34282,7 +34282,7 @@
       </c>
       <c r="K3" s="39"/>
       <c r="L3" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M3" s="10"/>
       <c r="N3" s="14"/>
@@ -34305,13 +34305,13 @@
         <v>38</v>
       </c>
       <c r="E4" s="55" t="s">
+        <v>519</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>519</v>
+      </c>
+      <c r="G4" s="55" t="s">
         <v>520</v>
-      </c>
-      <c r="F4" s="55" t="s">
-        <v>520</v>
-      </c>
-      <c r="G4" s="55" t="s">
-        <v>521</v>
       </c>
       <c r="H4" s="11">
         <v>59.915412789999998</v>
@@ -34320,7 +34320,7 @@
         <v>10.749781779999999</v>
       </c>
       <c r="J4" s="55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K4" s="56" t="s">
         <v>894</v>
@@ -34335,7 +34335,7 @@
         <v>896</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>

--- a/TUEDweb/ALL_TUED_UNIONS.xlsx
+++ b/TUEDweb/ALL_TUED_UNIONS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\André\TUED\webmap\andreldeod.github.io\TUEDweb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9C7CC0-C2DB-460F-A961-E55BACE82E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF80589-1E56-4C82-96F4-DB595B585EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31890" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Participating_Unions" sheetId="1" r:id="rId1"/>
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="897">
   <si>
     <t>id</t>
   </si>
@@ -2725,268 +2725,268 @@
     <t xml:space="preserve"> FESIMETRO</t>
   </si>
   <si>
+    <t>https://cdn.prod.website-files.com/63276dc4e6b803208bf159df/679e756a067eee6384aa3b23_FESIMETRO-color1%20-%20Elias%20gutierrez%20hidalgo.jpg</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/fesimetro/</t>
+  </si>
+  <si>
+    <t>A labor union organization created in 2007 representing metro workers in Santiago, Chile. Currently composed of six unions: three subcontracted and three in-house.</t>
+  </si>
+  <si>
+    <t>Sindicato Nacional de Trabajadores de Rama, Servicios de la Industria del Transporte y Logistica de Colombia</t>
+  </si>
+  <si>
+    <t>SNTT</t>
+  </si>
+  <si>
+    <t>https://cdn.prod.website-files.com/63276dc4e6b803208bf159df/679e787af792165ef6d1b6e1_441883496_996457432481801_2121499076178652052_n.jpg</t>
+  </si>
+  <si>
+    <t>https://snttdecolombia.org/</t>
+  </si>
+  <si>
+    <t>SNTT is a participatory and pluralistic labor union organization in constant growth. The National Union of Industry and Service Workers in Colombia’s Transportation Sector (SNTT) works to improve the living conditions of transportation sector workers in the country through negotiation, dialogue, and consensus-building.</t>
+  </si>
+  <si>
+    <t>Sindicato de trabajadores Engie energía Perú</t>
+  </si>
+  <si>
+    <t>STEEP</t>
+  </si>
+  <si>
+    <t>Pacocha</t>
+  </si>
+  <si>
+    <t>https://cdn.prod.website-files.com/63276dc4e6b803208bf159df/679e831dc846a5e99d102f3d_STEEP%20LOGO.png</t>
+  </si>
+  <si>
+    <t>https://sindicatoengieperu.com/</t>
+  </si>
+  <si>
+    <t>STEEP is a labor union in Peru that was founded in 2006 by a group of 50 determined workers seeking to end labor abuses in the energy sector. Despite initial setbacks, they successfully established the Sindicato de Trabajadores de Suez Energy Perú y Anexos, later renamed Sindicato de Trabajadores de Enersur y Anexos (STEEP). Over the years, STEEP has actively engaged in negotiations, inspections, protests, and legal proceedings to advocate for workers' rights, fair wages, and better working conditions. The union collaborates with the Federation of Light and Power Workers of Peru and maintains direct communication with the company to address key labor issues. Today, with 159 members across multiple locations, STEEP remains committed to fighting for fair treatment and labor rights in the energy sector.</t>
+  </si>
+  <si>
+    <t>Sindicato Nacional de Empleados de la DIAN</t>
+  </si>
+  <si>
+    <t>SINEDIAN</t>
+  </si>
+  <si>
+    <t>Bucaramanga</t>
+  </si>
+  <si>
+    <t>https://cdn.prod.website-files.com/63276dc4e6b803208bf159df/679e8234d64b729890978a20_logosinedianFINAL.png</t>
+  </si>
+  <si>
+    <t>https://www.sinedian.org/</t>
+  </si>
+  <si>
+    <t>Founded in December 2006 in Bucaramanga, SINEDIAN is the National Union of Employees of the DIAN (National Tax and Customs Directorate), It is a national, autonomous, plural, democratic and independent trade union organisation. The union aims include fighting for decent and fair working conditions, respect for human rights, the democratic rights and freedoms of public employees, and the construction of a socially and ethically responsible organisation.</t>
+  </si>
+  <si>
+    <t>Syndicat National de l’Enseignement Technique de la recherche de l’alphabétisation et de la formation professionnelle</t>
+  </si>
+  <si>
+    <t>SYNETRAF</t>
+  </si>
+  <si>
+    <t>Yaoundé</t>
+  </si>
+  <si>
+    <t>https://cdn.prod.website-files.com/63276dc4e6b803208bf159df/679e8841a7c2fa66c24d9fd9_synaetrafp.jpg</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/profile.php?id=61552687165742#</t>
+  </si>
+  <si>
+    <t>National Autonomous trade union of Technical education, Research, literacy, professional and vocational training</t>
+  </si>
+  <si>
+    <t>Workers Union Coalition of Palestine</t>
+  </si>
+  <si>
+    <t>WUCP</t>
+  </si>
+  <si>
+    <t>Palestine</t>
+  </si>
+  <si>
+    <t>Ramallah?</t>
+  </si>
+  <si>
+    <t>https://cdn.prod.website-files.com/63276dc4e6b803208bf159df/679e8d9aa9c45770075ebbac_WUCP.PNG</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>Gabungan Serikat Buruh Indonesia</t>
+  </si>
+  <si>
+    <t>GSBI</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Jakarta Timur</t>
+  </si>
+  <si>
+    <t>https://cdn.prod.website-files.com/63276dc4e6b803208bf159df/679ea6e9b4f91e555e435640_GSBI.jpg</t>
+  </si>
+  <si>
+    <t>https://www.infogsbi.or.id/</t>
+  </si>
+  <si>
+    <t>The Indonesian Trade Union Federation (GSBI) is a national labor organization that represents workers across multiple sectors, including manufacturing, garment and textile, footwear, automotive, mining, and plantations. Originally established in 1999 and reaffirmed in 2015, GSBI unites independent, militant, and democratic trade unions to advocate for workers' rights, fair wages, social security, and improved working conditions. It focuses on labor education, collective bargaining, and mobilizing workers to influence labor policies at both the workplace and government levels. GSBI also works to strengthen solidarity among workers, both nationally and internationally, while actively opposing anti-labor policies and exploitation.</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Persatuan Pegawai PT PLN Indonesia Power</t>
+  </si>
+  <si>
+    <t>PP-IP</t>
+  </si>
+  <si>
+    <t>Jakarta Selatan</t>
+  </si>
+  <si>
+    <t>https://cdn.prod.website-files.com/63276dc4e6b803208bf159df/679eaa1b9aa634d03303a7e5_pp-ip-new.webp</t>
+  </si>
+  <si>
+    <t>https://psisaskindonesiaproject.wordpress.com/serikat-pekerja-peserta/ppip-persatuan-pegawai-indonesia-power/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Persatuan Pegawai PT PLN Indonesia Power (PP-IP) is the sole trade union representing employees of PT Indonesia Power, a subsidiary of PT PLN (Persero) specializing in electricity generation. PP-IP operates with a central leadership and 15 units across the Java-Bali region, encompassing approximately 3,600 members. </t>
+  </si>
+  <si>
+    <t>Nepal Transport Workers Union</t>
+  </si>
+  <si>
+    <t>NETWON</t>
+  </si>
+  <si>
+    <t>https://cdn.prod.website-files.com/63276dc4e6b803208bf159df/679eb0057f70eaed77917fe9_netwon.jpeg</t>
+  </si>
+  <si>
+    <t>https://ntuc.org.np/affilates/details/312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Nepal Transport Workers Union (NETWON), established in 1990 (2047 BS), is a national-level organization representing all transport workers and associated laborers in Nepal. Registered under the Trade Union Act with registration number 22, NETWON aims to protect and promote the professional rights and interests of transport workers, enhance the economic, social, and political status of workers and their families, and foster relationships with national and international labor organizations. The union is affiliated with the Nepal Trade Union Congress (NTUC) since 1990 and the International Transport Workers Federation (ITF) since 1992. NETWON encompasses various associations, including the Nepal Taxi Drivers Association, Nepal Tourism Workers Union, and Nepal Petroleum Tanker Drivers Association. </t>
+  </si>
+  <si>
+    <t>Federasi Serikat Buruh Perkebunan Indonesia</t>
+  </si>
+  <si>
+    <t>F-SERBUNDO</t>
+  </si>
+  <si>
+    <t>Medan</t>
+  </si>
+  <si>
+    <t>https://cdn.prod.website-files.com/63276dc4e6b803208bf159df/679eb2f5a717b8b203c72e0a_LOGO%20Federation%20of%20SERBUNDO%20-%20Serbundo%20Indonesia.jpg</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/125053378774145/</t>
+  </si>
+  <si>
+    <t>The Federation of Indonesian Plantation Labor Union, known as F-SERBUNDO (Federasi Serikat Buruh Perkebunan Indonesia), is a labor union in Indonesia representing workers in the plantation sector. Established to advocate for the rights and welfare of plantation workers, F-SERBUNDO has been active in organizing, educating, and establishing unions within the industry. As of 2016, the union had approximately 5,000 members across North Sumatra and Kalimantan.</t>
+  </si>
+  <si>
+    <t>National Confederation of Transport Workers' Union</t>
+  </si>
+  <si>
+    <t>NCTU</t>
+  </si>
+  <si>
+    <t>https://cdn.prod.website-files.com/63276dc4e6b803208bf159df/679eb51d3ab1e41fd2b4844c_NCTU.png</t>
+  </si>
+  <si>
+    <t>https://nctuph.org/</t>
+  </si>
+  <si>
+    <t>NCTU is a confederation or umbrella organization of various associations, cooperatives, unions and federations of different types of land transportworkers in the Philippines. Its predecessor, the National Transportworkers' Union, was established in 1999 by transport groups mostly from Mindanao and Visayas areas. Its founding congress was held in 2003. NTU was renamed NCTU in 2008.</t>
+  </si>
+  <si>
+    <t>Syndicat pour la Revalorisation des Enseignants du Secondaire de Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t>SYRES</t>
+  </si>
+  <si>
+    <t>Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t>Abidjan</t>
+  </si>
+  <si>
+    <t>https://cdn.prod.website-files.com/63276dc4e6b803208bf159df/679ec1c0d2c92282c3700c41_syres.jpg</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/people/Syres-C%C3%B4te-dIvoire/100063484119567/</t>
+  </si>
+  <si>
+    <t>The Syndicat pour la Revalorisation des Personnels de l'Enseignement Secondaire de Côte d'Ivoire (SYRES Côte d'Ivoire) is a trade union dedicated to advocating for the rights and professional development of secondary education teachers in Côte d'Ivoire. The union focuses on enhancing the status and working conditions of its members, striving to improve the quality of secondary education in the country. SYRES Côte d'Ivoire actively engages in educational initiatives and provides updates on current events through its platform, Syres Côte d'Ivoire TV.</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>Syndicat National des travailleurs de l'énergie du Niger</t>
+  </si>
+  <si>
+    <t>SYNTRAVE</t>
+  </si>
+  <si>
+    <t>https://cdn.prod.website-files.com/63276dc4e6b803208bf159df/679ec498e945615e87eb5369_SYNTRAVE.jpg</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/profile.php?id=100068379740664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The National Union of Energy Workers of Niger (Syndicat National des Travailleurs de l'Énergie du Niger, SYNTRAVE) is a trade union in Niger representing workers in the energy sector. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sector </t>
+  </si>
+  <si>
+    <t>Instituto de Estudos Estratégicos de Petróleo, Gás Natural e Biocombustíveis</t>
+  </si>
+  <si>
+    <t>INEEP</t>
+  </si>
+  <si>
+    <t>Participating Ally</t>
+  </si>
+  <si>
+    <t>https://uploads-ssl.webflow.com/63276dc4e6b803208bf159df/6670da15774b3f816208f599_INEEP.png</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Date_Added</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Asociación de sindicalistas de EMCALI</t>
+  </si>
+  <si>
+    <t>ASOSIEMCALI</t>
+  </si>
+  <si>
     <t xml:space="preserve">Local Union </t>
-  </si>
-  <si>
-    <t>https://cdn.prod.website-files.com/63276dc4e6b803208bf159df/679e756a067eee6384aa3b23_FESIMETRO-color1%20-%20Elias%20gutierrez%20hidalgo.jpg</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/fesimetro/</t>
-  </si>
-  <si>
-    <t>A labor union organization created in 2007 representing metro workers in Santiago, Chile. Currently composed of six unions: three subcontracted and three in-house.</t>
-  </si>
-  <si>
-    <t>Sindicato Nacional de Trabajadores de Rama, Servicios de la Industria del Transporte y Logistica de Colombia</t>
-  </si>
-  <si>
-    <t>SNTT</t>
-  </si>
-  <si>
-    <t>https://cdn.prod.website-files.com/63276dc4e6b803208bf159df/679e787af792165ef6d1b6e1_441883496_996457432481801_2121499076178652052_n.jpg</t>
-  </si>
-  <si>
-    <t>https://snttdecolombia.org/</t>
-  </si>
-  <si>
-    <t>SNTT is a participatory and pluralistic labor union organization in constant growth. The National Union of Industry and Service Workers in Colombia’s Transportation Sector (SNTT) works to improve the living conditions of transportation sector workers in the country through negotiation, dialogue, and consensus-building.</t>
-  </si>
-  <si>
-    <t>Sindicato de trabajadores Engie energía Perú</t>
-  </si>
-  <si>
-    <t>STEEP</t>
-  </si>
-  <si>
-    <t>Pacocha</t>
-  </si>
-  <si>
-    <t>https://cdn.prod.website-files.com/63276dc4e6b803208bf159df/679e831dc846a5e99d102f3d_STEEP%20LOGO.png</t>
-  </si>
-  <si>
-    <t>https://sindicatoengieperu.com/</t>
-  </si>
-  <si>
-    <t>STEEP is a labor union in Peru that was founded in 2006 by a group of 50 determined workers seeking to end labor abuses in the energy sector. Despite initial setbacks, they successfully established the Sindicato de Trabajadores de Suez Energy Perú y Anexos, later renamed Sindicato de Trabajadores de Enersur y Anexos (STEEP). Over the years, STEEP has actively engaged in negotiations, inspections, protests, and legal proceedings to advocate for workers' rights, fair wages, and better working conditions. The union collaborates with the Federation of Light and Power Workers of Peru and maintains direct communication with the company to address key labor issues. Today, with 159 members across multiple locations, STEEP remains committed to fighting for fair treatment and labor rights in the energy sector.</t>
-  </si>
-  <si>
-    <t>Sindicato Nacional de Empleados de la DIAN</t>
-  </si>
-  <si>
-    <t>SINEDIAN</t>
-  </si>
-  <si>
-    <t>Bucaramanga</t>
-  </si>
-  <si>
-    <t>https://cdn.prod.website-files.com/63276dc4e6b803208bf159df/679e8234d64b729890978a20_logosinedianFINAL.png</t>
-  </si>
-  <si>
-    <t>https://www.sinedian.org/</t>
-  </si>
-  <si>
-    <t>Founded in December 2006 in Bucaramanga, SINEDIAN is the National Union of Employees of the DIAN (National Tax and Customs Directorate), It is a national, autonomous, plural, democratic and independent trade union organisation. The union aims include fighting for decent and fair working conditions, respect for human rights, the democratic rights and freedoms of public employees, and the construction of a socially and ethically responsible organisation.</t>
-  </si>
-  <si>
-    <t>Syndicat National de l’Enseignement Technique de la recherche de l’alphabétisation et de la formation professionnelle</t>
-  </si>
-  <si>
-    <t>SYNETRAF</t>
-  </si>
-  <si>
-    <t>Yaoundé</t>
-  </si>
-  <si>
-    <t>https://cdn.prod.website-files.com/63276dc4e6b803208bf159df/679e8841a7c2fa66c24d9fd9_synaetrafp.jpg</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/profile.php?id=61552687165742#</t>
-  </si>
-  <si>
-    <t>National Autonomous trade union of Technical education, Research, literacy, professional and vocational training</t>
-  </si>
-  <si>
-    <t>Workers Union Coalition of Palestine</t>
-  </si>
-  <si>
-    <t>WUCP</t>
-  </si>
-  <si>
-    <t>Palestine</t>
-  </si>
-  <si>
-    <t>Ramallah?</t>
-  </si>
-  <si>
-    <t>https://cdn.prod.website-files.com/63276dc4e6b803208bf159df/679e8d9aa9c45770075ebbac_WUCP.PNG</t>
-  </si>
-  <si>
-    <t>PS</t>
-  </si>
-  <si>
-    <t>Gabungan Serikat Buruh Indonesia</t>
-  </si>
-  <si>
-    <t>GSBI</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Jakarta Timur</t>
-  </si>
-  <si>
-    <t>https://cdn.prod.website-files.com/63276dc4e6b803208bf159df/679ea6e9b4f91e555e435640_GSBI.jpg</t>
-  </si>
-  <si>
-    <t>https://www.infogsbi.or.id/</t>
-  </si>
-  <si>
-    <t>The Indonesian Trade Union Federation (GSBI) is a national labor organization that represents workers across multiple sectors, including manufacturing, garment and textile, footwear, automotive, mining, and plantations. Originally established in 1999 and reaffirmed in 2015, GSBI unites independent, militant, and democratic trade unions to advocate for workers' rights, fair wages, social security, and improved working conditions. It focuses on labor education, collective bargaining, and mobilizing workers to influence labor policies at both the workplace and government levels. GSBI also works to strengthen solidarity among workers, both nationally and internationally, while actively opposing anti-labor policies and exploitation.</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Persatuan Pegawai PT PLN Indonesia Power</t>
-  </si>
-  <si>
-    <t>PP-IP</t>
-  </si>
-  <si>
-    <t>Jakarta Selatan</t>
-  </si>
-  <si>
-    <t>https://cdn.prod.website-files.com/63276dc4e6b803208bf159df/679eaa1b9aa634d03303a7e5_pp-ip-new.webp</t>
-  </si>
-  <si>
-    <t>https://psisaskindonesiaproject.wordpress.com/serikat-pekerja-peserta/ppip-persatuan-pegawai-indonesia-power/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Persatuan Pegawai PT PLN Indonesia Power (PP-IP) is the sole trade union representing employees of PT Indonesia Power, a subsidiary of PT PLN (Persero) specializing in electricity generation. PP-IP operates with a central leadership and 15 units across the Java-Bali region, encompassing approximately 3,600 members. </t>
-  </si>
-  <si>
-    <t>Nepal Transport Workers Union</t>
-  </si>
-  <si>
-    <t>NETWON</t>
-  </si>
-  <si>
-    <t>https://cdn.prod.website-files.com/63276dc4e6b803208bf159df/679eb0057f70eaed77917fe9_netwon.jpeg</t>
-  </si>
-  <si>
-    <t>https://ntuc.org.np/affilates/details/312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Nepal Transport Workers Union (NETWON), established in 1990 (2047 BS), is a national-level organization representing all transport workers and associated laborers in Nepal. Registered under the Trade Union Act with registration number 22, NETWON aims to protect and promote the professional rights and interests of transport workers, enhance the economic, social, and political status of workers and their families, and foster relationships with national and international labor organizations. The union is affiliated with the Nepal Trade Union Congress (NTUC) since 1990 and the International Transport Workers Federation (ITF) since 1992. NETWON encompasses various associations, including the Nepal Taxi Drivers Association, Nepal Tourism Workers Union, and Nepal Petroleum Tanker Drivers Association. </t>
-  </si>
-  <si>
-    <t>Federasi Serikat Buruh Perkebunan Indonesia</t>
-  </si>
-  <si>
-    <t>F-SERBUNDO</t>
-  </si>
-  <si>
-    <t>Medan</t>
-  </si>
-  <si>
-    <t>https://cdn.prod.website-files.com/63276dc4e6b803208bf159df/679eb2f5a717b8b203c72e0a_LOGO%20Federation%20of%20SERBUNDO%20-%20Serbundo%20Indonesia.jpg</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/groups/125053378774145/</t>
-  </si>
-  <si>
-    <t>The Federation of Indonesian Plantation Labor Union, known as F-SERBUNDO (Federasi Serikat Buruh Perkebunan Indonesia), is a labor union in Indonesia representing workers in the plantation sector. Established to advocate for the rights and welfare of plantation workers, F-SERBUNDO has been active in organizing, educating, and establishing unions within the industry. As of 2016, the union had approximately 5,000 members across North Sumatra and Kalimantan.</t>
-  </si>
-  <si>
-    <t>National Confederation of Transport Workers' Union</t>
-  </si>
-  <si>
-    <t>NCTU</t>
-  </si>
-  <si>
-    <t>https://cdn.prod.website-files.com/63276dc4e6b803208bf159df/679eb51d3ab1e41fd2b4844c_NCTU.png</t>
-  </si>
-  <si>
-    <t>https://nctuph.org/</t>
-  </si>
-  <si>
-    <t>NCTU is a confederation or umbrella organization of various associations, cooperatives, unions and federations of different types of land transportworkers in the Philippines. Its predecessor, the National Transportworkers' Union, was established in 1999 by transport groups mostly from Mindanao and Visayas areas. Its founding congress was held in 2003. NTU was renamed NCTU in 2008.</t>
-  </si>
-  <si>
-    <t>Syndicat pour la Revalorisation des Enseignants du Secondaire de Côte d'Ivoire</t>
-  </si>
-  <si>
-    <t>SYRES</t>
-  </si>
-  <si>
-    <t>Côte d'Ivoire</t>
-  </si>
-  <si>
-    <t>Abidjan</t>
-  </si>
-  <si>
-    <t>https://cdn.prod.website-files.com/63276dc4e6b803208bf159df/679ec1c0d2c92282c3700c41_syres.jpg</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/people/Syres-C%C3%B4te-dIvoire/100063484119567/</t>
-  </si>
-  <si>
-    <t>The Syndicat pour la Revalorisation des Personnels de l'Enseignement Secondaire de Côte d'Ivoire (SYRES Côte d'Ivoire) is a trade union dedicated to advocating for the rights and professional development of secondary education teachers in Côte d'Ivoire. The union focuses on enhancing the status and working conditions of its members, striving to improve the quality of secondary education in the country. SYRES Côte d'Ivoire actively engages in educational initiatives and provides updates on current events through its platform, Syres Côte d'Ivoire TV.</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>Syndicat National des travailleurs de l'énergie du Niger</t>
-  </si>
-  <si>
-    <t>SYNTRAVE</t>
-  </si>
-  <si>
-    <t>https://cdn.prod.website-files.com/63276dc4e6b803208bf159df/679ec498e945615e87eb5369_SYNTRAVE.jpg</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/profile.php?id=100068379740664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The National Union of Energy Workers of Niger (Syndicat National des Travailleurs de l'Énergie du Niger, SYNTRAVE) is a trade union in Niger representing workers in the energy sector. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sector </t>
-  </si>
-  <si>
-    <t>Instituto de Estudos Estratégicos de Petróleo, Gás Natural e Biocombustíveis</t>
-  </si>
-  <si>
-    <t>INEEP</t>
-  </si>
-  <si>
-    <t>Participating Ally</t>
-  </si>
-  <si>
-    <t>https://uploads-ssl.webflow.com/63276dc4e6b803208bf159df/6670da15774b3f816208f599_INEEP.png</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Date_Added</t>
-  </si>
-  <si>
-    <t>Russia</t>
-  </si>
-  <si>
-    <t>Asociación de sindicalistas de EMCALI</t>
-  </si>
-  <si>
-    <t>ASOSIEMCALI</t>
   </si>
   <si>
     <t>Select below</t>
@@ -3644,11 +3644,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y979"/>
+  <dimension ref="A1:Y980"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C135" sqref="C135"/>
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4518,7 +4518,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="93" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
         <v>20</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="9">
         <v>21</v>
       </c>
@@ -4612,7 +4612,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="81.400000000000006" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
         <v>22</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="71.25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
         <v>23</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="71.25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="9">
         <v>24</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="9">
         <v>25</v>
       </c>
@@ -4796,7 +4796,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="9">
         <v>26</v>
       </c>
@@ -4843,7 +4843,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="9">
         <v>27</v>
       </c>
@@ -4890,7 +4890,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="9">
         <v>28</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="9">
         <v>29</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="9">
         <v>30</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="81.400000000000006" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="9">
         <v>31</v>
       </c>
@@ -5078,7 +5078,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="81.400000000000006" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="9">
         <v>32</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="101.65" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="9">
         <v>33</v>
       </c>
@@ -5879,7 +5879,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="48" spans="1:25" ht="91.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:25" ht="81.400000000000006" x14ac:dyDescent="0.35">
       <c r="A48" s="9">
         <v>50</v>
       </c>
@@ -5926,7 +5926,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" ht="81.400000000000006" x14ac:dyDescent="0.35">
       <c r="A49" s="9">
         <v>51</v>
       </c>
@@ -6678,7 +6678,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="101.65" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
       <c r="A65" s="9">
         <v>67</v>
       </c>
@@ -6819,7 +6819,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="101.65" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
       <c r="A68" s="9">
         <v>70</v>
       </c>
@@ -8131,7 +8131,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="101.65" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
       <c r="A96" s="9">
         <v>99</v>
       </c>
@@ -9024,7 +9024,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="93" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:15" ht="81.400000000000006" x14ac:dyDescent="0.35">
       <c r="A115" s="9">
         <v>118</v>
       </c>
@@ -9129,7 +9129,7 @@
         <v>802</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>803</v>
+        <v>72</v>
       </c>
       <c r="E117" s="10" t="s">
         <v>262</v>
@@ -9150,16 +9150,16 @@
         <v>21</v>
       </c>
       <c r="K117" s="12" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="L117" s="10" t="s">
         <v>316</v>
       </c>
       <c r="M117" s="13" t="s">
+        <v>804</v>
+      </c>
+      <c r="N117" s="14" t="s">
         <v>805</v>
-      </c>
-      <c r="N117" s="14" t="s">
-        <v>806</v>
       </c>
       <c r="O117" s="45" t="s">
         <v>266</v>
@@ -9170,10 +9170,10 @@
         <v>122</v>
       </c>
       <c r="B118" s="9" t="s">
+        <v>806</v>
+      </c>
+      <c r="C118" s="46" t="s">
         <v>807</v>
-      </c>
-      <c r="C118" s="46" t="s">
-        <v>808</v>
       </c>
       <c r="D118" s="10" t="s">
         <v>38</v>
@@ -9197,16 +9197,16 @@
         <v>21</v>
       </c>
       <c r="K118" s="12" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="L118" s="10" t="s">
         <v>316</v>
       </c>
       <c r="M118" s="13" t="s">
+        <v>809</v>
+      </c>
+      <c r="N118" s="14" t="s">
         <v>810</v>
-      </c>
-      <c r="N118" s="14" t="s">
-        <v>811</v>
       </c>
       <c r="O118" s="8" t="s">
         <v>278</v>
@@ -9217,10 +9217,10 @@
         <v>123</v>
       </c>
       <c r="B119" s="9" t="s">
+        <v>811</v>
+      </c>
+      <c r="C119" s="9" t="s">
         <v>812</v>
-      </c>
-      <c r="C119" s="9" t="s">
-        <v>813</v>
       </c>
       <c r="D119" s="10" t="s">
         <v>38</v>
@@ -9232,7 +9232,7 @@
         <v>527</v>
       </c>
       <c r="G119" s="10" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H119" s="45">
         <v>-17.612545000000001</v>
@@ -9244,16 +9244,16 @@
         <v>21</v>
       </c>
       <c r="K119" s="12" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="L119" s="10" t="s">
         <v>67</v>
       </c>
       <c r="M119" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="N119" s="14" t="s">
         <v>816</v>
-      </c>
-      <c r="N119" s="14" t="s">
-        <v>817</v>
       </c>
       <c r="O119" s="45" t="s">
         <v>532</v>
@@ -9264,10 +9264,10 @@
         <v>124</v>
       </c>
       <c r="B120" s="9" t="s">
+        <v>817</v>
+      </c>
+      <c r="C120" s="9" t="s">
         <v>818</v>
-      </c>
-      <c r="C120" s="9" t="s">
-        <v>819</v>
       </c>
       <c r="D120" s="10" t="s">
         <v>38</v>
@@ -9279,7 +9279,7 @@
         <v>273</v>
       </c>
       <c r="G120" s="10" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H120" s="45">
         <v>7.1178910000000002</v>
@@ -9291,16 +9291,16 @@
         <v>21</v>
       </c>
       <c r="K120" s="12" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="L120" s="10" t="s">
         <v>125</v>
       </c>
       <c r="M120" s="13" t="s">
+        <v>821</v>
+      </c>
+      <c r="N120" s="14" t="s">
         <v>822</v>
-      </c>
-      <c r="N120" s="14" t="s">
-        <v>823</v>
       </c>
       <c r="O120" s="8" t="s">
         <v>278</v>
@@ -9311,10 +9311,10 @@
         <v>125</v>
       </c>
       <c r="B121" s="9" t="s">
+        <v>823</v>
+      </c>
+      <c r="C121" s="9" t="s">
         <v>824</v>
-      </c>
-      <c r="C121" s="9" t="s">
-        <v>825</v>
       </c>
       <c r="D121" s="10" t="s">
         <v>38</v>
@@ -9326,7 +9326,7 @@
         <v>170</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H121" s="45">
         <v>3.83209</v>
@@ -9338,16 +9338,16 @@
         <v>134</v>
       </c>
       <c r="K121" s="12" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="L121" s="10" t="s">
         <v>83</v>
       </c>
       <c r="M121" s="13" t="s">
+        <v>827</v>
+      </c>
+      <c r="N121" s="14" t="s">
         <v>828</v>
-      </c>
-      <c r="N121" s="14" t="s">
-        <v>829</v>
       </c>
       <c r="O121" s="45" t="s">
         <v>175</v>
@@ -9358,22 +9358,22 @@
         <v>126</v>
       </c>
       <c r="B122" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="C122" s="9" t="s">
         <v>830</v>
-      </c>
-      <c r="C122" s="9" t="s">
-        <v>831</v>
       </c>
       <c r="D122" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E122" s="10" t="s">
+        <v>831</v>
+      </c>
+      <c r="F122" s="10" t="s">
+        <v>831</v>
+      </c>
+      <c r="G122" s="10" t="s">
         <v>832</v>
-      </c>
-      <c r="F122" s="10" t="s">
-        <v>832</v>
-      </c>
-      <c r="G122" s="10" t="s">
-        <v>833</v>
       </c>
       <c r="H122" s="47">
         <v>31.902719999999999</v>
@@ -9385,7 +9385,7 @@
         <v>58</v>
       </c>
       <c r="K122" s="12" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="L122" s="10" t="s">
         <v>29</v>
@@ -9393,7 +9393,7 @@
       <c r="M122" s="10"/>
       <c r="N122" s="14"/>
       <c r="O122" s="45" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="123" spans="1:15" ht="93" x14ac:dyDescent="0.35">
@@ -9401,22 +9401,22 @@
         <v>127</v>
       </c>
       <c r="B123" s="9" t="s">
+        <v>835</v>
+      </c>
+      <c r="C123" s="9" t="s">
         <v>836</v>
-      </c>
-      <c r="C123" s="9" t="s">
-        <v>837</v>
       </c>
       <c r="D123" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E123" s="10" t="s">
+        <v>837</v>
+      </c>
+      <c r="F123" s="10" t="s">
+        <v>837</v>
+      </c>
+      <c r="G123" s="10" t="s">
         <v>838</v>
-      </c>
-      <c r="F123" s="10" t="s">
-        <v>838</v>
-      </c>
-      <c r="G123" s="10" t="s">
-        <v>839</v>
       </c>
       <c r="H123" s="45">
         <v>-6.1997270000000002</v>
@@ -9428,19 +9428,19 @@
         <v>58</v>
       </c>
       <c r="K123" s="20" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="L123" s="10" t="s">
         <v>29</v>
       </c>
       <c r="M123" s="13" t="s">
+        <v>840</v>
+      </c>
+      <c r="N123" s="14" t="s">
         <v>841</v>
       </c>
-      <c r="N123" s="14" t="s">
+      <c r="O123" s="45" t="s">
         <v>842</v>
-      </c>
-      <c r="O123" s="45" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="124" spans="1:15" ht="104.65" x14ac:dyDescent="0.35">
@@ -9448,22 +9448,22 @@
         <v>128</v>
       </c>
       <c r="B124" s="9" t="s">
+        <v>843</v>
+      </c>
+      <c r="C124" s="9" t="s">
         <v>844</v>
-      </c>
-      <c r="C124" s="9" t="s">
-        <v>845</v>
       </c>
       <c r="D124" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G124" s="10" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H124" s="45">
         <v>-6.2333379999999998</v>
@@ -9475,19 +9475,19 @@
         <v>58</v>
       </c>
       <c r="K124" s="12" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="L124" s="10" t="s">
         <v>67</v>
       </c>
       <c r="M124" s="13" t="s">
+        <v>847</v>
+      </c>
+      <c r="N124" s="14" t="s">
         <v>848</v>
       </c>
-      <c r="N124" s="14" t="s">
-        <v>849</v>
-      </c>
       <c r="O124" s="45" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="125" spans="1:15" ht="104.65" x14ac:dyDescent="0.35">
@@ -9495,10 +9495,10 @@
         <v>129</v>
       </c>
       <c r="B125" s="9" t="s">
+        <v>849</v>
+      </c>
+      <c r="C125" s="9" t="s">
         <v>850</v>
-      </c>
-      <c r="C125" s="9" t="s">
-        <v>851</v>
       </c>
       <c r="D125" s="10" t="s">
         <v>38</v>
@@ -9522,16 +9522,16 @@
         <v>58</v>
       </c>
       <c r="K125" s="12" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="L125" s="10" t="s">
         <v>316</v>
       </c>
       <c r="M125" s="13" t="s">
+        <v>852</v>
+      </c>
+      <c r="N125" s="14" t="s">
         <v>853</v>
-      </c>
-      <c r="N125" s="14" t="s">
-        <v>854</v>
       </c>
       <c r="O125" s="45" t="s">
         <v>463</v>
@@ -9542,22 +9542,22 @@
         <v>130</v>
       </c>
       <c r="B126" s="9" t="s">
+        <v>854</v>
+      </c>
+      <c r="C126" s="9" t="s">
         <v>855</v>
-      </c>
-      <c r="C126" s="9" t="s">
-        <v>856</v>
       </c>
       <c r="D126" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F126" s="10" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G126" s="10" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H126" s="45">
         <v>3.6285400000000001</v>
@@ -9569,19 +9569,19 @@
         <v>58</v>
       </c>
       <c r="K126" s="12" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="L126" s="10" t="s">
         <v>798</v>
       </c>
       <c r="M126" s="13" t="s">
+        <v>858</v>
+      </c>
+      <c r="N126" s="14" t="s">
         <v>859</v>
       </c>
-      <c r="N126" s="14" t="s">
-        <v>860</v>
-      </c>
       <c r="O126" s="45" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="127" spans="1:15" ht="71.25" x14ac:dyDescent="0.35">
@@ -9589,10 +9589,10 @@
         <v>131</v>
       </c>
       <c r="B127" s="9" t="s">
+        <v>860</v>
+      </c>
+      <c r="C127" s="9" t="s">
         <v>861</v>
-      </c>
-      <c r="C127" s="9" t="s">
-        <v>862</v>
       </c>
       <c r="D127" s="10" t="s">
         <v>29</v>
@@ -9616,16 +9616,16 @@
         <v>58</v>
       </c>
       <c r="K127" s="12" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="L127" s="10" t="s">
         <v>316</v>
       </c>
       <c r="M127" s="13" t="s">
+        <v>863</v>
+      </c>
+      <c r="N127" s="14" t="s">
         <v>864</v>
-      </c>
-      <c r="N127" s="14" t="s">
-        <v>865</v>
       </c>
       <c r="O127" s="45" t="s">
         <v>540</v>
@@ -9636,22 +9636,22 @@
         <v>132</v>
       </c>
       <c r="B128" s="9" t="s">
+        <v>865</v>
+      </c>
+      <c r="C128" s="9" t="s">
         <v>866</v>
-      </c>
-      <c r="C128" s="9" t="s">
-        <v>867</v>
       </c>
       <c r="D128" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E128" s="10" t="s">
+        <v>867</v>
+      </c>
+      <c r="F128" s="10" t="s">
+        <v>867</v>
+      </c>
+      <c r="G128" s="10" t="s">
         <v>868</v>
-      </c>
-      <c r="F128" s="10" t="s">
-        <v>868</v>
-      </c>
-      <c r="G128" s="10" t="s">
-        <v>869</v>
       </c>
       <c r="H128" s="45">
         <v>5.3306649999999998</v>
@@ -9663,19 +9663,19 @@
         <v>134</v>
       </c>
       <c r="K128" s="12" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="L128" s="10" t="s">
         <v>83</v>
       </c>
       <c r="M128" s="13" t="s">
+        <v>870</v>
+      </c>
+      <c r="N128" s="14" t="s">
         <v>871</v>
       </c>
-      <c r="N128" s="14" t="s">
+      <c r="O128" s="45" t="s">
         <v>872</v>
-      </c>
-      <c r="O128" s="45" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="129" spans="1:15" ht="71.25" x14ac:dyDescent="0.35">
@@ -9683,10 +9683,10 @@
         <v>133</v>
       </c>
       <c r="B129" s="9" t="s">
+        <v>873</v>
+      </c>
+      <c r="C129" s="9" t="s">
         <v>874</v>
-      </c>
-      <c r="C129" s="9" t="s">
-        <v>875</v>
       </c>
       <c r="D129" s="10" t="s">
         <v>38</v>
@@ -9710,34 +9710,67 @@
         <v>134</v>
       </c>
       <c r="K129" s="12" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="L129" s="10" t="s">
         <v>67</v>
       </c>
       <c r="M129" s="13" t="s">
+        <v>876</v>
+      </c>
+      <c r="N129" s="14" t="s">
         <v>877</v>
-      </c>
-      <c r="N129" s="14" t="s">
-        <v>878</v>
       </c>
       <c r="O129" s="45" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="130" spans="1:15" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A130" s="9"/>
-      <c r="B130" s="9"/>
-      <c r="C130" s="9"/>
-      <c r="D130" s="10"/>
-      <c r="E130" s="10"/>
-      <c r="F130" s="10"/>
-      <c r="G130" s="10"/>
-      <c r="J130" s="10"/>
-      <c r="K130" s="39"/>
-      <c r="L130" s="10"/>
-      <c r="M130" s="10"/>
-      <c r="N130" s="14"/>
+    <row r="130" spans="1:15" ht="71.25" x14ac:dyDescent="0.35">
+      <c r="A130" s="9">
+        <v>133</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>873</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>874</v>
+      </c>
+      <c r="D130" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E130" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="F130" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="G130" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="H130" s="45">
+        <v>13.57724</v>
+      </c>
+      <c r="I130" s="45">
+        <v>2.0857209999999999</v>
+      </c>
+      <c r="J130" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="K130" s="12" t="s">
+        <v>875</v>
+      </c>
+      <c r="L130" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="M130" s="13" t="s">
+        <v>876</v>
+      </c>
+      <c r="N130" s="14" t="s">
+        <v>877</v>
+      </c>
+      <c r="O130" s="45" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="131" spans="1:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A131" s="9"/>
@@ -21625,18 +21658,32 @@
       <c r="M979" s="10"/>
       <c r="N979" s="14"/>
     </row>
+    <row r="980" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A980" s="9"/>
+      <c r="B980" s="9"/>
+      <c r="C980" s="9"/>
+      <c r="D980" s="10"/>
+      <c r="E980" s="10"/>
+      <c r="F980" s="10"/>
+      <c r="G980" s="10"/>
+      <c r="J980" s="10"/>
+      <c r="K980" s="39"/>
+      <c r="L980" s="10"/>
+      <c r="M980" s="10"/>
+      <c r="N980" s="14"/>
+    </row>
   </sheetData>
   <dataValidations count="10">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J2:J110" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Select below,Africa,Asia and the Pacific,Europe,Latin America and the Caribbean,North America,Global"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D111:D129" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D111:D130" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Local Union,National Union,National Centre,Regional Body,Global Union Federation,Participating Ally"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J111:J129" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J111:J130" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Africa,Asia and the Pacific,Europe,Latin America and the Caribbean,North America,Global"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L45 L49 L68 L71 L81 L85 L91 L103 L108:L109 L111:L129" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L45 L49 L68 L71 L81 L85 L91 L103 L108:L109 L111:L130" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"Diverse,Education,Energy - Electricity,Energy - Hydrocarbon,Energy - Mining,Energy - Other,Agriculture / Food Service,Health,Industry / Manufacturing,National Centre,Professionals,Private Sector,Public Services,Retail,Transport,Other"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D82 D84:D110" xr:uid="{00000000-0002-0000-0000-000004000000}">
@@ -21910,9 +21957,11 @@
     <hyperlink ref="M128" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
     <hyperlink ref="K129" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
     <hyperlink ref="M129" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="K130" r:id="rId252" xr:uid="{0A743213-8901-4C21-A8DC-69BC06F59602}"/>
+    <hyperlink ref="M130" r:id="rId253" xr:uid="{D4E5850D-5C9B-4127-B479-24D242F4A0F7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId252"/>
+  <legacyDrawing r:id="rId254"/>
 </worksheet>
 </file>
 
@@ -21974,7 +22023,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>12</v>
@@ -22001,20 +22050,20 @@
         <v>119</v>
       </c>
       <c r="B2" s="42" t="s">
+        <v>879</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>880</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="10" t="s">
         <v>881</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>882</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="48" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
@@ -22264,7 +22313,7 @@
       <c r="M18" s="10"/>
       <c r="N18" s="14"/>
     </row>
-    <row r="19" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -22278,7 +22327,7 @@
       <c r="M19" s="10"/>
       <c r="N19" s="14"/>
     </row>
-    <row r="20" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -22292,7 +22341,7 @@
       <c r="M20" s="10"/>
       <c r="N20" s="14"/>
     </row>
-    <row r="21" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -22306,7 +22355,7 @@
       <c r="M21" s="10"/>
       <c r="N21" s="14"/>
     </row>
-    <row r="22" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -22320,7 +22369,7 @@
       <c r="M22" s="10"/>
       <c r="N22" s="14"/>
     </row>
-    <row r="23" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -22334,7 +22383,7 @@
       <c r="M23" s="10"/>
       <c r="N23" s="14"/>
     </row>
-    <row r="24" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -22348,7 +22397,7 @@
       <c r="M24" s="10"/>
       <c r="N24" s="14"/>
     </row>
-    <row r="25" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -22362,7 +22411,7 @@
       <c r="M25" s="10"/>
       <c r="N25" s="14"/>
     </row>
-    <row r="26" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -22376,7 +22425,7 @@
       <c r="M26" s="10"/>
       <c r="N26" s="14"/>
     </row>
-    <row r="27" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -22390,7 +22439,7 @@
       <c r="M27" s="10"/>
       <c r="N27" s="14"/>
     </row>
-    <row r="28" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -22404,7 +22453,7 @@
       <c r="M28" s="10"/>
       <c r="N28" s="14"/>
     </row>
-    <row r="29" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -22418,7 +22467,7 @@
       <c r="M29" s="10"/>
       <c r="N29" s="14"/>
     </row>
-    <row r="30" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -22432,7 +22481,7 @@
       <c r="M30" s="10"/>
       <c r="N30" s="14"/>
     </row>
-    <row r="31" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -22446,7 +22495,7 @@
       <c r="M31" s="10"/>
       <c r="N31" s="14"/>
     </row>
-    <row r="32" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -34191,10 +34240,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>884</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>885</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>9</v>
@@ -34203,7 +34252,7 @@
         <v>10</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>12</v>
@@ -34212,10 +34261,10 @@
         <v>13</v>
       </c>
       <c r="L1" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="M1" s="51" t="s">
         <v>886</v>
-      </c>
-      <c r="M1" s="51" t="s">
-        <v>887</v>
       </c>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
@@ -34238,7 +34287,7 @@
       <c r="C2" s="9"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -34254,13 +34303,13 @@
         <v>43</v>
       </c>
       <c r="B3" s="27" t="s">
+        <v>888</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>889</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>890</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>803</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>286</v>
@@ -34558,7 +34607,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="52"/>
     </row>
-    <row r="19" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -34573,7 +34622,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="52"/>
     </row>
-    <row r="20" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -34588,7 +34637,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="52"/>
     </row>
-    <row r="21" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -34603,7 +34652,7 @@
       <c r="L21" s="10"/>
       <c r="M21" s="52"/>
     </row>
-    <row r="22" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -34618,7 +34667,7 @@
       <c r="L22" s="10"/>
       <c r="M22" s="52"/>
     </row>
-    <row r="23" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -34633,7 +34682,7 @@
       <c r="L23" s="10"/>
       <c r="M23" s="52"/>
     </row>
-    <row r="24" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -34648,7 +34697,7 @@
       <c r="L24" s="10"/>
       <c r="M24" s="52"/>
     </row>
-    <row r="25" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -34663,7 +34712,7 @@
       <c r="L25" s="10"/>
       <c r="M25" s="52"/>
     </row>
-    <row r="26" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -34678,7 +34727,7 @@
       <c r="L26" s="10"/>
       <c r="M26" s="52"/>
     </row>
-    <row r="27" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -34693,7 +34742,7 @@
       <c r="L27" s="10"/>
       <c r="M27" s="52"/>
     </row>
-    <row r="28" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -34708,7 +34757,7 @@
       <c r="L28" s="10"/>
       <c r="M28" s="52"/>
     </row>
-    <row r="29" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -34723,7 +34772,7 @@
       <c r="L29" s="10"/>
       <c r="M29" s="52"/>
     </row>
-    <row r="30" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -34738,7 +34787,7 @@
       <c r="L30" s="10"/>
       <c r="M30" s="52"/>
     </row>
-    <row r="31" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -34753,7 +34802,7 @@
       <c r="L31" s="10"/>
       <c r="M31" s="52"/>
     </row>
-    <row r="32" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>

--- a/TUEDweb/ALL_TUED_UNIONS.xlsx
+++ b/TUEDweb/ALL_TUED_UNIONS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\André\TUED\webmap\andreldeod.github.io\TUEDweb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF80589-1E56-4C82-96F4-DB595B585EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3142416F-D795-430E-BE5B-5D337CF90AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2490,9 +2490,6 @@
 The Pennsylvania Federation specifically serves members within the state, focusing on regional issues and advocating for fair labor practices, safety standards, and equitable compensation for its members. In 2004, the BMWED merged with the IBT to strengthen its representation and resources.</t>
   </si>
   <si>
-    <t xml:space="preserve">The Professional Staff Congress at the City University of New York and the CUNY Research Foundation. </t>
-  </si>
-  <si>
     <t>PSC CUNY</t>
   </si>
   <si>
@@ -3005,6 +3002,9 @@
   </si>
   <si>
     <t>The Electrician and IT Workers' Union is a trade union in Norway. The union was formed by the 1999 merger of the Norwegian Union of Electricians and Power Station Workers, and the Norwegian Telecommunication and Data Workers' Union.</t>
+  </si>
+  <si>
+    <t>The Professional Staff Congress at the City University of New York and the CUNY Research Foundation</t>
   </si>
 </sst>
 </file>
@@ -3647,8 +3647,8 @@
   <dimension ref="A1:Y980"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C119" sqref="C119"/>
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3719,7 +3719,7 @@
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" ht="81.400000000000006" x14ac:dyDescent="0.35">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" ht="91.5" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" ht="81.400000000000006" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>5</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" ht="71.25" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>6</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" ht="61.15" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>7</v>
       </c>
@@ -3954,7 +3954,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" ht="111.75" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>8</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" ht="91.5" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>9</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" ht="91.5" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>10</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" ht="91.5" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>11</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" ht="101.65" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>12</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" ht="91.5" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>13</v>
       </c>
@@ -4236,7 +4236,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" ht="91.5" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
         <v>14</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" ht="91.5" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
         <v>15</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" ht="91.5" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
         <v>16</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" ht="91.5" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
         <v>17</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" ht="111.75" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
         <v>18</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
         <v>19</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
         <v>20</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" ht="81.400000000000006" x14ac:dyDescent="0.35">
       <c r="A20" s="9">
         <v>21</v>
       </c>
@@ -4612,7 +4612,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" ht="81.400000000000006" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
         <v>22</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" ht="71.25" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
         <v>23</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" ht="61.15" x14ac:dyDescent="0.35">
       <c r="A23" s="9">
         <v>24</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
       <c r="A24" s="9">
         <v>25</v>
       </c>
@@ -4796,7 +4796,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
       <c r="A25" s="9">
         <v>26</v>
       </c>
@@ -4843,7 +4843,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
       <c r="A26" s="9">
         <v>27</v>
       </c>
@@ -4890,7 +4890,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
       <c r="A27" s="9">
         <v>28</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
       <c r="A28" s="9">
         <v>29</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
       <c r="A29" s="9">
         <v>30</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" ht="81.400000000000006" x14ac:dyDescent="0.35">
       <c r="A30" s="9">
         <v>31</v>
       </c>
@@ -5078,7 +5078,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" ht="81.400000000000006" x14ac:dyDescent="0.35">
       <c r="A31" s="9">
         <v>32</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
       <c r="A32" s="9">
         <v>33</v>
       </c>
@@ -8512,10 +8512,10 @@
         <v>107</v>
       </c>
       <c r="B104" s="9" t="s">
+        <v>896</v>
+      </c>
+      <c r="C104" s="9" t="s">
         <v>725</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>726</v>
       </c>
       <c r="D104" s="10" t="s">
         <v>72</v>
@@ -8539,16 +8539,16 @@
         <v>184</v>
       </c>
       <c r="K104" s="12" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L104" s="10" t="s">
         <v>83</v>
       </c>
       <c r="M104" s="13" t="s">
+        <v>727</v>
+      </c>
+      <c r="N104" s="14" t="s">
         <v>728</v>
-      </c>
-      <c r="N104" s="14" t="s">
-        <v>729</v>
       </c>
       <c r="O104" s="8" t="s">
         <v>655</v>
@@ -8559,16 +8559,16 @@
         <v>108</v>
       </c>
       <c r="B105" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="C105" s="9" t="s">
         <v>730</v>
-      </c>
-      <c r="C105" s="9" t="s">
-        <v>731</v>
       </c>
       <c r="D105" s="10" t="s">
         <v>72</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F105" s="10" t="s">
         <v>650</v>
@@ -8586,16 +8586,16 @@
         <v>184</v>
       </c>
       <c r="K105" s="12" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="L105" s="10" t="s">
         <v>23</v>
       </c>
       <c r="M105" s="13" t="s">
+        <v>733</v>
+      </c>
+      <c r="N105" s="14" t="s">
         <v>734</v>
-      </c>
-      <c r="N105" s="14" t="s">
-        <v>735</v>
       </c>
       <c r="O105" s="8" t="s">
         <v>655</v>
@@ -8606,10 +8606,10 @@
         <v>109</v>
       </c>
       <c r="B106" s="9" t="s">
+        <v>735</v>
+      </c>
+      <c r="C106" s="9" t="s">
         <v>736</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>737</v>
       </c>
       <c r="D106" s="10" t="s">
         <v>38</v>
@@ -8621,7 +8621,7 @@
         <v>650</v>
       </c>
       <c r="G106" s="10" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H106" s="11">
         <v>40.4319445</v>
@@ -8633,16 +8633,16 @@
         <v>184</v>
       </c>
       <c r="K106" s="12" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="L106" s="10" t="s">
         <v>186</v>
       </c>
       <c r="M106" s="13" t="s">
+        <v>739</v>
+      </c>
+      <c r="N106" s="14" t="s">
         <v>740</v>
-      </c>
-      <c r="N106" s="14" t="s">
-        <v>741</v>
       </c>
       <c r="O106" s="8" t="s">
         <v>655</v>
@@ -8653,16 +8653,16 @@
         <v>110</v>
       </c>
       <c r="B107" s="9" t="s">
+        <v>741</v>
+      </c>
+      <c r="C107" s="9" t="s">
         <v>742</v>
-      </c>
-      <c r="C107" s="9" t="s">
-        <v>743</v>
       </c>
       <c r="D107" s="10" t="s">
         <v>72</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F107" s="10" t="s">
         <v>650</v>
@@ -8680,16 +8680,16 @@
         <v>184</v>
       </c>
       <c r="K107" s="12" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="L107" s="10" t="s">
         <v>23</v>
       </c>
       <c r="M107" s="13" t="s">
+        <v>745</v>
+      </c>
+      <c r="N107" s="14" t="s">
         <v>746</v>
-      </c>
-      <c r="N107" s="14" t="s">
-        <v>747</v>
       </c>
       <c r="O107" s="8" t="s">
         <v>655</v>
@@ -8700,16 +8700,16 @@
         <v>111</v>
       </c>
       <c r="B108" s="9" t="s">
+        <v>747</v>
+      </c>
+      <c r="C108" s="9" t="s">
         <v>748</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>749</v>
       </c>
       <c r="D108" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F108" s="10" t="s">
         <v>650</v>
@@ -8727,16 +8727,16 @@
         <v>184</v>
       </c>
       <c r="K108" s="12" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="L108" s="10" t="s">
         <v>316</v>
       </c>
       <c r="M108" s="15" t="s">
+        <v>751</v>
+      </c>
+      <c r="N108" s="14" t="s">
         <v>752</v>
-      </c>
-      <c r="N108" s="14" t="s">
-        <v>753</v>
       </c>
       <c r="O108" s="8" t="s">
         <v>655</v>
@@ -8747,16 +8747,16 @@
         <v>112</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D109" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F109" s="10" t="s">
         <v>650</v>
@@ -8774,16 +8774,16 @@
         <v>184</v>
       </c>
       <c r="K109" s="12" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="L109" s="10" t="s">
         <v>489</v>
       </c>
       <c r="M109" s="15" t="s">
+        <v>755</v>
+      </c>
+      <c r="N109" s="14" t="s">
         <v>756</v>
-      </c>
-      <c r="N109" s="14" t="s">
-        <v>757</v>
       </c>
       <c r="O109" s="8" t="s">
         <v>655</v>
@@ -8794,10 +8794,10 @@
         <v>113</v>
       </c>
       <c r="B110" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="C110" s="9" t="s">
         <v>758</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>759</v>
       </c>
       <c r="D110" s="10" t="s">
         <v>38</v>
@@ -8821,16 +8821,16 @@
         <v>21</v>
       </c>
       <c r="K110" s="12" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="L110" s="10" t="s">
         <v>67</v>
       </c>
       <c r="M110" s="15" t="s">
+        <v>760</v>
+      </c>
+      <c r="N110" s="14" t="s">
         <v>761</v>
-      </c>
-      <c r="N110" s="14" t="s">
-        <v>762</v>
       </c>
       <c r="O110" s="8" t="s">
         <v>26</v>
@@ -8841,22 +8841,22 @@
         <v>114</v>
       </c>
       <c r="B111" s="9" t="s">
+        <v>762</v>
+      </c>
+      <c r="C111" s="9" t="s">
         <v>763</v>
-      </c>
-      <c r="C111" s="9" t="s">
-        <v>764</v>
       </c>
       <c r="D111" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E111" s="10" t="s">
+        <v>764</v>
+      </c>
+      <c r="F111" s="10" t="s">
         <v>765</v>
       </c>
-      <c r="F111" s="10" t="s">
+      <c r="G111" s="10" t="s">
         <v>766</v>
-      </c>
-      <c r="G111" s="10" t="s">
-        <v>767</v>
       </c>
       <c r="H111" s="11">
         <v>36.801718649999998</v>
@@ -8868,19 +8868,19 @@
         <v>134</v>
       </c>
       <c r="K111" s="20" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="L111" s="10" t="s">
         <v>67</v>
       </c>
       <c r="M111" s="18" t="s">
+        <v>768</v>
+      </c>
+      <c r="N111" s="14" t="s">
         <v>769</v>
       </c>
-      <c r="N111" s="14" t="s">
+      <c r="O111" s="8" t="s">
         <v>770</v>
-      </c>
-      <c r="O111" s="8" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="112" spans="1:15" ht="81.400000000000006" x14ac:dyDescent="0.35">
@@ -8888,10 +8888,10 @@
         <v>115</v>
       </c>
       <c r="B112" s="22" t="s">
+        <v>771</v>
+      </c>
+      <c r="C112" s="9" t="s">
         <v>772</v>
-      </c>
-      <c r="C112" s="9" t="s">
-        <v>773</v>
       </c>
       <c r="D112" s="10" t="s">
         <v>38</v>
@@ -8903,7 +8903,7 @@
         <v>359</v>
       </c>
       <c r="G112" s="10" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H112" s="11">
         <v>48.854422649999997</v>
@@ -8915,16 +8915,16 @@
         <v>109</v>
       </c>
       <c r="K112" s="23" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="L112" s="10" t="s">
         <v>51</v>
       </c>
       <c r="M112" s="13" t="s">
+        <v>775</v>
+      </c>
+      <c r="N112" s="14" t="s">
         <v>776</v>
-      </c>
-      <c r="N112" s="14" t="s">
-        <v>777</v>
       </c>
       <c r="O112" s="8" t="s">
         <v>364</v>
@@ -8935,10 +8935,10 @@
         <v>116</v>
       </c>
       <c r="B113" s="9" t="s">
+        <v>777</v>
+      </c>
+      <c r="C113" s="9" t="s">
         <v>778</v>
-      </c>
-      <c r="C113" s="9" t="s">
-        <v>779</v>
       </c>
       <c r="D113" s="10" t="s">
         <v>29</v>
@@ -8950,7 +8950,7 @@
         <v>535</v>
       </c>
       <c r="G113" s="10" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H113" s="11">
         <v>14.57197246</v>
@@ -8962,16 +8962,16 @@
         <v>58</v>
       </c>
       <c r="K113" s="12" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="L113" s="10" t="s">
         <v>29</v>
       </c>
       <c r="M113" s="13" t="s">
+        <v>781</v>
+      </c>
+      <c r="N113" s="14" t="s">
         <v>782</v>
-      </c>
-      <c r="N113" s="14" t="s">
-        <v>783</v>
       </c>
       <c r="O113" s="8" t="s">
         <v>540</v>
@@ -8982,10 +8982,10 @@
         <v>117</v>
       </c>
       <c r="B114" s="42" t="s">
+        <v>783</v>
+      </c>
+      <c r="C114" s="8" t="s">
         <v>784</v>
-      </c>
-      <c r="C114" s="8" t="s">
-        <v>785</v>
       </c>
       <c r="D114" s="10" t="s">
         <v>38</v>
@@ -9009,16 +9009,16 @@
         <v>21</v>
       </c>
       <c r="K114" s="43" t="s">
+        <v>785</v>
+      </c>
+      <c r="L114" s="10" t="s">
         <v>786</v>
       </c>
-      <c r="L114" s="10" t="s">
+      <c r="M114" s="13" t="s">
         <v>787</v>
       </c>
-      <c r="M114" s="13" t="s">
+      <c r="N114" s="14" t="s">
         <v>788</v>
-      </c>
-      <c r="N114" s="14" t="s">
-        <v>789</v>
       </c>
       <c r="O114" s="8" t="s">
         <v>278</v>
@@ -9029,10 +9029,10 @@
         <v>118</v>
       </c>
       <c r="B115" s="42" t="s">
+        <v>789</v>
+      </c>
+      <c r="C115" s="8" t="s">
         <v>790</v>
-      </c>
-      <c r="C115" s="8" t="s">
-        <v>791</v>
       </c>
       <c r="D115" s="10" t="s">
         <v>38</v>
@@ -9056,16 +9056,16 @@
         <v>21</v>
       </c>
       <c r="K115" s="44" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="L115" s="10" t="s">
         <v>125</v>
       </c>
       <c r="M115" s="13" t="s">
+        <v>792</v>
+      </c>
+      <c r="N115" s="14" t="s">
         <v>793</v>
-      </c>
-      <c r="N115" s="14" t="s">
-        <v>794</v>
       </c>
       <c r="O115" s="8" t="s">
         <v>278</v>
@@ -9076,10 +9076,10 @@
         <v>120</v>
       </c>
       <c r="B116" s="9" t="s">
+        <v>794</v>
+      </c>
+      <c r="C116" s="9" t="s">
         <v>795</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>796</v>
       </c>
       <c r="D116" s="10" t="s">
         <v>38</v>
@@ -9103,16 +9103,16 @@
         <v>58</v>
       </c>
       <c r="K116" s="12" t="s">
+        <v>796</v>
+      </c>
+      <c r="L116" s="10" t="s">
         <v>797</v>
       </c>
-      <c r="L116" s="10" t="s">
+      <c r="M116" s="13" t="s">
         <v>798</v>
       </c>
-      <c r="M116" s="13" t="s">
+      <c r="N116" s="14" t="s">
         <v>799</v>
-      </c>
-      <c r="N116" s="14" t="s">
-        <v>800</v>
       </c>
       <c r="O116" s="45" t="s">
         <v>463</v>
@@ -9123,10 +9123,10 @@
         <v>121</v>
       </c>
       <c r="B117" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="C117" s="9" t="s">
         <v>801</v>
-      </c>
-      <c r="C117" s="9" t="s">
-        <v>802</v>
       </c>
       <c r="D117" s="10" t="s">
         <v>72</v>
@@ -9150,16 +9150,16 @@
         <v>21</v>
       </c>
       <c r="K117" s="12" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="L117" s="10" t="s">
         <v>316</v>
       </c>
       <c r="M117" s="13" t="s">
+        <v>803</v>
+      </c>
+      <c r="N117" s="14" t="s">
         <v>804</v>
-      </c>
-      <c r="N117" s="14" t="s">
-        <v>805</v>
       </c>
       <c r="O117" s="45" t="s">
         <v>266</v>
@@ -9170,10 +9170,10 @@
         <v>122</v>
       </c>
       <c r="B118" s="9" t="s">
+        <v>805</v>
+      </c>
+      <c r="C118" s="46" t="s">
         <v>806</v>
-      </c>
-      <c r="C118" s="46" t="s">
-        <v>807</v>
       </c>
       <c r="D118" s="10" t="s">
         <v>38</v>
@@ -9197,16 +9197,16 @@
         <v>21</v>
       </c>
       <c r="K118" s="12" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L118" s="10" t="s">
         <v>316</v>
       </c>
       <c r="M118" s="13" t="s">
+        <v>808</v>
+      </c>
+      <c r="N118" s="14" t="s">
         <v>809</v>
-      </c>
-      <c r="N118" s="14" t="s">
-        <v>810</v>
       </c>
       <c r="O118" s="8" t="s">
         <v>278</v>
@@ -9217,10 +9217,10 @@
         <v>123</v>
       </c>
       <c r="B119" s="9" t="s">
+        <v>810</v>
+      </c>
+      <c r="C119" s="9" t="s">
         <v>811</v>
-      </c>
-      <c r="C119" s="9" t="s">
-        <v>812</v>
       </c>
       <c r="D119" s="10" t="s">
         <v>38</v>
@@ -9232,7 +9232,7 @@
         <v>527</v>
       </c>
       <c r="G119" s="10" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H119" s="45">
         <v>-17.612545000000001</v>
@@ -9244,16 +9244,16 @@
         <v>21</v>
       </c>
       <c r="K119" s="12" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="L119" s="10" t="s">
         <v>67</v>
       </c>
       <c r="M119" s="13" t="s">
+        <v>814</v>
+      </c>
+      <c r="N119" s="14" t="s">
         <v>815</v>
-      </c>
-      <c r="N119" s="14" t="s">
-        <v>816</v>
       </c>
       <c r="O119" s="45" t="s">
         <v>532</v>
@@ -9264,10 +9264,10 @@
         <v>124</v>
       </c>
       <c r="B120" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="C120" s="9" t="s">
         <v>817</v>
-      </c>
-      <c r="C120" s="9" t="s">
-        <v>818</v>
       </c>
       <c r="D120" s="10" t="s">
         <v>38</v>
@@ -9279,7 +9279,7 @@
         <v>273</v>
       </c>
       <c r="G120" s="10" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H120" s="45">
         <v>7.1178910000000002</v>
@@ -9291,16 +9291,16 @@
         <v>21</v>
       </c>
       <c r="K120" s="12" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="L120" s="10" t="s">
         <v>125</v>
       </c>
       <c r="M120" s="13" t="s">
+        <v>820</v>
+      </c>
+      <c r="N120" s="14" t="s">
         <v>821</v>
-      </c>
-      <c r="N120" s="14" t="s">
-        <v>822</v>
       </c>
       <c r="O120" s="8" t="s">
         <v>278</v>
@@ -9311,10 +9311,10 @@
         <v>125</v>
       </c>
       <c r="B121" s="9" t="s">
+        <v>822</v>
+      </c>
+      <c r="C121" s="9" t="s">
         <v>823</v>
-      </c>
-      <c r="C121" s="9" t="s">
-        <v>824</v>
       </c>
       <c r="D121" s="10" t="s">
         <v>38</v>
@@ -9326,7 +9326,7 @@
         <v>170</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H121" s="45">
         <v>3.83209</v>
@@ -9338,16 +9338,16 @@
         <v>134</v>
       </c>
       <c r="K121" s="12" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="L121" s="10" t="s">
         <v>83</v>
       </c>
       <c r="M121" s="13" t="s">
+        <v>826</v>
+      </c>
+      <c r="N121" s="14" t="s">
         <v>827</v>
-      </c>
-      <c r="N121" s="14" t="s">
-        <v>828</v>
       </c>
       <c r="O121" s="45" t="s">
         <v>175</v>
@@ -9358,22 +9358,22 @@
         <v>126</v>
       </c>
       <c r="B122" s="9" t="s">
+        <v>828</v>
+      </c>
+      <c r="C122" s="9" t="s">
         <v>829</v>
-      </c>
-      <c r="C122" s="9" t="s">
-        <v>830</v>
       </c>
       <c r="D122" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E122" s="10" t="s">
+        <v>830</v>
+      </c>
+      <c r="F122" s="10" t="s">
+        <v>830</v>
+      </c>
+      <c r="G122" s="10" t="s">
         <v>831</v>
-      </c>
-      <c r="F122" s="10" t="s">
-        <v>831</v>
-      </c>
-      <c r="G122" s="10" t="s">
-        <v>832</v>
       </c>
       <c r="H122" s="47">
         <v>31.902719999999999</v>
@@ -9385,7 +9385,7 @@
         <v>58</v>
       </c>
       <c r="K122" s="12" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="L122" s="10" t="s">
         <v>29</v>
@@ -9393,7 +9393,7 @@
       <c r="M122" s="10"/>
       <c r="N122" s="14"/>
       <c r="O122" s="45" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="123" spans="1:15" ht="93" x14ac:dyDescent="0.35">
@@ -9401,22 +9401,22 @@
         <v>127</v>
       </c>
       <c r="B123" s="9" t="s">
+        <v>834</v>
+      </c>
+      <c r="C123" s="9" t="s">
         <v>835</v>
-      </c>
-      <c r="C123" s="9" t="s">
-        <v>836</v>
       </c>
       <c r="D123" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E123" s="10" t="s">
+        <v>836</v>
+      </c>
+      <c r="F123" s="10" t="s">
+        <v>836</v>
+      </c>
+      <c r="G123" s="10" t="s">
         <v>837</v>
-      </c>
-      <c r="F123" s="10" t="s">
-        <v>837</v>
-      </c>
-      <c r="G123" s="10" t="s">
-        <v>838</v>
       </c>
       <c r="H123" s="45">
         <v>-6.1997270000000002</v>
@@ -9428,19 +9428,19 @@
         <v>58</v>
       </c>
       <c r="K123" s="20" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="L123" s="10" t="s">
         <v>29</v>
       </c>
       <c r="M123" s="13" t="s">
+        <v>839</v>
+      </c>
+      <c r="N123" s="14" t="s">
         <v>840</v>
       </c>
-      <c r="N123" s="14" t="s">
+      <c r="O123" s="45" t="s">
         <v>841</v>
-      </c>
-      <c r="O123" s="45" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="124" spans="1:15" ht="104.65" x14ac:dyDescent="0.35">
@@ -9448,22 +9448,22 @@
         <v>128</v>
       </c>
       <c r="B124" s="9" t="s">
+        <v>842</v>
+      </c>
+      <c r="C124" s="9" t="s">
         <v>843</v>
-      </c>
-      <c r="C124" s="9" t="s">
-        <v>844</v>
       </c>
       <c r="D124" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G124" s="10" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H124" s="45">
         <v>-6.2333379999999998</v>
@@ -9475,19 +9475,19 @@
         <v>58</v>
       </c>
       <c r="K124" s="12" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="L124" s="10" t="s">
         <v>67</v>
       </c>
       <c r="M124" s="13" t="s">
+        <v>846</v>
+      </c>
+      <c r="N124" s="14" t="s">
         <v>847</v>
       </c>
-      <c r="N124" s="14" t="s">
-        <v>848</v>
-      </c>
       <c r="O124" s="45" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="125" spans="1:15" ht="104.65" x14ac:dyDescent="0.35">
@@ -9495,10 +9495,10 @@
         <v>129</v>
       </c>
       <c r="B125" s="9" t="s">
+        <v>848</v>
+      </c>
+      <c r="C125" s="9" t="s">
         <v>849</v>
-      </c>
-      <c r="C125" s="9" t="s">
-        <v>850</v>
       </c>
       <c r="D125" s="10" t="s">
         <v>38</v>
@@ -9522,16 +9522,16 @@
         <v>58</v>
       </c>
       <c r="K125" s="12" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="L125" s="10" t="s">
         <v>316</v>
       </c>
       <c r="M125" s="13" t="s">
+        <v>851</v>
+      </c>
+      <c r="N125" s="14" t="s">
         <v>852</v>
-      </c>
-      <c r="N125" s="14" t="s">
-        <v>853</v>
       </c>
       <c r="O125" s="45" t="s">
         <v>463</v>
@@ -9542,22 +9542,22 @@
         <v>130</v>
       </c>
       <c r="B126" s="9" t="s">
+        <v>853</v>
+      </c>
+      <c r="C126" s="9" t="s">
         <v>854</v>
-      </c>
-      <c r="C126" s="9" t="s">
-        <v>855</v>
       </c>
       <c r="D126" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F126" s="10" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G126" s="10" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H126" s="45">
         <v>3.6285400000000001</v>
@@ -9569,19 +9569,19 @@
         <v>58</v>
       </c>
       <c r="K126" s="12" t="s">
+        <v>856</v>
+      </c>
+      <c r="L126" s="10" t="s">
+        <v>797</v>
+      </c>
+      <c r="M126" s="13" t="s">
         <v>857</v>
       </c>
-      <c r="L126" s="10" t="s">
-        <v>798</v>
-      </c>
-      <c r="M126" s="13" t="s">
+      <c r="N126" s="14" t="s">
         <v>858</v>
       </c>
-      <c r="N126" s="14" t="s">
-        <v>859</v>
-      </c>
       <c r="O126" s="45" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="127" spans="1:15" ht="71.25" x14ac:dyDescent="0.35">
@@ -9589,10 +9589,10 @@
         <v>131</v>
       </c>
       <c r="B127" s="9" t="s">
+        <v>859</v>
+      </c>
+      <c r="C127" s="9" t="s">
         <v>860</v>
-      </c>
-      <c r="C127" s="9" t="s">
-        <v>861</v>
       </c>
       <c r="D127" s="10" t="s">
         <v>29</v>
@@ -9616,16 +9616,16 @@
         <v>58</v>
       </c>
       <c r="K127" s="12" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="L127" s="10" t="s">
         <v>316</v>
       </c>
       <c r="M127" s="13" t="s">
+        <v>862</v>
+      </c>
+      <c r="N127" s="14" t="s">
         <v>863</v>
-      </c>
-      <c r="N127" s="14" t="s">
-        <v>864</v>
       </c>
       <c r="O127" s="45" t="s">
         <v>540</v>
@@ -9636,22 +9636,22 @@
         <v>132</v>
       </c>
       <c r="B128" s="9" t="s">
+        <v>864</v>
+      </c>
+      <c r="C128" s="9" t="s">
         <v>865</v>
-      </c>
-      <c r="C128" s="9" t="s">
-        <v>866</v>
       </c>
       <c r="D128" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E128" s="10" t="s">
+        <v>866</v>
+      </c>
+      <c r="F128" s="10" t="s">
+        <v>866</v>
+      </c>
+      <c r="G128" s="10" t="s">
         <v>867</v>
-      </c>
-      <c r="F128" s="10" t="s">
-        <v>867</v>
-      </c>
-      <c r="G128" s="10" t="s">
-        <v>868</v>
       </c>
       <c r="H128" s="45">
         <v>5.3306649999999998</v>
@@ -9663,19 +9663,19 @@
         <v>134</v>
       </c>
       <c r="K128" s="12" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="L128" s="10" t="s">
         <v>83</v>
       </c>
       <c r="M128" s="13" t="s">
+        <v>869</v>
+      </c>
+      <c r="N128" s="14" t="s">
         <v>870</v>
       </c>
-      <c r="N128" s="14" t="s">
+      <c r="O128" s="45" t="s">
         <v>871</v>
-      </c>
-      <c r="O128" s="45" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="129" spans="1:15" ht="71.25" x14ac:dyDescent="0.35">
@@ -9683,10 +9683,10 @@
         <v>133</v>
       </c>
       <c r="B129" s="9" t="s">
+        <v>872</v>
+      </c>
+      <c r="C129" s="9" t="s">
         <v>873</v>
-      </c>
-      <c r="C129" s="9" t="s">
-        <v>874</v>
       </c>
       <c r="D129" s="10" t="s">
         <v>38</v>
@@ -9710,16 +9710,16 @@
         <v>134</v>
       </c>
       <c r="K129" s="12" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="L129" s="10" t="s">
         <v>67</v>
       </c>
       <c r="M129" s="13" t="s">
+        <v>875</v>
+      </c>
+      <c r="N129" s="14" t="s">
         <v>876</v>
-      </c>
-      <c r="N129" s="14" t="s">
-        <v>877</v>
       </c>
       <c r="O129" s="45" t="s">
         <v>499</v>
@@ -9730,10 +9730,10 @@
         <v>133</v>
       </c>
       <c r="B130" s="9" t="s">
+        <v>872</v>
+      </c>
+      <c r="C130" s="9" t="s">
         <v>873</v>
-      </c>
-      <c r="C130" s="9" t="s">
-        <v>874</v>
       </c>
       <c r="D130" s="10" t="s">
         <v>38</v>
@@ -9757,16 +9757,16 @@
         <v>134</v>
       </c>
       <c r="K130" s="12" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="L130" s="10" t="s">
         <v>67</v>
       </c>
       <c r="M130" s="13" t="s">
+        <v>875</v>
+      </c>
+      <c r="N130" s="14" t="s">
         <v>876</v>
-      </c>
-      <c r="N130" s="14" t="s">
-        <v>877</v>
       </c>
       <c r="O130" s="45" t="s">
         <v>499</v>
@@ -22023,7 +22023,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>12</v>
@@ -22045,31 +22045,31 @@
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" ht="63.75" x14ac:dyDescent="0.35">
       <c r="A2" s="9">
         <v>119</v>
       </c>
       <c r="B2" s="42" t="s">
+        <v>878</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>879</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="10" t="s">
         <v>880</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>881</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="48" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
       <c r="N2" s="14"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>121</v>
       </c>
@@ -22085,7 +22085,7 @@
       <c r="M3" s="10"/>
       <c r="N3" s="14"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>122</v>
       </c>
@@ -22101,7 +22101,7 @@
       <c r="M4" s="10"/>
       <c r="N4" s="14"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>123</v>
       </c>
@@ -22117,7 +22117,7 @@
       <c r="M5" s="10"/>
       <c r="N5" s="14"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>124</v>
       </c>
@@ -22133,7 +22133,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="14"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>125</v>
       </c>
@@ -22149,7 +22149,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="14"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>126</v>
       </c>
@@ -22165,7 +22165,7 @@
       <c r="M8" s="10"/>
       <c r="N8" s="14"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>127</v>
       </c>
@@ -22181,7 +22181,7 @@
       <c r="M9" s="10"/>
       <c r="N9" s="14"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>128</v>
       </c>
@@ -22197,7 +22197,7 @@
       <c r="M10" s="10"/>
       <c r="N10" s="14"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>129</v>
       </c>
@@ -22213,7 +22213,7 @@
       <c r="M11" s="10"/>
       <c r="N11" s="14"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>130</v>
       </c>
@@ -22229,7 +22229,7 @@
       <c r="M12" s="10"/>
       <c r="N12" s="14"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -22243,7 +22243,7 @@
       <c r="M13" s="10"/>
       <c r="N13" s="14"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -22257,7 +22257,7 @@
       <c r="M14" s="10"/>
       <c r="N14" s="14"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -22271,7 +22271,7 @@
       <c r="M15" s="10"/>
       <c r="N15" s="14"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -22285,7 +22285,7 @@
       <c r="M16" s="10"/>
       <c r="N16" s="14"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -22299,7 +22299,7 @@
       <c r="M17" s="10"/>
       <c r="N17" s="14"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -22313,7 +22313,7 @@
       <c r="M18" s="10"/>
       <c r="N18" s="14"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -22327,7 +22327,7 @@
       <c r="M19" s="10"/>
       <c r="N19" s="14"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -22341,7 +22341,7 @@
       <c r="M20" s="10"/>
       <c r="N20" s="14"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -22355,7 +22355,7 @@
       <c r="M21" s="10"/>
       <c r="N21" s="14"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -22369,7 +22369,7 @@
       <c r="M22" s="10"/>
       <c r="N22" s="14"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -22383,7 +22383,7 @@
       <c r="M23" s="10"/>
       <c r="N23" s="14"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -22397,7 +22397,7 @@
       <c r="M24" s="10"/>
       <c r="N24" s="14"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -22411,7 +22411,7 @@
       <c r="M25" s="10"/>
       <c r="N25" s="14"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -22425,7 +22425,7 @@
       <c r="M26" s="10"/>
       <c r="N26" s="14"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -22439,7 +22439,7 @@
       <c r="M27" s="10"/>
       <c r="N27" s="14"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -22453,7 +22453,7 @@
       <c r="M28" s="10"/>
       <c r="N28" s="14"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -22467,7 +22467,7 @@
       <c r="M29" s="10"/>
       <c r="N29" s="14"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -22481,7 +22481,7 @@
       <c r="M30" s="10"/>
       <c r="N30" s="14"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -22495,7 +22495,7 @@
       <c r="M31" s="10"/>
       <c r="N31" s="14"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -34240,10 +34240,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>883</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>884</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>9</v>
@@ -34252,7 +34252,7 @@
         <v>10</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>12</v>
@@ -34261,10 +34261,10 @@
         <v>13</v>
       </c>
       <c r="L1" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="M1" s="51" t="s">
         <v>885</v>
-      </c>
-      <c r="M1" s="51" t="s">
-        <v>886</v>
       </c>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
@@ -34281,13 +34281,13 @@
       <c r="Z1" s="5"/>
       <c r="AA1" s="5"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -34298,18 +34298,18 @@
       <c r="L2" s="10"/>
       <c r="M2" s="52"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" ht="34.9" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>43</v>
       </c>
       <c r="B3" s="27" t="s">
+        <v>887</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>888</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>889</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>890</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>286</v>
@@ -34336,19 +34336,19 @@
       <c r="M3" s="10"/>
       <c r="N3" s="14"/>
       <c r="O3" s="10" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="P3" s="52"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" ht="197.65" x14ac:dyDescent="0.35">
       <c r="A4" s="53">
         <v>74</v>
       </c>
       <c r="B4" s="54" t="s">
+        <v>891</v>
+      </c>
+      <c r="C4" s="55" t="s">
         <v>892</v>
-      </c>
-      <c r="C4" s="55" t="s">
-        <v>893</v>
       </c>
       <c r="D4" s="55" t="s">
         <v>38</v>
@@ -34372,16 +34372,16 @@
         <v>109</v>
       </c>
       <c r="K4" s="56" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="L4" s="55" t="s">
         <v>67</v>
       </c>
       <c r="M4" s="57" t="s">
+        <v>894</v>
+      </c>
+      <c r="N4" s="58" t="s">
         <v>895</v>
-      </c>
-      <c r="N4" s="58" t="s">
-        <v>896</v>
       </c>
       <c r="O4" s="8" t="s">
         <v>524</v>
@@ -34397,7 +34397,7 @@
       <c r="X4" s="8"/>
       <c r="Y4" s="8"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -34412,7 +34412,7 @@
       <c r="L5" s="10"/>
       <c r="M5" s="52"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -34427,7 +34427,7 @@
       <c r="L6" s="10"/>
       <c r="M6" s="52"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -34442,7 +34442,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="52"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -34457,7 +34457,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="52"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -34472,7 +34472,7 @@
       <c r="L9" s="10"/>
       <c r="M9" s="52"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -34487,7 +34487,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="52"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -34502,7 +34502,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="52"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -34517,7 +34517,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="52"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -34532,7 +34532,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="52"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -34547,7 +34547,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="52"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -34562,7 +34562,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="52"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -34577,7 +34577,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="52"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -34592,7 +34592,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="52"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -34607,7 +34607,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="52"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -34622,7 +34622,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="52"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -34637,7 +34637,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="52"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -34652,7 +34652,7 @@
       <c r="L21" s="10"/>
       <c r="M21" s="52"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -34667,7 +34667,7 @@
       <c r="L22" s="10"/>
       <c r="M22" s="52"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -34682,7 +34682,7 @@
       <c r="L23" s="10"/>
       <c r="M23" s="52"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -34697,7 +34697,7 @@
       <c r="L24" s="10"/>
       <c r="M24" s="52"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -34712,7 +34712,7 @@
       <c r="L25" s="10"/>
       <c r="M25" s="52"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -34727,7 +34727,7 @@
       <c r="L26" s="10"/>
       <c r="M26" s="52"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -34742,7 +34742,7 @@
       <c r="L27" s="10"/>
       <c r="M27" s="52"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -34757,7 +34757,7 @@
       <c r="L28" s="10"/>
       <c r="M28" s="52"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -34772,7 +34772,7 @@
       <c r="L29" s="10"/>
       <c r="M29" s="52"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -34787,7 +34787,7 @@
       <c r="L30" s="10"/>
       <c r="M30" s="52"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -34802,7 +34802,7 @@
       <c r="L31" s="10"/>
       <c r="M31" s="52"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>

--- a/TUEDweb/ALL_TUED_UNIONS.xlsx
+++ b/TUEDweb/ALL_TUED_UNIONS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\André\TUED\webmap\andreldeod.github.io\TUEDweb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3142416F-D795-430E-BE5B-5D337CF90AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6719FD-B371-419C-813B-CA9E7A764CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31890" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Participating_Unions" sheetId="1" r:id="rId1"/>
@@ -3647,8 +3647,8 @@
   <dimension ref="A1:Y980"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B104" sqref="B104"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3977,10 +3977,10 @@
         <v>57</v>
       </c>
       <c r="H7" s="11">
-        <v>-37.804510999999998</v>
+        <v>-37.759661999999999</v>
       </c>
       <c r="I7" s="11">
-        <v>144.96509499999999</v>
+        <v>144.91224299999999</v>
       </c>
       <c r="J7" s="10" t="s">
         <v>58</v>

--- a/TUEDweb/ALL_TUED_UNIONS.xlsx
+++ b/TUEDweb/ALL_TUED_UNIONS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\André\TUED\webmap\andreldeod.github.io\TUEDweb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6719FD-B371-419C-813B-CA9E7A764CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE017FF8-24DD-4FBA-BE89-C8C7653F029C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31890" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Participating_Unions" sheetId="1" r:id="rId1"/>
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1596" uniqueCount="898">
   <si>
     <t>id</t>
   </si>
@@ -357,7 +357,7 @@
     <t>https://fetia.org.ar/</t>
   </si>
   <si>
-    <t xml:space="preserve">La federación se constituye dentro de la Central de los Trabajadores Argentinos (CTA). </t>
+    <t>The Federación de Trabajadores de la Energía, Industria, Servicios y Afines (FeTIA) is an Argentine federation representing workers across the energy, industry, and services sectors. Aligned with the Central de Trabajadores de la Argentina (CTA), FeTIA advocates for labor rights, sustainable development, and social justice. The organization offers various services to its members, including legal consultations and publications on labor transformations. FeTIA actively participates in national and international labor discussions, emphasizing unity among workers and promoting a development model centered on sovereignty and dignified work.</t>
   </si>
   <si>
     <t>la Federación de Trabajadores de la Energía de la República Argentina,</t>
@@ -424,7 +424,7 @@
     <t>https://www.etunational.asn.au/</t>
   </si>
   <si>
-    <t>The ETU is a union of more than 60,000 electricians, apprentices and electrical workers around Australia.</t>
+    <t>The Electrical Trades Union of Australia (ETU) is a prominent trade union representing over 60,000 electricians, apprentices, and electrical workers nationwide. Established in 1919, the ETU is a division of the Communications, Electrical, Electronic, Energy, Information, Postal, Plumbing and Allied Services Union of Australia (CEPU). The union is dedicated to advocating for improved wages, safer working conditions, and overall betterment of life for all Australians. The ETU actively campaigns on various issues, including addressing skills shortages in the energy sector, opposing cuts to essential electricity maintenance, and promoting a nuclear-free energy policy.</t>
   </si>
   <si>
     <t>New South Wales Nurses and Midwives' Association</t>
@@ -472,7 +472,7 @@
     <t>https://www.nteu.au/</t>
   </si>
   <si>
-    <t>NTEU represents 27,000 university workers of all types across Australia.</t>
+    <t xml:space="preserve">The National Tertiary Education Union (NTEU) is an Australian trade union representing approximately 27,000 employees across the tertiary education sector, including academic and professional staff in universities, research institutes, and related organizations. Established in 1993 through the amalgamation of five separate unions, the NTEU is dedicated to advocating for safe and healthy workplaces, secure employment, academic freedom, wage justice, and the rights of Aboriginal and Torres Strait Islander peoples. The union actively campaigns against issues such as wage theft and governance failures within universities, striving to enhance conditions for both staff and students. </t>
   </si>
   <si>
     <t>Unions ACT</t>
@@ -598,7 +598,7 @@
     <t>https://www.abvv.be/</t>
   </si>
   <si>
-    <t>The General Union of Public Services (Dutch: Algemene Centrale der Openbare Diensten, ACOD; French: Centrale Générale des Services Publics, CGSP) is a trade union representing public sector workers in Belgium.</t>
+    <t>The Algemeen Belgisch Vakverbond (ABVV), known in French as the Fédération Générale du Travail de Belgique (FGTB) and in English as the General Labour Federation of Belgium, is a socialist national trade union federation in Belgium. Founded on April 29, 1945, through the merger of several labor organizations, the ABVV/FGTB advocates for workers' rights, social justice, equality, and democracy. As of 2017, it represents approximately 1.5 million members across various sectors, making it the second-largest trade union in Belgium. The federation is affiliated with international organizations such as the International Trade Union Confederation (ITUC), the European Trade Union Confederation (ETUC), and the Trade Union Advisory Committee (TUAC) to the OECD. The ABVV/FGTB operates through regional divisions in Flanders, Wallonia, and Brussels, and is structured into several sector-specific unions, including the General Union, the Association of Employees, Technicians and Managers, and the General Union of Public Services.</t>
   </si>
   <si>
     <t>BE</t>
@@ -739,7 +739,7 @@
     <t>https://www.facebook.com/synateec.syndicat/</t>
   </si>
   <si>
-    <t>Cameroon National Autonomous Union Of Energy, Water And Mines Workers Union (CANUEW)</t>
+    <t>The Syndicat National Autonome des Travailleurs de l'Énergie, de l'Eau et des Mines du Cameroun (SYNATEEC), also known as the Cameroon National Autonomous Union of Energy, Water, and Mines Workers (CANUEW), is a labor union in Cameroon representing professionals in the energy, water, and mining sectors.</t>
   </si>
   <si>
     <t>CM</t>
@@ -752,6 +752,9 @@
   </si>
   <si>
     <t>https://uploads-ssl.webflow.com/63276dc4e6b803208bf159df/6670d860cb532a13cb07acf3_SYNAFSEC.png</t>
+  </si>
+  <si>
+    <t>The Syndicat National Autonome des Ferrailleurs et de la Sauvegarde de l'Écosystème du Cameroun (SYNAFSEC) is a Cameroonian union representing professionals involved in scrap metal collection and recycling, with a focus on environmental protection.</t>
   </si>
   <si>
     <t xml:space="preserve">British Columbia General Employees' Union </t>
@@ -884,7 +887,7 @@
     <t>https://ftq.qc.ca/articles/tous/tous/tous/1</t>
   </si>
   <si>
-    <t xml:space="preserve">The Fédération des travailleurs et travailleuses du Québec is the largest labour federation in Quebec in terms of its membership. It has over 500,000 members, who account for 44% of the unionised workers in Quebec. This ratio is 60% in the private sector, in which most members work. </t>
+    <t>The Fédération des travailleurs et travailleuses du Québec (FTQ), or Quebec Federation of Labour, is the largest labor federation in Quebec, Canada. It represents over 600,000 members across various sectors, accounting for approximately 44% of unionized workers in the province. Notably, in the private sector, the FTQ's representation reaches 60%. Established in 1957 through the merger of the Fédération provinciale du travail du Québec and the Fédération des unions industrielles du Québec, the FTQ is committed to promoting the professional, social, economic, cultural, and political interests of Quebec workers, advocating for human rights, and striving for greater social justice.</t>
   </si>
   <si>
     <t>National Union of Public and General Employees</t>
@@ -922,7 +925,7 @@
     <t>https://psacunion.ca/</t>
   </si>
   <si>
-    <t>The Public Service Alliance of Canada represents more than 230000 workers in every province and territory in Canada and in locations around the world.</t>
+    <t>The Public Service Alliance of Canada (PSAC), known in French as Alliance de la Fonction publique du Canada (AFPC), is one of Canada's largest national labor unions, representing over 240,000 workers across all provinces and territories, as well as in international locations. Established in 1966 through the merger of the Civil Service Association of Canada and the Civil Service Federation of Canada, PSAC's members are employed in various sectors, including federal government departments and agencies, Crown corporations, universities, casinos, community service agencies, Indigenous communities, airports, and the security sector. The union is headquartered in Ottawa, Ontario, with 23 regional offices nationwide. PSAC is committed to advocating for fair wages, safe working conditions, and social justice, and is affiliated with the Canadian Labour Congress.</t>
   </si>
   <si>
     <t>Unifor</t>
@@ -945,7 +948,7 @@
     <t>https://www.unifor.org/</t>
   </si>
   <si>
-    <t>Unifor is Canada’s largest private sector union, with more than 315,000 members across the country, working in every major sector of the Canadian economy.</t>
+    <t>Unifor is Canada's largest private sector union, representing over 310,000 workers across various industries, including manufacturing, media, aviation, forestry, and fishing. Established in 2013 through the merger of the Canadian Auto Workers (CAW) and the Communications, Energy and Paperworkers Union of Canada (CEP), Unifor advocates for workers' rights, equality, and social justice. The union is headquartered in Toronto, Ontario, and operates nationwide. Unifor is affiliated with international organizations such as IndustriALL Global Union, the International Federation of Journalists, and the International Transport Workers' Federation.</t>
   </si>
   <si>
     <t>Vancouver and District Labour Council.</t>
@@ -985,7 +988,7 @@
     <t>https://vsta.ca/</t>
   </si>
   <si>
-    <t xml:space="preserve">The Vancouver Secondary Teachers’ Association (VSTA Local 39-2) is a sub-local of the BC Teachers’ Federation (BCTF). </t>
+    <t>The Vancouver Secondary Teachers' Association (VSTA) is a local union representing secondary school educators within the Vancouver School District in British Columbia, Canada. Affiliated with the British Columbia Teachers' Federation (BCTF), the VSTA advocates for the professional and economic welfare of its members, engaging in collective bargaining, professional development, and policy discussions to enhance public education. The association operates various committees focusing on areas such as health and safety, professional development, social and environmental justice, and support for 2SLGBTQ+ and BIPOC educators. Members have access to resources including information on benefits, leaves, salary understanding, and wellness programs. The VSTA also organizes events like professional development days and social gatherings to foster community among educators.</t>
   </si>
   <si>
     <t>Movement of United Professionals</t>
@@ -1347,7 +1350,8 @@
     <t>https://www.eyath.gr/?lang=en</t>
   </si>
   <si>
-    <t>EYATH SA provides daily water and sanitation services to more than 1.2 million citizens of Thessaloniki's urban planning complex.</t>
+    <t>The Thessaloniki Water Supply and Sewerage Company S.A. (EYATH) is served by a dedicated workers' union that has been actively involved in advocating for public control of water resources and opposing privatization efforts. In 2014, the union collaborated with local campaign platforms, such as "SOS te to Nero" (Save the Water), to organize a referendum opposing the privatization of EYATH. This initiative was supported by the European Federation of Public Service Unions (EPSU). 
+In 2023, after a prolonged struggle against privatization, water supply and sewage firms in Athens and Thessaloniki, including EYATH, were brought back under direct state control. This move was seen as a victory for trade unions and organizations fighting for the human right to water. EYATH SA provides daily water and sanitation services to more than 1.2 million residents of Thessaloniki.</t>
   </si>
   <si>
     <t>GR</t>
@@ -1394,7 +1398,7 @@
     <t>https://mandate.ie/</t>
   </si>
   <si>
-    <t>Mandate is a union of over 40,000 workers across Ireland. Members are retail, barn and administrative workers.</t>
+    <t xml:space="preserve">The Mandate Trade Union is an Irish organization representing over 40,000 workers in the retail, bar, and administrative sectors. It focuses on improving employment conditions, including fair wages, job security, and equitable treatment. Mandate offers members benefits such as legal representation, industrial support, and various training courses. The union actively campaigns on issues like abolishing sub-minimum wages, advocating for respect in the workplace, and supporting specific groups like Dunnes and Tesco workers. </t>
   </si>
   <si>
     <t>IE</t>
@@ -1576,8 +1580,7 @@
     <t>https://projects.ituc-csi.org/otm?lang=en</t>
   </si>
   <si>
-    <t>The Mozambique Workers’ Organization (Organização dos Trabalhadores de Moçambique)(OTM) is a national trade union center in Mozambique.
-The OTM was formed in 1983 and has a membership of 250 000.</t>
+    <t xml:space="preserve">The Organização dos Trabalhadores de Moçambique – Central Sindical (OTM-CS), or Mozambique Workers' Organization – Trade Union Center, is a national trade union center in Mozambique. Established in 1983, OTM-CS represents approximately 250,000 members across various sectors. The organization is committed to promoting workers' rights, improving working conditions, and fostering social dialogue within the country. OTM-CS is involved in numerous projects aimed at strengthening the trade union movement, enhancing social dialogue, and supporting vocational education and training in Mozambique. </t>
   </si>
   <si>
     <t>MZ</t>
@@ -1856,7 +1859,7 @@
     <t>https://kilusangmayouno.com/</t>
   </si>
   <si>
-    <t>Kilusang Mayo Uno (KMU) is an independent labour center promoting genuine, militant and patriotic trade unionism.</t>
+    <t>The Kilusang Mayo Uno (KMU), or May First Movement, is an independent labor center in the Philippines that promotes genuine, militant, and patriotic trade unionism. Established on May 1, 1980, during the final years of Martial Law under the Marcos dictatorship, KMU was founded to advocate for workers' rights and oppose foreign domination. The organization aims to protect and promote workers' rights to employment, decent wages, humane working conditions, and the freedom to form unions, bargain collectively, and strike. KMU's membership spans industrial, service, and agricultural sectors, comprising nine labor federations and three mass organizations, including the Pagkakaisa ng mga Samahan ng Tsuper at Operator Nationwide (PISTON), Kalipunan ng Damayang Mahihirap (KADAMAY), and MIGRANTE Philippines. The union has regional chapters across Luzon, Visayas, and Mindanao. Internationally, KMU maintains bilateral and working relations with unions in Asia-Pacific, Europe, Latin America, Africa, and North America. It is affiliated with the International Trade Union Confederation (ITUC) and ITUC Asia Pacific, and is a member of various international networks and organizations.</t>
   </si>
   <si>
     <t>PH</t>
@@ -2392,7 +2395,7 @@
     <t>https://www.ibew.org/</t>
   </si>
   <si>
-    <t>The International Brotherhood of Electrical Workers (IBEW) is a labor union that represents approximately 820,000 workers and retirees[1] in the electrical industry in the United States, Canada,[3] Guam,[4][5] Panama,[6] Puerto Rico,[7] and the US Virgin Islands;[7] in particular electricians, or inside wiremen, in the construction industry and lineworkers and other employees of public utilities. The union also represents some workers in the computer, telecommunications, and broadcasting industries, and other fields related to electrical work.</t>
+    <t>The International Brotherhood of Electrical Workers (IBEW) is a labor union that represents approximately 820,000 workers and retirees in the electrical industry in the United States, Canada, Guam, Panama, Puerto Rico, and the US Virgin Islands; in particular electricians, or inside wiremen, in the construction industry and lineworkers and other employees of public utilities. The union also represents some workers in the computer, telecommunications, and broadcasting industries, and other fields related to electrical work.</t>
   </si>
   <si>
     <t xml:space="preserve">The National Education Association </t>
@@ -2490,6 +2493,9 @@
 The Pennsylvania Federation specifically serves members within the state, focusing on regional issues and advocating for fair labor practices, safety standards, and equitable compensation for its members. In 2004, the BMWED merged with the IBT to strengthen its representation and resources.</t>
   </si>
   <si>
+    <t>The Professional Staff Congress at the City University of New York and the CUNY Research Foundation</t>
+  </si>
+  <si>
     <t>PSC CUNY</t>
   </si>
   <si>
@@ -2622,7 +2628,7 @@
     <t>https://www.ugtt.org.tn/</t>
   </si>
   <si>
-    <t>The General Fedeartion of Electricity and Gas  (FGEG) is the UGTT national centre's affialite branch that focuses on electricity and gas. The FGEG has opposed the privatization of electricity production in Tunisia, and has called for the non-commodification of electricity. The FGEG has also protested against policies that would favor private investors over the public utility, STEG. UGTT is the Tunisian General Labour Union (UGTT), a national trade union center with a membership of more than one million workers. Founded January 20, 1946, the UGTT is affiliated with the International Trade Union Confederation and the Arab Trade Union Confederation.</t>
+    <t>The General Federation of Electricity and Gas  (FGEG) is the UGTT national centre's affialite branch that focuses on electricity and gas. The FGEG has opposed the privatization of electricity production in Tunisia, and has called for the non-commodification of electricity. The FGEG has also protested against policies that would favor private investors over the public utility, STEG. UGTT is the Tunisian General Labour Union (UGTT), a national trade union center with a membership of more than one million workers. Founded January 20, 1946, the UGTT is affiliated with the International Trade Union Confederation and the Arab Trade Union Confederation.</t>
   </si>
   <si>
     <t>TN</t>
@@ -2797,7 +2803,7 @@
     <t>https://www.facebook.com/profile.php?id=61552687165742#</t>
   </si>
   <si>
-    <t>National Autonomous trade union of Technical education, Research, literacy, professional and vocational training</t>
+    <t>The Syndicat National de l'Enseignement Technique de la Recherche (National Union of Technical Education and Research) is a union representing educators involved in technical education and research. The union emphasizes the pivotal role teachers play in shaping the minds and futures of their students.</t>
   </si>
   <si>
     <t>Workers Union Coalition of Palestine</t>
@@ -3002,9 +3008,6 @@
   </si>
   <si>
     <t>The Electrician and IT Workers' Union is a trade union in Norway. The union was formed by the 1999 merger of the Norwegian Union of Electricians and Power Station Workers, and the Norwegian Telecommunication and Data Workers' Union.</t>
-  </si>
-  <si>
-    <t>The Professional Staff Congress at the City University of New York and the CUNY Research Foundation</t>
   </si>
 </sst>
 </file>
@@ -3093,11 +3096,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -3107,6 +3105,11 @@
       <u/>
       <sz val="8"/>
       <color rgb="FF56A3F1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -3216,7 +3219,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3239,12 +3242,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FFFF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFAF8F4"/>
-        <bgColor rgb="FFFAF8F4"/>
       </patternFill>
     </fill>
     <fill>
@@ -3324,8 +3321,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3333,13 +3330,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3354,8 +3348,8 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3365,13 +3359,16 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3392,8 +3389,8 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3407,11 +3404,11 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3644,11 +3641,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y980"/>
+  <dimension ref="A1:Y979"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D139" sqref="D139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3719,7 +3716,7 @@
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
     </row>
-    <row r="2" spans="1:25" ht="81.400000000000006" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -3766,7 +3763,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="91.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -3813,7 +3810,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="81.400000000000006" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>5</v>
       </c>
@@ -3860,7 +3857,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="71.25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>6</v>
       </c>
@@ -3907,7 +3904,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="61.15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>7</v>
       </c>
@@ -3954,7 +3951,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="111.75" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>8</v>
       </c>
@@ -4001,7 +3998,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="91.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>9</v>
       </c>
@@ -4048,7 +4045,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="91.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>10</v>
       </c>
@@ -4095,7 +4092,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="91.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>11</v>
       </c>
@@ -4142,7 +4139,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="101.65" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>12</v>
       </c>
@@ -4189,7 +4186,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="91.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>13</v>
       </c>
@@ -4236,7 +4233,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="91.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
         <v>14</v>
       </c>
@@ -4283,7 +4280,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="91.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
         <v>15</v>
       </c>
@@ -4330,7 +4327,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="91.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
         <v>16</v>
       </c>
@@ -4377,7 +4374,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="91.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
         <v>17</v>
       </c>
@@ -4424,7 +4421,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="111.75" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
         <v>18</v>
       </c>
@@ -4471,7 +4468,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
         <v>19</v>
       </c>
@@ -4518,7 +4515,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
         <v>20</v>
       </c>
@@ -4565,7 +4562,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="81.400000000000006" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="9">
         <v>21</v>
       </c>
@@ -4612,7 +4609,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="81.400000000000006" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
         <v>22</v>
       </c>
@@ -4659,7 +4656,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="71.25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
         <v>23</v>
       </c>
@@ -4706,7 +4703,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="61.15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="9">
         <v>24</v>
       </c>
@@ -4744,32 +4741,34 @@
         <v>67</v>
       </c>
       <c r="M23" s="10"/>
-      <c r="N23" s="14"/>
+      <c r="N23" s="21" t="s">
+        <v>179</v>
+      </c>
       <c r="O23" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="9">
         <v>25</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H24" s="11">
         <v>49.246527389999997</v>
@@ -4778,45 +4777,45 @@
         <v>-122.9757062</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M24" s="15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N24" s="14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="9">
         <v>26</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>192</v>
+        <v>183</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>193</v>
       </c>
       <c r="H25" s="11">
         <v>49.26582389</v>
@@ -4825,45 +4824,45 @@
         <v>-123.1172131</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L25" s="10" t="s">
         <v>83</v>
       </c>
       <c r="M25" s="15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N25" s="14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="9">
         <v>27</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H26" s="11">
         <v>45.371397989999998</v>
@@ -4872,45 +4871,45 @@
         <v>-75.689281719999997</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L26" s="10" t="s">
         <v>29</v>
       </c>
       <c r="M26" s="15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N26" s="14" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="9">
         <v>28</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H27" s="11">
         <v>45.418122429999997</v>
@@ -4919,45 +4918,45 @@
         <v>-75.632936240000006</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L27" s="10" t="s">
         <v>23</v>
       </c>
       <c r="M27" s="15" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N27" s="14" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O27" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="9">
         <v>29</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H28" s="11">
         <v>45.413802349999997</v>
@@ -4966,45 +4965,45 @@
         <v>-75.694667449999997</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L28" s="10" t="s">
         <v>125</v>
       </c>
       <c r="M28" s="13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N28" s="14" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="9">
         <v>30</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>72</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H29" s="11">
         <v>45.546885420000002</v>
@@ -5013,45 +5012,45 @@
         <v>-73.63817444</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L29" s="10" t="s">
         <v>23</v>
       </c>
       <c r="M29" s="15" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N29" s="14" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O29" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="81.400000000000006" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="9">
         <v>31</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H30" s="11">
         <v>45.334954439999997</v>
@@ -5060,45 +5059,45 @@
         <v>-75.703985759999995</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L30" s="10" t="s">
         <v>125</v>
       </c>
       <c r="M30" s="15" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N30" s="14" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O30" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="81.400000000000006" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="9">
         <v>32</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H31" s="11">
         <v>45.416356059999998</v>
@@ -5107,45 +5106,45 @@
         <v>-75.69086145</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L31" s="10" t="s">
         <v>125</v>
       </c>
       <c r="M31" s="15" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N31" s="14" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O31" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="9">
         <v>33</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H32" s="11">
         <v>43.80268547</v>
@@ -5154,22 +5153,22 @@
         <v>-79.344046320000004</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M32" s="13" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N32" s="14" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O32" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:25" ht="91.5" x14ac:dyDescent="0.35">
@@ -5177,22 +5176,22 @@
         <v>34</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>72</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H33" s="11">
         <v>49.283540039999998</v>
@@ -5201,45 +5200,45 @@
         <v>-123.0657997</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L33" s="10" t="s">
         <v>23</v>
       </c>
       <c r="M33" s="15" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N33" s="14" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O33" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" ht="91.5" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" ht="116.25" x14ac:dyDescent="0.35">
       <c r="A34" s="9">
         <v>35</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>72</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H34" s="11">
         <v>49.265870290000002</v>
@@ -5248,22 +5247,22 @@
         <v>-123.1060402</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L34" s="10" t="s">
         <v>83</v>
       </c>
       <c r="M34" s="13" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N34" s="14" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O34" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:25" ht="93" x14ac:dyDescent="0.35">
@@ -5271,22 +5270,22 @@
         <v>36</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H35" s="11">
         <v>49.230513360000003</v>
@@ -5295,22 +5294,22 @@
         <v>-123.0037913</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="K35" s="23" t="s">
-        <v>256</v>
+        <v>185</v>
+      </c>
+      <c r="K35" s="22" t="s">
+        <v>257</v>
       </c>
       <c r="L35" s="10" t="s">
         <v>23</v>
       </c>
       <c r="M35" s="15" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N35" s="14" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O35" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:25" ht="71.25" x14ac:dyDescent="0.35">
@@ -5318,22 +5317,22 @@
         <v>37</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H36" s="11">
         <v>-33.445240990000002</v>
@@ -5345,42 +5344,42 @@
         <v>21</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L36" s="10" t="s">
         <v>29</v>
       </c>
       <c r="M36" s="15" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N36" s="14" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O36" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37" spans="1:25" ht="101.65" x14ac:dyDescent="0.35">
       <c r="A37" s="9">
         <v>38</v>
       </c>
-      <c r="B37" s="24" t="s">
-        <v>267</v>
+      <c r="B37" s="23" t="s">
+        <v>268</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H37" s="11">
         <v>-33.417164759999999</v>
@@ -5392,19 +5391,19 @@
         <v>21</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L37" s="10" t="s">
         <v>165</v>
       </c>
       <c r="M37" s="13" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N37" s="14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O37" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:25" ht="91.5" x14ac:dyDescent="0.35">
@@ -5412,22 +5411,22 @@
         <v>39</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H38" s="11">
         <v>4.6253558789999998</v>
@@ -5439,19 +5438,19 @@
         <v>21</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L38" s="10" t="s">
         <v>29</v>
       </c>
       <c r="M38" s="15" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N38" s="14" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O38" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39" spans="1:25" ht="91.5" x14ac:dyDescent="0.35">
@@ -5459,22 +5458,22 @@
         <v>40</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H39" s="11">
         <v>4.6002685469999998</v>
@@ -5486,19 +5485,19 @@
         <v>21</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L39" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="M39" s="25" t="s">
-        <v>282</v>
+      <c r="M39" s="24" t="s">
+        <v>283</v>
       </c>
       <c r="N39" s="14" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O39" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="40" spans="1:25" ht="101.65" x14ac:dyDescent="0.35">
@@ -5506,22 +5505,22 @@
         <v>41</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>72</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H40" s="11">
         <v>3.4552851659999999</v>
@@ -5533,42 +5532,42 @@
         <v>21</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L40" s="10" t="s">
         <v>125</v>
       </c>
       <c r="M40" s="15" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N40" s="14" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41" spans="1:25" ht="101.65" x14ac:dyDescent="0.35">
       <c r="A41" s="9">
         <v>42</v>
       </c>
-      <c r="B41" s="26" t="s">
-        <v>290</v>
+      <c r="B41" s="25" t="s">
+        <v>291</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H41" s="11">
         <v>7.0659280850000004</v>
@@ -5580,19 +5579,19 @@
         <v>21</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L41" s="10" t="s">
         <v>165</v>
       </c>
       <c r="M41" s="15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N41" s="14" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O41" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="42" spans="1:25" ht="111.75" x14ac:dyDescent="0.35">
@@ -5600,22 +5599,22 @@
         <v>44</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H42" s="11">
         <v>-0.21909969400000001</v>
@@ -5626,40 +5625,40 @@
       <c r="J42" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K42" s="23" t="s">
-        <v>301</v>
+      <c r="K42" s="22" t="s">
+        <v>302</v>
       </c>
       <c r="L42" s="10" t="s">
         <v>29</v>
       </c>
       <c r="M42" s="15" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N42" s="14" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O42" s="8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="43" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A43" s="27">
+      <c r="A43" s="26">
         <v>45</v>
       </c>
-      <c r="B43" s="27" t="s">
-        <v>305</v>
-      </c>
-      <c r="C43" s="27"/>
-      <c r="D43" s="28" t="s">
+      <c r="B43" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="C43" s="26"/>
+      <c r="D43" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="E43" s="28" t="s">
-        <v>306</v>
-      </c>
-      <c r="F43" s="28" t="s">
-        <v>306</v>
-      </c>
-      <c r="G43" s="28" t="s">
+      <c r="E43" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="F43" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="G43" s="27" t="s">
         <v>171</v>
       </c>
       <c r="H43" s="11">
@@ -5668,38 +5667,38 @@
       <c r="I43" s="11">
         <v>31.1333345</v>
       </c>
-      <c r="J43" s="28" t="s">
+      <c r="J43" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="K43" s="29"/>
-      <c r="L43" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="M43" s="28"/>
-      <c r="N43" s="30"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="M43" s="27"/>
+      <c r="N43" s="29"/>
       <c r="O43" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="P43" s="31"/>
-      <c r="Q43" s="31"/>
-      <c r="R43" s="31"/>
-      <c r="S43" s="31"/>
-      <c r="T43" s="31"/>
-      <c r="U43" s="31"/>
-      <c r="V43" s="31"/>
-      <c r="W43" s="31"/>
-      <c r="X43" s="31"/>
-      <c r="Y43" s="31"/>
+        <v>308</v>
+      </c>
+      <c r="P43" s="30"/>
+      <c r="Q43" s="30"/>
+      <c r="R43" s="30"/>
+      <c r="S43" s="30"/>
+      <c r="T43" s="30"/>
+      <c r="U43" s="30"/>
+      <c r="V43" s="30"/>
+      <c r="W43" s="30"/>
+      <c r="X43" s="30"/>
+      <c r="Y43" s="30"/>
     </row>
     <row r="44" spans="1:25" ht="91.5" x14ac:dyDescent="0.35">
       <c r="A44" s="9">
         <v>46</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>17</v>
@@ -5707,10 +5706,10 @@
       <c r="E44" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="F44" s="32" t="s">
+      <c r="F44" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="G44" s="24" t="s">
+      <c r="G44" s="23" t="s">
         <v>123</v>
       </c>
       <c r="H44" s="11">
@@ -5723,16 +5722,16 @@
         <v>109</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L44" s="10" t="s">
         <v>125</v>
       </c>
       <c r="M44" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="N44" s="33" t="s">
         <v>312</v>
+      </c>
+      <c r="N44" s="32" t="s">
+        <v>313</v>
       </c>
       <c r="O44" s="8" t="s">
         <v>128</v>
@@ -5743,10 +5742,10 @@
         <v>47</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>17</v>
@@ -5754,10 +5753,10 @@
       <c r="E45" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="F45" s="32" t="s">
+      <c r="F45" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="G45" s="24" t="s">
+      <c r="G45" s="23" t="s">
         <v>123</v>
       </c>
       <c r="H45" s="11">
@@ -5770,16 +5769,16 @@
         <v>109</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L45" s="10" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M45" s="15" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N45" s="14" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O45" s="8" t="s">
         <v>128</v>
@@ -5790,22 +5789,22 @@
         <v>48</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E46" s="32" t="s">
-        <v>321</v>
-      </c>
-      <c r="F46" s="32" t="s">
+      <c r="E46" s="31" t="s">
+        <v>322</v>
+      </c>
+      <c r="F46" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="G46" s="24" t="s">
-        <v>322</v>
+      <c r="G46" s="23" t="s">
+        <v>323</v>
       </c>
       <c r="H46" s="11">
         <v>42.884474769999997</v>
@@ -5817,16 +5816,16 @@
         <v>109</v>
       </c>
       <c r="K46" s="12" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L46" s="10" t="s">
         <v>23</v>
       </c>
       <c r="M46" s="15" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N46" s="14" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O46" s="8" t="s">
         <v>113</v>
@@ -5836,23 +5835,23 @@
       <c r="A47" s="9">
         <v>49</v>
       </c>
-      <c r="B47" s="26" t="s">
-        <v>326</v>
+      <c r="B47" s="25" t="s">
+        <v>327</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H47" s="11">
         <v>5.5519805</v>
@@ -5864,19 +5863,19 @@
         <v>134</v>
       </c>
       <c r="K47" s="12" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L47" s="10" t="s">
         <v>125</v>
       </c>
       <c r="M47" s="15" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N47" s="14" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O47" s="8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="48" spans="1:25" ht="81.400000000000006" x14ac:dyDescent="0.35">
@@ -5884,21 +5883,21 @@
         <v>50</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F48" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="G48" s="24" t="s">
+      <c r="G48" s="23" t="s">
         <v>123</v>
       </c>
       <c r="H48" s="11">
@@ -5908,19 +5907,19 @@
         <v>4.3313706999999999</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K48" s="12" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L48" s="10" t="s">
         <v>83</v>
       </c>
       <c r="M48" s="15" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N48" s="14" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O48" s="8" t="s">
         <v>128</v>
@@ -5930,23 +5929,23 @@
       <c r="A49" s="9">
         <v>51</v>
       </c>
-      <c r="B49" s="34" t="s">
-        <v>341</v>
+      <c r="B49" s="33" t="s">
+        <v>342</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H49" s="11">
         <v>51.464404199999997</v>
@@ -5955,45 +5954,45 @@
         <v>-8.2082484999999997E-2</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L49" s="10" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M49" s="15" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N49" s="14" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O49" s="8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
       <c r="A50" s="9">
         <v>52</v>
       </c>
-      <c r="B50" s="34" t="s">
-        <v>349</v>
+      <c r="B50" s="33" t="s">
+        <v>350</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H50" s="11">
         <v>46.210007500000003</v>
@@ -6002,22 +6001,22 @@
         <v>6.140028</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K50" s="12" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L50" s="10" t="s">
         <v>23</v>
       </c>
       <c r="M50" s="15" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N50" s="14" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O50" s="8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -6025,22 +6024,22 @@
         <v>53</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H51" s="11">
         <v>46.26248116</v>
@@ -6049,45 +6048,45 @@
         <v>6.0721476159999996</v>
       </c>
       <c r="J51" s="10" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K51" s="12" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L51" s="10" t="s">
         <v>125</v>
       </c>
       <c r="M51" s="15" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N51" s="14" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O51" s="8" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="104.65" x14ac:dyDescent="0.35">
       <c r="A52" s="9">
         <v>54</v>
       </c>
-      <c r="B52" s="35" t="s">
-        <v>365</v>
+      <c r="B52" s="34" t="s">
+        <v>366</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E52" s="21" t="s">
-        <v>367</v>
+      <c r="E52" s="35" t="s">
+        <v>368</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H52" s="11">
         <v>40.629915820000001</v>
@@ -6099,19 +6098,19 @@
         <v>109</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L52" s="10" t="s">
         <v>125</v>
       </c>
       <c r="M52" s="15" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N52" s="14" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O52" s="8" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -6119,22 +6118,22 @@
         <v>55</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D53" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H53" s="11">
         <v>28.562263489999999</v>
@@ -6146,19 +6145,19 @@
         <v>58</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L53" s="10" t="s">
         <v>29</v>
       </c>
       <c r="M53" s="13" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N53" s="14" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O53" s="8" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="71.25" x14ac:dyDescent="0.35">
@@ -6166,22 +6165,22 @@
         <v>56</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D54" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H54" s="11">
         <v>53.353532370000003</v>
@@ -6193,19 +6192,19 @@
         <v>109</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L54" s="10" t="s">
         <v>23</v>
       </c>
       <c r="M54" s="15" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N54" s="36" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="O54" s="8" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -6213,22 +6212,22 @@
         <v>57</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D55" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H55" s="11">
         <v>41.911398839999997</v>
@@ -6240,19 +6239,19 @@
         <v>109</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L55" s="10" t="s">
         <v>29</v>
       </c>
       <c r="M55" s="13" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N55" s="14" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O55" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="71.25" x14ac:dyDescent="0.35">
@@ -6260,22 +6259,22 @@
         <v>58</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H56" s="11">
         <v>-1.2765567799999999</v>
@@ -6287,19 +6286,19 @@
         <v>134</v>
       </c>
       <c r="K56" s="12" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L56" s="10" t="s">
         <v>67</v>
       </c>
       <c r="M56" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N56" s="14" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O56" s="8" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="232.5" x14ac:dyDescent="0.35">
@@ -6307,22 +6306,22 @@
         <v>59</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H57" s="11">
         <v>37.547555189999997</v>
@@ -6334,19 +6333,19 @@
         <v>58</v>
       </c>
       <c r="K57" s="12" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L57" s="10" t="s">
         <v>23</v>
       </c>
       <c r="M57" s="15" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N57" s="14" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O57" s="8" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="61.15" x14ac:dyDescent="0.35">
@@ -6354,22 +6353,22 @@
         <v>60</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H58" s="11">
         <v>37.568352369999999</v>
@@ -6381,19 +6380,19 @@
         <v>58</v>
       </c>
       <c r="K58" s="16" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L58" s="10" t="s">
         <v>29</v>
       </c>
       <c r="M58" s="15" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N58" s="14" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O58" s="8" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="61.15" x14ac:dyDescent="0.35">
@@ -6401,22 +6400,22 @@
         <v>61</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H59" s="11">
         <v>18.086427</v>
@@ -6428,19 +6427,19 @@
         <v>134</v>
       </c>
       <c r="K59" s="37" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L59" s="10" t="s">
         <v>29</v>
       </c>
       <c r="M59" s="15" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N59" s="14" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O59" s="8" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -6448,22 +6447,22 @@
         <v>62</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H60" s="11">
         <v>19.434547540000001</v>
@@ -6475,19 +6474,19 @@
         <v>21</v>
       </c>
       <c r="K60" s="12" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L60" s="10" t="s">
         <v>67</v>
       </c>
       <c r="M60" s="15" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N60" s="14" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="O60" s="8" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -6495,22 +6494,22 @@
         <v>63</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H61" s="11">
         <v>19.4443883</v>
@@ -6522,19 +6521,19 @@
         <v>21</v>
       </c>
       <c r="K61" s="12" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L61" s="10" t="s">
         <v>165</v>
       </c>
       <c r="M61" s="15" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N61" s="14" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O61" s="8" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -6542,22 +6541,22 @@
         <v>64</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H62" s="11">
         <v>-25.953425330000002</v>
@@ -6569,19 +6568,19 @@
         <v>134</v>
       </c>
       <c r="K62" s="12" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L62" s="10" t="s">
         <v>29</v>
       </c>
       <c r="M62" s="13" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N62" s="14" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O62" s="8" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -6589,22 +6588,22 @@
         <v>65</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H63" s="11">
         <v>-22.570006100000001</v>
@@ -6616,19 +6615,19 @@
         <v>134</v>
       </c>
       <c r="K63" s="12" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L63" s="10" t="s">
         <v>29</v>
       </c>
       <c r="M63" s="15" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N63" s="14" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O63" s="8" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="139.5" x14ac:dyDescent="0.35">
@@ -6636,22 +6635,22 @@
         <v>66</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H64" s="11">
         <v>27.702627960000001</v>
@@ -6663,19 +6662,19 @@
         <v>58</v>
       </c>
       <c r="K64" s="12" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L64" s="10" t="s">
         <v>29</v>
       </c>
       <c r="M64" s="15" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N64" s="14" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O64" s="8" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -6683,22 +6682,22 @@
         <v>67</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H65" s="11">
         <v>27.694147869999998</v>
@@ -6710,19 +6709,19 @@
         <v>58</v>
       </c>
       <c r="K65" s="12" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L65" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M65" s="15" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N65" s="14" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O65" s="8" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="101.65" x14ac:dyDescent="0.35">
@@ -6730,22 +6729,22 @@
         <v>68</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H66" s="11">
         <v>-37.78537163</v>
@@ -6757,19 +6756,19 @@
         <v>58</v>
       </c>
       <c r="K66" s="12" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L66" s="10" t="s">
         <v>23</v>
       </c>
       <c r="M66" s="15" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N66" s="14" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O66" s="8" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="101.65" x14ac:dyDescent="0.35">
@@ -6777,22 +6776,22 @@
         <v>69</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H67" s="11">
         <v>-41.281005100000002</v>
@@ -6804,19 +6803,19 @@
         <v>58</v>
       </c>
       <c r="K67" s="12" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L67" s="10" t="s">
         <v>125</v>
       </c>
       <c r="M67" s="15" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N67" s="14" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O67" s="8" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -6824,22 +6823,22 @@
         <v>70</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H68" s="11">
         <v>-36.872185610000002</v>
@@ -6851,19 +6850,19 @@
         <v>58</v>
       </c>
       <c r="K68" s="12" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L68" s="10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M68" s="13" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N68" s="14" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O68" s="8" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -6871,22 +6870,22 @@
         <v>71</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>492</v>
-      </c>
-      <c r="C69" s="21" t="s">
         <v>493</v>
+      </c>
+      <c r="C69" s="35" t="s">
+        <v>494</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H69" s="11">
         <v>13.518651800000001</v>
@@ -6898,19 +6897,19 @@
         <v>134</v>
       </c>
       <c r="K69" s="12" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L69" s="10" t="s">
         <v>29</v>
       </c>
       <c r="M69" s="15" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="N69" s="14" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="O69" s="8" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="81.400000000000006" x14ac:dyDescent="0.35">
@@ -6918,22 +6917,22 @@
         <v>72</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D70" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H70" s="11">
         <v>6.5074042820000004</v>
@@ -6945,19 +6944,19 @@
         <v>134</v>
       </c>
       <c r="K70" s="12" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="L70" s="10" t="s">
         <v>67</v>
       </c>
       <c r="M70" s="15" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="N70" s="14" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="O70" s="8" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -6965,22 +6964,22 @@
         <v>73</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H71" s="11">
         <v>59.33648616</v>
@@ -6992,19 +6991,19 @@
         <v>109</v>
       </c>
       <c r="K71" s="20" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L71" s="10" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M71" s="15" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="N71" s="14" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="O71" s="8" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -7012,22 +7011,22 @@
         <v>75</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H72" s="11">
         <v>59.915615289999998</v>
@@ -7039,19 +7038,19 @@
         <v>109</v>
       </c>
       <c r="K72" s="12" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L72" s="10" t="s">
         <v>23</v>
       </c>
       <c r="M72" s="15" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="N72" s="38" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="O72" s="8" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="101.65" x14ac:dyDescent="0.35">
@@ -7059,22 +7058,22 @@
         <v>76</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H73" s="11">
         <v>-12.05344232</v>
@@ -7086,42 +7085,42 @@
         <v>21</v>
       </c>
       <c r="K73" s="12" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L73" s="10" t="s">
         <v>125</v>
       </c>
       <c r="M73" s="13" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="N73" s="14" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="O73" s="8" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="151.15" x14ac:dyDescent="0.35">
       <c r="A74" s="9">
         <v>77</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D74" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H74" s="11">
         <v>14.677166</v>
@@ -7133,19 +7132,19 @@
         <v>58</v>
       </c>
       <c r="K74" s="12" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="L74" s="10" t="s">
         <v>23</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="N74" s="14" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="O74" s="8" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="174.4" x14ac:dyDescent="0.35">
@@ -7153,22 +7152,22 @@
         <v>78</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D75" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H75" s="11">
         <v>14.606104800000001</v>
@@ -7180,19 +7179,19 @@
         <v>58</v>
       </c>
       <c r="K75" s="12" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="L75" s="10" t="s">
         <v>29</v>
       </c>
       <c r="M75" s="15" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="N75" s="14" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="O75" s="8" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -7200,22 +7199,22 @@
         <v>79</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D76" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H76" s="11">
         <v>18.453226470000001</v>
@@ -7227,19 +7226,19 @@
         <v>21</v>
       </c>
       <c r="K76" s="12" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="L76" s="10" t="s">
         <v>67</v>
       </c>
       <c r="M76" s="15" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="N76" s="14" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="O76" s="8" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -7247,22 +7246,22 @@
         <v>80</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D77" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H77" s="11">
         <v>55.872712</v>
@@ -7274,19 +7273,19 @@
         <v>109</v>
       </c>
       <c r="K77" s="12" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L77" s="10" t="s">
         <v>29</v>
       </c>
       <c r="M77" s="15" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="N77" s="14" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O77" s="8" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="116.25" x14ac:dyDescent="0.35">
@@ -7294,22 +7293,22 @@
         <v>81</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D78" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H78" s="11">
         <v>14.72658348</v>
@@ -7321,19 +7320,19 @@
         <v>134</v>
       </c>
       <c r="K78" s="12" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="L78" s="10" t="s">
         <v>29</v>
       </c>
       <c r="M78" s="15" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="N78" s="14" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="O78" s="8" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -7341,22 +7340,22 @@
         <v>82</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D79" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H79" s="11">
         <v>-26.202404720000001</v>
@@ -7368,19 +7367,19 @@
         <v>134</v>
       </c>
       <c r="K79" s="12" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="L79" s="10" t="s">
         <v>40</v>
       </c>
       <c r="M79" s="15" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N79" s="14" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="O79" s="8" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -7388,22 +7387,22 @@
         <v>83</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D80" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H80" s="11">
         <v>-26.23313568</v>
@@ -7415,19 +7414,19 @@
         <v>134</v>
       </c>
       <c r="K80" s="12" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="L80" s="10" t="s">
         <v>29</v>
       </c>
       <c r="M80" s="15" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="N80" s="14" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="O80" s="8" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -7435,22 +7434,22 @@
         <v>84</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D81" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>511</v>
-      </c>
-      <c r="G81" s="21" t="s">
         <v>512</v>
+      </c>
+      <c r="G81" s="35" t="s">
+        <v>513</v>
       </c>
       <c r="H81" s="11">
         <v>59.3241272</v>
@@ -7462,19 +7461,19 @@
         <v>109</v>
       </c>
       <c r="K81" s="12" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="L81" s="10" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M81" s="15" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="N81" s="14" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="O81" s="8" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="82" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -7482,22 +7481,22 @@
         <v>85</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D82" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H82" s="11">
         <v>46.937537429999999</v>
@@ -7509,19 +7508,19 @@
         <v>109</v>
       </c>
       <c r="K82" s="12" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="L82" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M82" s="15" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N82" s="14" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="O82" s="8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -7529,22 +7528,22 @@
         <v>86</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D83" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H83" s="11">
         <v>52.114130699999997</v>
@@ -7556,19 +7555,19 @@
         <v>109</v>
       </c>
       <c r="K83" s="12" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="L83" s="10" t="s">
         <v>29</v>
       </c>
       <c r="M83" s="13" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="N83" s="14" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="O83" s="8" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -7576,22 +7575,22 @@
         <v>87</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D84" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H84" s="11">
         <v>10.285561400000001</v>
@@ -7603,19 +7602,19 @@
         <v>21</v>
       </c>
       <c r="K84" s="12" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="L84" s="10" t="s">
         <v>165</v>
       </c>
       <c r="M84" s="15" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="N84" s="14" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="O84" s="8" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -7623,22 +7622,22 @@
         <v>88</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D85" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H85" s="11">
         <v>0.220148076</v>
@@ -7650,19 +7649,19 @@
         <v>134</v>
       </c>
       <c r="K85" s="12" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="L85" s="10" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M85" s="13" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="N85" s="14" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="O85" s="8" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="34.9" x14ac:dyDescent="0.35">
@@ -7670,22 +7669,22 @@
         <v>89</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D86" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H86" s="11">
         <v>0.44811600000000001</v>
@@ -7702,10 +7701,10 @@
       </c>
       <c r="M86" s="10"/>
       <c r="N86" s="14" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="O86" s="8" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -7713,22 +7712,22 @@
         <v>90</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D87" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H87" s="11">
         <v>51.412633960000001</v>
@@ -7740,19 +7739,19 @@
         <v>109</v>
       </c>
       <c r="K87" s="12" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L87" s="10" t="s">
         <v>125</v>
       </c>
       <c r="M87" s="15" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N87" s="14" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="O87" s="8" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -7760,22 +7759,22 @@
         <v>91</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D88" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H88" s="11">
         <v>51.467132919999997</v>
@@ -7787,19 +7786,19 @@
         <v>109</v>
       </c>
       <c r="K88" s="12" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="L88" s="10" t="s">
         <v>125</v>
       </c>
       <c r="M88" s="15" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="N88" s="14" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="O88" s="8" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -7807,22 +7806,22 @@
         <v>92</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D89" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H89" s="11">
         <v>51.530137699999997</v>
@@ -7834,19 +7833,19 @@
         <v>109</v>
       </c>
       <c r="K89" s="12" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L89" s="10" t="s">
         <v>125</v>
       </c>
       <c r="M89" s="13" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N89" s="14" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="O89" s="8" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -7854,22 +7853,22 @@
         <v>93</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D90" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H90" s="11">
         <v>51.514874200000001</v>
@@ -7881,19 +7880,19 @@
         <v>109</v>
       </c>
       <c r="K90" s="12" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="L90" s="10" t="s">
         <v>40</v>
       </c>
       <c r="M90" s="13" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="N90" s="14" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="O90" s="8" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="91" spans="1:15" ht="93" x14ac:dyDescent="0.35">
@@ -7901,22 +7900,22 @@
         <v>94</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D91" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H91" s="11">
         <v>51.55713669</v>
@@ -7928,19 +7927,19 @@
         <v>109</v>
       </c>
       <c r="K91" s="12" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="L91" s="10" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M91" s="15" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="N91" s="14" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="O91" s="8" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="104.65" x14ac:dyDescent="0.35">
@@ -7948,22 +7947,22 @@
         <v>95</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>72</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H92" s="11">
         <v>41.760447820000003</v>
@@ -7972,22 +7971,22 @@
         <v>-72.646517119999999</v>
       </c>
       <c r="J92" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K92" s="12" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="L92" s="10" t="s">
         <v>76</v>
       </c>
       <c r="M92" s="13" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="N92" s="14" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="O92" s="8" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="101.65" x14ac:dyDescent="0.35">
@@ -7995,22 +7994,22 @@
         <v>96</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D93" s="10" t="s">
         <v>72</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H93" s="11">
         <v>40.50172688</v>
@@ -8019,22 +8018,22 @@
         <v>-74.447216699999998</v>
       </c>
       <c r="J93" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K93" s="12" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="L93" s="10" t="s">
         <v>83</v>
       </c>
       <c r="M93" s="13" t="s">
-        <v>661</v>
-      </c>
-      <c r="N93" s="33" t="s">
         <v>662</v>
       </c>
+      <c r="N93" s="32" t="s">
+        <v>663</v>
+      </c>
       <c r="O93" s="8" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="101.65" x14ac:dyDescent="0.35">
@@ -8042,22 +8041,22 @@
         <v>97</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D94" s="10" t="s">
         <v>72</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H94" s="11">
         <v>37.73193569</v>
@@ -8066,22 +8065,22 @@
         <v>-122.205586</v>
       </c>
       <c r="J94" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K94" s="12" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="L94" s="10" t="s">
         <v>125</v>
       </c>
       <c r="M94" s="13" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N94" s="40" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="O94" s="8" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -8089,22 +8088,22 @@
         <v>98</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D95" s="10" t="s">
         <v>72</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H95" s="11">
         <v>41.807014619999997</v>
@@ -8113,22 +8112,22 @@
         <v>-72.251484649999995</v>
       </c>
       <c r="J95" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K95" s="12" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="L95" s="10" t="s">
         <v>83</v>
       </c>
       <c r="M95" s="13" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="N95" s="14" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="O95" s="8" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -8136,22 +8135,22 @@
         <v>99</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D96" s="10" t="s">
         <v>72</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H96" s="11">
         <v>40.739022069999997</v>
@@ -8160,22 +8159,22 @@
         <v>-73.990546179999996</v>
       </c>
       <c r="J96" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K96" s="12" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="L96" s="10" t="s">
         <v>83</v>
       </c>
       <c r="M96" s="13" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N96" s="14" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="O96" s="8" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="97" spans="1:15" ht="101.65" x14ac:dyDescent="0.35">
@@ -8183,22 +8182,22 @@
         <v>100</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D97" s="10" t="s">
         <v>72</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H97" s="11">
         <v>34.049219260000001</v>
@@ -8207,22 +8206,22 @@
         <v>-118.2319865</v>
       </c>
       <c r="J97" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K97" s="12" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="L97" s="10" t="s">
         <v>67</v>
       </c>
       <c r="M97" s="13" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="N97" s="14" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="O97" s="8" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -8230,22 +8229,22 @@
         <v>101</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D98" s="10" t="s">
         <v>72</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G98" s="10" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H98" s="11">
         <v>40.734231219999998</v>
@@ -8254,22 +8253,22 @@
         <v>-73.803463179999994</v>
       </c>
       <c r="J98" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K98" s="12" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="L98" s="10" t="s">
         <v>67</v>
       </c>
       <c r="M98" s="15" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="N98" s="14" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="O98" s="8" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="99" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -8277,22 +8276,22 @@
         <v>102</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D99" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H99" s="11">
         <v>38.907703990000002</v>
@@ -8301,22 +8300,22 @@
         <v>-77.035786959999996</v>
       </c>
       <c r="J99" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K99" s="12" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="L99" s="10" t="s">
         <v>83</v>
       </c>
       <c r="M99" s="15" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="N99" s="14" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="O99" s="8" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="100" spans="1:15" ht="101.65" x14ac:dyDescent="0.35">
@@ -8324,22 +8323,22 @@
         <v>103</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D100" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G100" s="10" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H100" s="11">
         <v>42.357227940000001</v>
@@ -8348,22 +8347,22 @@
         <v>-71.058808670000005</v>
       </c>
       <c r="J100" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K100" s="12" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="L100" s="10" t="s">
         <v>23</v>
       </c>
       <c r="M100" s="18" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="N100" s="14" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="O100" s="8" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="101" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -8371,22 +8370,22 @@
         <v>104</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="D101" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H101" s="11">
         <v>37.829565670000001</v>
@@ -8395,22 +8394,22 @@
         <v>-122.2825812</v>
       </c>
       <c r="J101" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K101" s="12" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="L101" s="10" t="s">
         <v>76</v>
       </c>
       <c r="M101" s="15" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="N101" s="41" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="O101" s="8" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -8418,22 +8417,22 @@
         <v>105</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D102" s="10" t="s">
         <v>72</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G102" s="10" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H102" s="11">
         <v>40.683403200000001</v>
@@ -8442,22 +8441,22 @@
         <v>-73.977086560000004</v>
       </c>
       <c r="J102" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K102" s="12" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="L102" s="10" t="s">
         <v>76</v>
       </c>
       <c r="M102" s="13" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="N102" s="14" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="O102" s="8" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="101.65" x14ac:dyDescent="0.35">
@@ -8465,22 +8464,22 @@
         <v>106</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="D103" s="10" t="s">
         <v>72</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H103" s="11">
         <v>39.945942440000003</v>
@@ -8489,22 +8488,22 @@
         <v>-75.179841240000002</v>
       </c>
       <c r="J103" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K103" s="20" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="L103" s="10" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M103" s="13" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="N103" s="14" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="O103" s="8" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="104" spans="1:15" ht="101.65" x14ac:dyDescent="0.35">
@@ -8512,22 +8511,22 @@
         <v>107</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>896</v>
+        <v>726</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="D104" s="10" t="s">
         <v>72</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G104" s="10" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H104" s="11">
         <v>40.76381052</v>
@@ -8536,22 +8535,22 @@
         <v>-73.975035950000006</v>
       </c>
       <c r="J104" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K104" s="12" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="L104" s="10" t="s">
         <v>83</v>
       </c>
       <c r="M104" s="13" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="N104" s="14" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="O104" s="8" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="105" spans="1:15" ht="101.65" x14ac:dyDescent="0.35">
@@ -8559,22 +8558,22 @@
         <v>108</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="D105" s="10" t="s">
         <v>72</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G105" s="10" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H105" s="11">
         <v>37.80472503</v>
@@ -8583,22 +8582,22 @@
         <v>-122.2780382</v>
       </c>
       <c r="J105" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K105" s="12" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="L105" s="10" t="s">
         <v>23</v>
       </c>
       <c r="M105" s="13" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="N105" s="14" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="O105" s="8" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="106" spans="1:15" ht="81.400000000000006" x14ac:dyDescent="0.35">
@@ -8606,22 +8605,22 @@
         <v>109</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="D106" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G106" s="10" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="H106" s="11">
         <v>40.4319445</v>
@@ -8630,22 +8629,22 @@
         <v>-80.001931299999995</v>
       </c>
       <c r="J106" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K106" s="12" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="L106" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M106" s="13" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="N106" s="14" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="O106" s="8" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="107" spans="1:15" ht="101.65" x14ac:dyDescent="0.35">
@@ -8653,22 +8652,22 @@
         <v>110</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="D107" s="10" t="s">
         <v>72</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H107" s="11">
         <v>42.331905999999996</v>
@@ -8677,22 +8676,22 @@
         <v>-71.071959500000006</v>
       </c>
       <c r="J107" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K107" s="12" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="L107" s="10" t="s">
         <v>23</v>
       </c>
       <c r="M107" s="13" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="N107" s="14" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="O107" s="8" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="108" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -8700,22 +8699,22 @@
         <v>111</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="D108" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H108" s="11">
         <v>38.901495199999999</v>
@@ -8724,22 +8723,22 @@
         <v>-77.011364400000005</v>
       </c>
       <c r="J108" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K108" s="12" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="L108" s="10" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M108" s="15" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="N108" s="14" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="O108" s="8" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="109" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -8747,22 +8746,22 @@
         <v>112</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="D109" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H109" s="11">
         <v>40.721561749999999</v>
@@ -8771,22 +8770,22 @@
         <v>-73.995717540000001</v>
       </c>
       <c r="J109" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K109" s="12" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="L109" s="10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M109" s="15" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="N109" s="14" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="O109" s="8" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="110" spans="1:15" ht="61.15" x14ac:dyDescent="0.35">
@@ -8794,10 +8793,10 @@
         <v>113</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="D110" s="10" t="s">
         <v>38</v>
@@ -8821,16 +8820,16 @@
         <v>21</v>
       </c>
       <c r="K110" s="12" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="L110" s="10" t="s">
         <v>67</v>
       </c>
       <c r="M110" s="15" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="N110" s="14" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="O110" s="8" t="s">
         <v>26</v>
@@ -8841,22 +8840,22 @@
         <v>114</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="D111" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="H111" s="11">
         <v>36.801718649999998</v>
@@ -8868,42 +8867,42 @@
         <v>134</v>
       </c>
       <c r="K111" s="20" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="L111" s="10" t="s">
         <v>67</v>
       </c>
       <c r="M111" s="18" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="N111" s="14" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="O111" s="8" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="112" spans="1:15" ht="81.400000000000006" x14ac:dyDescent="0.35">
       <c r="A112" s="9">
         <v>115</v>
       </c>
-      <c r="B112" s="22" t="s">
-        <v>771</v>
+      <c r="B112" s="21" t="s">
+        <v>773</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="D112" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G112" s="10" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="H112" s="11">
         <v>48.854422649999997</v>
@@ -8914,20 +8913,20 @@
       <c r="J112" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="K112" s="23" t="s">
-        <v>774</v>
+      <c r="K112" s="22" t="s">
+        <v>776</v>
       </c>
       <c r="L112" s="10" t="s">
         <v>51</v>
       </c>
       <c r="M112" s="13" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="N112" s="14" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="O112" s="8" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="113" spans="1:15" ht="71.25" x14ac:dyDescent="0.35">
@@ -8935,22 +8934,22 @@
         <v>116</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="D113" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G113" s="10" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="H113" s="11">
         <v>14.57197246</v>
@@ -8962,19 +8961,19 @@
         <v>58</v>
       </c>
       <c r="K113" s="12" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="L113" s="10" t="s">
         <v>29</v>
       </c>
       <c r="M113" s="13" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="N113" s="14" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="O113" s="8" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="114" spans="1:15" ht="91.5" x14ac:dyDescent="0.35">
@@ -8982,22 +8981,22 @@
         <v>117</v>
       </c>
       <c r="B114" s="42" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D114" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G114" s="10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H114" s="11">
         <v>4.6253558789999998</v>
@@ -9009,19 +9008,19 @@
         <v>21</v>
       </c>
       <c r="K114" s="43" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="L114" s="10" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="M114" s="13" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="N114" s="14" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="O114" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="115" spans="1:15" ht="81.400000000000006" x14ac:dyDescent="0.35">
@@ -9029,22 +9028,22 @@
         <v>118</v>
       </c>
       <c r="B115" s="42" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="D115" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F115" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H115" s="11">
         <v>4.6858719999999998</v>
@@ -9056,19 +9055,19 @@
         <v>21</v>
       </c>
       <c r="K115" s="44" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="L115" s="10" t="s">
         <v>125</v>
       </c>
       <c r="M115" s="13" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="N115" s="14" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="O115" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="116" spans="1:15" ht="71.25" x14ac:dyDescent="0.35">
@@ -9076,22 +9075,22 @@
         <v>120</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="D116" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F116" s="10" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G116" s="10" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H116" s="45">
         <v>27.7316459557623</v>
@@ -9103,19 +9102,19 @@
         <v>58</v>
       </c>
       <c r="K116" s="12" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="L116" s="10" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="M116" s="13" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="N116" s="14" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="O116" s="45" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="117" spans="1:15" ht="101.65" x14ac:dyDescent="0.35">
@@ -9123,22 +9122,22 @@
         <v>121</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="D117" s="10" t="s">
         <v>72</v>
       </c>
       <c r="E117" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="F117" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="F117" s="10" t="s">
-        <v>261</v>
-      </c>
       <c r="G117" s="10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H117" s="45">
         <v>-33.514003000000002</v>
@@ -9150,19 +9149,19 @@
         <v>21</v>
       </c>
       <c r="K117" s="12" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="L117" s="10" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M117" s="13" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="N117" s="14" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="O117" s="45" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="118" spans="1:15" ht="101.65" x14ac:dyDescent="0.35">
@@ -9170,22 +9169,22 @@
         <v>122</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="C118" s="46" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="D118" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G118" s="10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H118" s="45">
         <v>4.7363860000000004</v>
@@ -9197,19 +9196,19 @@
         <v>21</v>
       </c>
       <c r="K118" s="12" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="L118" s="10" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M118" s="13" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="N118" s="14" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="O118" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="119" spans="1:15" ht="104.65" x14ac:dyDescent="0.35">
@@ -9217,22 +9216,22 @@
         <v>123</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="D119" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F119" s="10" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G119" s="10" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="H119" s="45">
         <v>-17.612545000000001</v>
@@ -9244,19 +9243,19 @@
         <v>21</v>
       </c>
       <c r="K119" s="12" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="L119" s="10" t="s">
         <v>67</v>
       </c>
       <c r="M119" s="13" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="N119" s="14" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="O119" s="45" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="120" spans="1:15" ht="81.400000000000006" x14ac:dyDescent="0.35">
@@ -9264,22 +9263,22 @@
         <v>124</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="D120" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F120" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G120" s="10" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="H120" s="45">
         <v>7.1178910000000002</v>
@@ -9291,19 +9290,19 @@
         <v>21</v>
       </c>
       <c r="K120" s="12" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="L120" s="10" t="s">
         <v>125</v>
       </c>
       <c r="M120" s="13" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="N120" s="14" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="O120" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="121" spans="1:15" ht="81.400000000000006" x14ac:dyDescent="0.35">
@@ -9311,10 +9310,10 @@
         <v>125</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="D121" s="10" t="s">
         <v>38</v>
@@ -9326,7 +9325,7 @@
         <v>170</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="H121" s="45">
         <v>3.83209</v>
@@ -9338,16 +9337,16 @@
         <v>134</v>
       </c>
       <c r="K121" s="12" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="L121" s="10" t="s">
         <v>83</v>
       </c>
       <c r="M121" s="13" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="N121" s="14" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="O121" s="45" t="s">
         <v>175</v>
@@ -9358,22 +9357,22 @@
         <v>126</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="D122" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E122" s="10" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="F122" s="10" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="G122" s="10" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="H122" s="47">
         <v>31.902719999999999</v>
@@ -9385,7 +9384,7 @@
         <v>58</v>
       </c>
       <c r="K122" s="12" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="L122" s="10" t="s">
         <v>29</v>
@@ -9393,7 +9392,7 @@
       <c r="M122" s="10"/>
       <c r="N122" s="14"/>
       <c r="O122" s="45" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
     </row>
     <row r="123" spans="1:15" ht="93" x14ac:dyDescent="0.35">
@@ -9401,22 +9400,22 @@
         <v>127</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="D123" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="F123" s="10" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="G123" s="10" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="H123" s="45">
         <v>-6.1997270000000002</v>
@@ -9428,19 +9427,19 @@
         <v>58</v>
       </c>
       <c r="K123" s="20" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="L123" s="10" t="s">
         <v>29</v>
       </c>
       <c r="M123" s="13" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="N123" s="14" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="O123" s="45" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
     </row>
     <row r="124" spans="1:15" ht="104.65" x14ac:dyDescent="0.35">
@@ -9448,22 +9447,22 @@
         <v>128</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="D124" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="G124" s="10" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="H124" s="45">
         <v>-6.2333379999999998</v>
@@ -9475,19 +9474,19 @@
         <v>58</v>
       </c>
       <c r="K124" s="12" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="L124" s="10" t="s">
         <v>67</v>
       </c>
       <c r="M124" s="13" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="N124" s="14" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="O124" s="45" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
     </row>
     <row r="125" spans="1:15" ht="104.65" x14ac:dyDescent="0.35">
@@ -9495,22 +9494,22 @@
         <v>129</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="D125" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E125" s="10" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F125" s="10" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G125" s="10" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H125" s="45">
         <v>27.705015</v>
@@ -9522,19 +9521,19 @@
         <v>58</v>
       </c>
       <c r="K125" s="12" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="L125" s="10" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M125" s="13" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="N125" s="14" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="O125" s="45" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="126" spans="1:15" ht="111.75" x14ac:dyDescent="0.35">
@@ -9542,22 +9541,22 @@
         <v>130</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="D126" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="F126" s="10" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="G126" s="10" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="H126" s="45">
         <v>3.6285400000000001</v>
@@ -9569,19 +9568,19 @@
         <v>58</v>
       </c>
       <c r="K126" s="12" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="L126" s="10" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="M126" s="13" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="N126" s="14" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="O126" s="45" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
     </row>
     <row r="127" spans="1:15" ht="71.25" x14ac:dyDescent="0.35">
@@ -9589,22 +9588,22 @@
         <v>131</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="D127" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F127" s="10" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H127" s="45">
         <v>14.628663</v>
@@ -9616,19 +9615,19 @@
         <v>58</v>
       </c>
       <c r="K127" s="12" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="L127" s="10" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M127" s="13" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="N127" s="14" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="O127" s="45" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="128" spans="1:15" ht="71.25" x14ac:dyDescent="0.35">
@@ -9636,22 +9635,22 @@
         <v>132</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="D128" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E128" s="10" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="F128" s="10" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="G128" s="10" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="H128" s="45">
         <v>5.3306649999999998</v>
@@ -9663,19 +9662,19 @@
         <v>134</v>
       </c>
       <c r="K128" s="12" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="L128" s="10" t="s">
         <v>83</v>
       </c>
       <c r="M128" s="13" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="N128" s="14" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="O128" s="45" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
     </row>
     <row r="129" spans="1:15" ht="71.25" x14ac:dyDescent="0.35">
@@ -9683,22 +9682,22 @@
         <v>133</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="D129" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F129" s="10" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H129" s="45">
         <v>13.57724</v>
@@ -9710,67 +9709,34 @@
         <v>134</v>
       </c>
       <c r="K129" s="12" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="L129" s="10" t="s">
         <v>67</v>
       </c>
       <c r="M129" s="13" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="N129" s="14" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="O129" s="45" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15" ht="71.25" x14ac:dyDescent="0.35">
-      <c r="A130" s="9">
-        <v>133</v>
-      </c>
-      <c r="B130" s="9" t="s">
-        <v>872</v>
-      </c>
-      <c r="C130" s="9" t="s">
-        <v>873</v>
-      </c>
-      <c r="D130" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E130" s="10" t="s">
-        <v>494</v>
-      </c>
-      <c r="F130" s="10" t="s">
-        <v>494</v>
-      </c>
-      <c r="G130" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="H130" s="45">
-        <v>13.57724</v>
-      </c>
-      <c r="I130" s="45">
-        <v>2.0857209999999999</v>
-      </c>
-      <c r="J130" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="K130" s="12" t="s">
-        <v>874</v>
-      </c>
-      <c r="L130" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="M130" s="13" t="s">
-        <v>875</v>
-      </c>
-      <c r="N130" s="14" t="s">
-        <v>876</v>
-      </c>
-      <c r="O130" s="45" t="s">
-        <v>499</v>
-      </c>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A130" s="9"/>
+      <c r="B130" s="9"/>
+      <c r="C130" s="9"/>
+      <c r="D130" s="10"/>
+      <c r="E130" s="10"/>
+      <c r="F130" s="10"/>
+      <c r="G130" s="10"/>
+      <c r="J130" s="10"/>
+      <c r="K130" s="39"/>
+      <c r="L130" s="10"/>
+      <c r="M130" s="10"/>
+      <c r="N130" s="14"/>
     </row>
     <row r="131" spans="1:15" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A131" s="9"/>
@@ -21658,32 +21624,18 @@
       <c r="M979" s="10"/>
       <c r="N979" s="14"/>
     </row>
-    <row r="980" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A980" s="9"/>
-      <c r="B980" s="9"/>
-      <c r="C980" s="9"/>
-      <c r="D980" s="10"/>
-      <c r="E980" s="10"/>
-      <c r="F980" s="10"/>
-      <c r="G980" s="10"/>
-      <c r="J980" s="10"/>
-      <c r="K980" s="39"/>
-      <c r="L980" s="10"/>
-      <c r="M980" s="10"/>
-      <c r="N980" s="14"/>
-    </row>
   </sheetData>
   <dataValidations count="10">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J2:J110" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Select below,Africa,Asia and the Pacific,Europe,Latin America and the Caribbean,North America,Global"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D111:D130" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D111:D129" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Local Union,National Union,National Centre,Regional Body,Global Union Federation,Participating Ally"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J111:J130" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J111:J129" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Africa,Asia and the Pacific,Europe,Latin America and the Caribbean,North America,Global"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L45 L49 L68 L71 L81 L85 L91 L103 L108:L109 L111:L130" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L45 L49 L68 L71 L81 L85 L91 L103 L108:L109 L111:L129" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"Diverse,Education,Energy - Electricity,Energy - Hydrocarbon,Energy - Mining,Energy - Other,Agriculture / Food Service,Health,Industry / Manufacturing,National Centre,Professionals,Private Sector,Public Services,Retail,Transport,Other"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D82 D84:D110" xr:uid="{00000000-0002-0000-0000-000004000000}">
@@ -21957,11 +21909,9 @@
     <hyperlink ref="M128" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
     <hyperlink ref="K129" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
     <hyperlink ref="M129" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="K130" r:id="rId252" xr:uid="{0A743213-8901-4C21-A8DC-69BC06F59602}"/>
-    <hyperlink ref="M130" r:id="rId253" xr:uid="{D4E5850D-5C9B-4127-B479-24D242F4A0F7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId254"/>
+  <legacyDrawing r:id="rId252"/>
 </worksheet>
 </file>
 
@@ -22023,7 +21973,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>12</v>
@@ -22045,31 +21995,31 @@
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
     </row>
-    <row r="2" spans="1:25" ht="63.75" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" s="9">
         <v>119</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="48" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
       <c r="N2" s="14"/>
     </row>
-    <row r="3" spans="1:25" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>121</v>
       </c>
@@ -22085,7 +22035,7 @@
       <c r="M3" s="10"/>
       <c r="N3" s="14"/>
     </row>
-    <row r="4" spans="1:25" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>122</v>
       </c>
@@ -22101,7 +22051,7 @@
       <c r="M4" s="10"/>
       <c r="N4" s="14"/>
     </row>
-    <row r="5" spans="1:25" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>123</v>
       </c>
@@ -22117,7 +22067,7 @@
       <c r="M5" s="10"/>
       <c r="N5" s="14"/>
     </row>
-    <row r="6" spans="1:25" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>124</v>
       </c>
@@ -22133,7 +22083,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="14"/>
     </row>
-    <row r="7" spans="1:25" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>125</v>
       </c>
@@ -22149,7 +22099,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="14"/>
     </row>
-    <row r="8" spans="1:25" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>126</v>
       </c>
@@ -22165,7 +22115,7 @@
       <c r="M8" s="10"/>
       <c r="N8" s="14"/>
     </row>
-    <row r="9" spans="1:25" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>127</v>
       </c>
@@ -22181,7 +22131,7 @@
       <c r="M9" s="10"/>
       <c r="N9" s="14"/>
     </row>
-    <row r="10" spans="1:25" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>128</v>
       </c>
@@ -22197,7 +22147,7 @@
       <c r="M10" s="10"/>
       <c r="N10" s="14"/>
     </row>
-    <row r="11" spans="1:25" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>129</v>
       </c>
@@ -22213,7 +22163,7 @@
       <c r="M11" s="10"/>
       <c r="N11" s="14"/>
     </row>
-    <row r="12" spans="1:25" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>130</v>
       </c>
@@ -22229,7 +22179,7 @@
       <c r="M12" s="10"/>
       <c r="N12" s="14"/>
     </row>
-    <row r="13" spans="1:25" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -22243,7 +22193,7 @@
       <c r="M13" s="10"/>
       <c r="N13" s="14"/>
     </row>
-    <row r="14" spans="1:25" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -22257,7 +22207,7 @@
       <c r="M14" s="10"/>
       <c r="N14" s="14"/>
     </row>
-    <row r="15" spans="1:25" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -22271,7 +22221,7 @@
       <c r="M15" s="10"/>
       <c r="N15" s="14"/>
     </row>
-    <row r="16" spans="1:25" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -22285,7 +22235,7 @@
       <c r="M16" s="10"/>
       <c r="N16" s="14"/>
     </row>
-    <row r="17" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -22299,7 +22249,7 @@
       <c r="M17" s="10"/>
       <c r="N17" s="14"/>
     </row>
-    <row r="18" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -22313,7 +22263,7 @@
       <c r="M18" s="10"/>
       <c r="N18" s="14"/>
     </row>
-    <row r="19" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -22327,7 +22277,7 @@
       <c r="M19" s="10"/>
       <c r="N19" s="14"/>
     </row>
-    <row r="20" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -22341,7 +22291,7 @@
       <c r="M20" s="10"/>
       <c r="N20" s="14"/>
     </row>
-    <row r="21" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -22355,7 +22305,7 @@
       <c r="M21" s="10"/>
       <c r="N21" s="14"/>
     </row>
-    <row r="22" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -22369,7 +22319,7 @@
       <c r="M22" s="10"/>
       <c r="N22" s="14"/>
     </row>
-    <row r="23" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -22383,7 +22333,7 @@
       <c r="M23" s="10"/>
       <c r="N23" s="14"/>
     </row>
-    <row r="24" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -22397,7 +22347,7 @@
       <c r="M24" s="10"/>
       <c r="N24" s="14"/>
     </row>
-    <row r="25" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -22411,7 +22361,7 @@
       <c r="M25" s="10"/>
       <c r="N25" s="14"/>
     </row>
-    <row r="26" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -22425,7 +22375,7 @@
       <c r="M26" s="10"/>
       <c r="N26" s="14"/>
     </row>
-    <row r="27" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -22439,7 +22389,7 @@
       <c r="M27" s="10"/>
       <c r="N27" s="14"/>
     </row>
-    <row r="28" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -22453,7 +22403,7 @@
       <c r="M28" s="10"/>
       <c r="N28" s="14"/>
     </row>
-    <row r="29" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -22467,7 +22417,7 @@
       <c r="M29" s="10"/>
       <c r="N29" s="14"/>
     </row>
-    <row r="30" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -22481,7 +22431,7 @@
       <c r="M30" s="10"/>
       <c r="N30" s="14"/>
     </row>
-    <row r="31" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -22495,7 +22445,7 @@
       <c r="M31" s="10"/>
       <c r="N31" s="14"/>
     </row>
-    <row r="32" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -34240,10 +34190,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>9</v>
@@ -34252,7 +34202,7 @@
         <v>10</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>12</v>
@@ -34261,10 +34211,10 @@
         <v>13</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="M1" s="51" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
@@ -34281,13 +34231,13 @@
       <c r="Z1" s="5"/>
       <c r="AA1" s="5"/>
     </row>
-    <row r="2" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -34298,27 +34248,27 @@
       <c r="L2" s="10"/>
       <c r="M2" s="52"/>
     </row>
-    <row r="3" spans="1:27" ht="34.9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>43</v>
       </c>
-      <c r="B3" s="27" t="s">
-        <v>887</v>
+      <c r="B3" s="26" t="s">
+        <v>889</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H3" s="45">
         <v>4.5983694000000002</v>
@@ -34336,31 +34286,31 @@
       <c r="M3" s="10"/>
       <c r="N3" s="14"/>
       <c r="O3" s="10" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="P3" s="52"/>
     </row>
-    <row r="4" spans="1:27" ht="197.65" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" s="53">
         <v>74</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="D4" s="55" t="s">
         <v>38</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F4" s="55" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H4" s="11">
         <v>59.915412789999998</v>
@@ -34372,19 +34322,19 @@
         <v>109</v>
       </c>
       <c r="K4" s="56" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="L4" s="55" t="s">
         <v>67</v>
       </c>
       <c r="M4" s="57" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="N4" s="58" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
@@ -34397,7 +34347,7 @@
       <c r="X4" s="8"/>
       <c r="Y4" s="8"/>
     </row>
-    <row r="5" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -34412,7 +34362,7 @@
       <c r="L5" s="10"/>
       <c r="M5" s="52"/>
     </row>
-    <row r="6" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -34427,7 +34377,7 @@
       <c r="L6" s="10"/>
       <c r="M6" s="52"/>
     </row>
-    <row r="7" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -34442,7 +34392,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="52"/>
     </row>
-    <row r="8" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -34457,7 +34407,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="52"/>
     </row>
-    <row r="9" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -34472,7 +34422,7 @@
       <c r="L9" s="10"/>
       <c r="M9" s="52"/>
     </row>
-    <row r="10" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -34487,7 +34437,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="52"/>
     </row>
-    <row r="11" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -34502,7 +34452,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="52"/>
     </row>
-    <row r="12" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -34517,7 +34467,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="52"/>
     </row>
-    <row r="13" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -34532,7 +34482,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="52"/>
     </row>
-    <row r="14" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -34547,7 +34497,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="52"/>
     </row>
-    <row r="15" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -34562,7 +34512,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="52"/>
     </row>
-    <row r="16" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -34577,7 +34527,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="52"/>
     </row>
-    <row r="17" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -34592,7 +34542,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="52"/>
     </row>
-    <row r="18" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -34607,7 +34557,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="52"/>
     </row>
-    <row r="19" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -34622,7 +34572,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="52"/>
     </row>
-    <row r="20" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -34637,7 +34587,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="52"/>
     </row>
-    <row r="21" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -34652,7 +34602,7 @@
       <c r="L21" s="10"/>
       <c r="M21" s="52"/>
     </row>
-    <row r="22" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -34667,7 +34617,7 @@
       <c r="L22" s="10"/>
       <c r="M22" s="52"/>
     </row>
-    <row r="23" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -34682,7 +34632,7 @@
       <c r="L23" s="10"/>
       <c r="M23" s="52"/>
     </row>
-    <row r="24" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -34697,7 +34647,7 @@
       <c r="L24" s="10"/>
       <c r="M24" s="52"/>
     </row>
-    <row r="25" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -34712,7 +34662,7 @@
       <c r="L25" s="10"/>
       <c r="M25" s="52"/>
     </row>
-    <row r="26" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -34727,7 +34677,7 @@
       <c r="L26" s="10"/>
       <c r="M26" s="52"/>
     </row>
-    <row r="27" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -34742,7 +34692,7 @@
       <c r="L27" s="10"/>
       <c r="M27" s="52"/>
     </row>
-    <row r="28" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -34757,7 +34707,7 @@
       <c r="L28" s="10"/>
       <c r="M28" s="52"/>
     </row>
-    <row r="29" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -34772,7 +34722,7 @@
       <c r="L29" s="10"/>
       <c r="M29" s="52"/>
     </row>
-    <row r="30" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -34787,7 +34737,7 @@
       <c r="L30" s="10"/>
       <c r="M30" s="52"/>
     </row>
-    <row r="31" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -34802,7 +34752,7 @@
       <c r="L31" s="10"/>
       <c r="M31" s="52"/>
     </row>
-    <row r="32" spans="1:13" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
